--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1278,8 +1278,8 @@
   <sheetPr/>
   <dimension ref="B3:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:B72"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1389,7 +1389,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>11</v>
@@ -1415,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>13</v>
@@ -1441,7 +1441,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>15</v>
@@ -1467,7 +1467,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>17</v>
@@ -1493,7 +1493,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>19</v>
@@ -1520,7 +1520,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>21</v>
@@ -1546,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>21</v>
@@ -1572,7 +1572,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>21</v>
@@ -1598,7 +1598,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>21</v>
@@ -1624,7 +1624,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>13</v>
@@ -1650,7 +1650,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>13</v>
@@ -1676,7 +1676,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>13</v>
@@ -1702,7 +1702,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>13</v>
@@ -1728,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>30</v>
@@ -1754,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>30</v>
@@ -1780,7 +1780,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>30</v>
@@ -1806,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>30</v>
@@ -1832,7 +1832,7 @@
         <v>10</v>
       </c>
       <c r="I24" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>21</v>
@@ -1858,7 +1858,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>21</v>
@@ -1884,7 +1884,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>21</v>
@@ -1910,7 +1910,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>13</v>
@@ -1936,7 +1936,7 @@
         <v>10</v>
       </c>
       <c r="I28" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>13</v>
@@ -1962,7 +1962,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>13</v>
@@ -1988,7 +1988,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>30</v>
@@ -2014,7 +2014,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>30</v>
@@ -2040,7 +2040,7 @@
         <v>10</v>
       </c>
       <c r="I32" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>30</v>
@@ -2066,7 +2066,7 @@
         <v>10</v>
       </c>
       <c r="I33" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>21</v>
@@ -2092,7 +2092,7 @@
         <v>10</v>
       </c>
       <c r="I34" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>21</v>
@@ -2118,7 +2118,7 @@
         <v>10</v>
       </c>
       <c r="I35" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>13</v>
@@ -2144,7 +2144,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>13</v>
@@ -2170,7 +2170,7 @@
         <v>10</v>
       </c>
       <c r="I37" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>30</v>
@@ -2196,7 +2196,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>30</v>
@@ -2222,7 +2222,7 @@
         <v>10</v>
       </c>
       <c r="I39" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>21</v>
@@ -2248,7 +2248,7 @@
         <v>10</v>
       </c>
       <c r="I40" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>13</v>
@@ -2274,7 +2274,7 @@
         <v>10</v>
       </c>
       <c r="I41" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>30</v>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
   <si>
     <t>Id</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>StoneNumber</t>
+  </si>
+  <si>
+    <t>Quality</t>
   </si>
   <si>
     <t>Des</t>
@@ -1276,22 +1279,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:J72"/>
+  <dimension ref="B3:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="9" width="12.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="5" max="10" width="12.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.75" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:10">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1316,8 +1319,11 @@
       <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1342,39 +1348,45 @@
       <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="K5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:11">
       <c r="C6" s="2">
         <v>2000001</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2">
         <v>7</v>
@@ -1391,16 +1403,19 @@
       <c r="I6" s="2">
         <v>25</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:11">
       <c r="C7" s="2">
         <v>2000002</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
@@ -1417,16 +1432,19 @@
       <c r="I7" s="2">
         <v>25</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:11">
       <c r="C8" s="2">
         <v>2000003</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
         <v>8</v>
@@ -1443,16 +1461,19 @@
       <c r="I8" s="2">
         <v>25</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:11">
       <c r="C9" s="2">
         <v>2000004</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>9</v>
@@ -1469,16 +1490,19 @@
       <c r="I9" s="2">
         <v>25</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:11">
       <c r="C10" s="2">
         <v>2000005</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2">
         <v>17</v>
@@ -1495,17 +1519,20 @@
       <c r="I10" s="2">
         <v>25</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>19</v>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" customHeight="1"/>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:10">
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C12" s="1">
         <v>2000100</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1">
         <v>15</v>
@@ -1522,16 +1549,19 @@
       <c r="I12" s="1">
         <v>5</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C13" s="1">
         <v>2000101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1">
         <v>15</v>
@@ -1548,16 +1578,19 @@
       <c r="I13" s="1">
         <v>5</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C14" s="1">
         <v>2000102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1">
         <v>15</v>
@@ -1574,16 +1607,19 @@
       <c r="I14" s="1">
         <v>5</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C15" s="1">
         <v>2000103</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1">
         <v>15</v>
@@ -1600,16 +1636,19 @@
       <c r="I15" s="1">
         <v>5</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C16" s="1">
         <v>2000104</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1">
         <v>14</v>
@@ -1626,16 +1665,19 @@
       <c r="I16" s="1">
         <v>5</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C17" s="1">
         <v>2000105</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1">
         <v>14</v>
@@ -1652,16 +1694,19 @@
       <c r="I17" s="1">
         <v>5</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C18" s="1">
         <v>2000106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1">
         <v>14</v>
@@ -1678,16 +1723,19 @@
       <c r="I18" s="1">
         <v>5</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C19" s="1">
         <v>2000107</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="1">
         <v>14</v>
@@ -1704,16 +1752,19 @@
       <c r="I19" s="1">
         <v>5</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:10">
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:11">
       <c r="C20" s="1">
         <v>2000108</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1">
         <v>16</v>
@@ -1730,16 +1781,19 @@
       <c r="I20" s="1">
         <v>5</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:10">
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:11">
       <c r="C21" s="1">
         <v>2000109</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1">
         <v>16</v>
@@ -1756,16 +1810,19 @@
       <c r="I21" s="1">
         <v>5</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:10">
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:11">
       <c r="C22" s="1">
         <v>2000110</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1">
         <v>16</v>
@@ -1782,16 +1839,19 @@
       <c r="I22" s="1">
         <v>5</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:10">
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:11">
       <c r="C23" s="1">
         <v>2000111</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="1">
         <v>16</v>
@@ -1808,16 +1868,19 @@
       <c r="I23" s="1">
         <v>5</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" s="4" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C24" s="1">
         <v>2000112</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" s="4">
         <v>15</v>
@@ -1834,16 +1897,19 @@
       <c r="I24" s="1">
         <v>10</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" s="4" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J24" s="1">
+        <v>2</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C25" s="1">
         <v>2000113</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" s="4">
         <v>15</v>
@@ -1860,16 +1926,19 @@
       <c r="I25" s="1">
         <v>10</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" s="4" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C26" s="1">
         <v>2000114</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="4">
         <v>15</v>
@@ -1886,16 +1955,19 @@
       <c r="I26" s="1">
         <v>10</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" s="4" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J26" s="1">
+        <v>2</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C27" s="1">
         <v>2000115</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="4">
         <v>14</v>
@@ -1912,16 +1984,19 @@
       <c r="I27" s="1">
         <v>10</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" s="4" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C28" s="1">
         <v>2000116</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28" s="4">
         <v>14</v>
@@ -1938,16 +2013,19 @@
       <c r="I28" s="1">
         <v>10</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" s="4" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J28" s="1">
+        <v>2</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C29" s="1">
         <v>2000117</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" s="4">
         <v>14</v>
@@ -1964,16 +2042,19 @@
       <c r="I29" s="1">
         <v>10</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" s="4" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J29" s="1">
+        <v>2</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C30" s="1">
         <v>2000118</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="4">
         <v>16</v>
@@ -1990,16 +2071,19 @@
       <c r="I30" s="1">
         <v>10</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" s="4" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J30" s="1">
+        <v>2</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C31" s="1">
         <v>2000119</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="4">
         <v>16</v>
@@ -2016,16 +2100,19 @@
       <c r="I31" s="1">
         <v>10</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" s="4" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J31" s="1">
+        <v>2</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C32" s="1">
         <v>2000120</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="4">
         <v>16</v>
@@ -2042,16 +2129,19 @@
       <c r="I32" s="1">
         <v>10</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:10">
+      <c r="J32" s="1">
+        <v>2</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="3:11">
       <c r="C33" s="1">
         <v>2000121</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E33" s="1">
         <v>15</v>
@@ -2068,16 +2158,19 @@
       <c r="I33" s="1">
         <v>15</v>
       </c>
-      <c r="J33" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:10">
+      <c r="J33" s="1">
+        <v>3</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:11">
       <c r="C34" s="1">
         <v>2000122</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E34" s="1">
         <v>15</v>
@@ -2094,16 +2187,19 @@
       <c r="I34" s="1">
         <v>15</v>
       </c>
-      <c r="J34" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:10">
+      <c r="J34" s="1">
+        <v>3</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:11">
       <c r="C35" s="1">
         <v>2000123</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="1">
         <v>14</v>
@@ -2120,16 +2216,19 @@
       <c r="I35" s="1">
         <v>15</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:10">
+      <c r="J35" s="1">
+        <v>3</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:11">
       <c r="C36" s="1">
         <v>2000124</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="1">
         <v>14</v>
@@ -2146,16 +2245,19 @@
       <c r="I36" s="1">
         <v>15</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:10">
+      <c r="J36" s="1">
+        <v>3</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:11">
       <c r="C37" s="1">
         <v>2000125</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E37" s="1">
         <v>16</v>
@@ -2172,16 +2274,19 @@
       <c r="I37" s="1">
         <v>15</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:10">
+      <c r="J37" s="1">
+        <v>3</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:11">
       <c r="C38" s="1">
         <v>2000126</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" s="1">
         <v>16</v>
@@ -2198,16 +2303,19 @@
       <c r="I38" s="1">
         <v>15</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" s="5" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J38" s="1">
+        <v>3</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" s="5" customFormat="1" customHeight="1" spans="3:11">
       <c r="C39" s="1">
         <v>2000127</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E39" s="5">
         <v>15</v>
@@ -2224,16 +2332,19 @@
       <c r="I39" s="1">
         <v>20</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" s="5" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J39" s="1">
+        <v>4</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" s="5" customFormat="1" customHeight="1" spans="3:11">
       <c r="C40" s="1">
         <v>2000128</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E40" s="5">
         <v>14</v>
@@ -2250,16 +2361,19 @@
       <c r="I40" s="1">
         <v>20</v>
       </c>
-      <c r="J40" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" s="5" customFormat="1" customHeight="1" spans="3:10">
+      <c r="J40" s="1">
+        <v>4</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" s="5" customFormat="1" customHeight="1" spans="3:11">
       <c r="C41" s="1">
         <v>2000129</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E41" s="5">
         <v>16</v>
@@ -2276,338 +2390,341 @@
       <c r="I41" s="1">
         <v>20</v>
       </c>
-      <c r="J41" s="5" t="s">
-        <v>30</v>
+      <c r="J41" s="1">
+        <v>4</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
       <c r="B43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" s="1">
         <v>2000200</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
       <c r="B44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" s="1">
         <v>2000201</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:4">
       <c r="B45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" s="1">
         <v>2000202</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:4">
       <c r="B46" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" s="1">
         <v>2000203</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:4">
       <c r="B47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="1">
         <v>2000204</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:4">
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="1">
         <v>2000205</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:4">
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" s="1">
         <v>2000206</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:4">
       <c r="B50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" s="1">
         <v>2000207</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:4">
       <c r="B51" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="1">
         <v>2000208</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:4">
       <c r="B52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" s="1">
         <v>2000209</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:4">
       <c r="B53" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" s="1">
         <v>2000210</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:4">
       <c r="B54" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" s="1">
         <v>2000211</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:4">
       <c r="B55" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C55" s="1">
         <v>2000212</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:4">
       <c r="B56" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" s="1">
         <v>2000213</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:4">
       <c r="B57" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" s="1">
         <v>2000214</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:4">
       <c r="B58" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58" s="1">
         <v>2000215</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:4">
       <c r="B59" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C59" s="1">
         <v>2000216</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:4">
       <c r="B60" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C60" s="1">
         <v>2000217</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:4">
       <c r="B61" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C61" s="1">
         <v>2000218</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:4">
       <c r="B62" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C62" s="1">
         <v>2000219</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:4">
       <c r="B63" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C63" s="1">
         <v>2000220</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:4">
       <c r="B64" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C64" s="1">
         <v>2000221</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:4">
       <c r="B65" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C65" s="1">
         <v>2000222</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:4">
       <c r="B66" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C66" s="1">
         <v>2000223</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C67" s="1">
         <v>2000224</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:4">
       <c r="B68" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C68" s="1">
         <v>2000225</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:4">
       <c r="B69" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C69" s="1">
         <v>2000226</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:4">
       <c r="B70" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C70" s="1">
         <v>2000227</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="2:4">
       <c r="B71" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C71" s="1">
         <v>2000228</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:4">
       <c r="B72" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C72" s="1">
         <v>2000229</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
   <si>
     <t>Id</t>
   </si>
@@ -49,6 +49,24 @@
     <t>string</t>
   </si>
   <si>
+    <t>无尽生命</t>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>无尽攻击</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>无尽防御</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
     <t>龙城鸡腿</t>
   </si>
   <si>
@@ -58,9 +76,6 @@
     <t>死神之镰</t>
   </si>
   <si>
-    <t>攻击</t>
-  </si>
-  <si>
     <t>落意之剑</t>
   </si>
   <si>
@@ -82,9 +97,6 @@
     <t>狗头黄金</t>
   </si>
   <si>
-    <t>生命</t>
-  </si>
-  <si>
     <t>铁木灵叶</t>
   </si>
   <si>
@@ -107,9 +119,6 @@
   </si>
   <si>
     <t>阴阳玉</t>
-  </si>
-  <si>
-    <t>防御</t>
   </si>
   <si>
     <t>紫阳兽皮</t>
@@ -949,11 +958,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1279,10 +1287,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:K72"/>
+  <dimension ref="B3:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1295,101 +1303,101 @@
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C6" s="2">
-        <v>2000001</v>
+        <v>1999998</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -1398,10 +1406,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="I6" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J6" s="2">
         <v>5</v>
@@ -1410,9 +1418,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:11">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C7" s="2">
-        <v>2000002</v>
+        <v>1999999</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -1421,16 +1429,16 @@
         <v>14</v>
       </c>
       <c r="F7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="I7" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J7" s="2">
         <v>5</v>
@@ -1439,15 +1447,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:11">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C8" s="2">
-        <v>2000003</v>
+        <v>2000000</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -1456,10 +1464,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="I8" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J8" s="2">
         <v>5</v>
@@ -1470,25 +1478,25 @@
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="3:11">
       <c r="C9" s="2">
-        <v>2000004</v>
+        <v>2000001</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2">
         <v>10</v>
       </c>
       <c r="I9" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
         <v>5</v>
@@ -1499,159 +1507,129 @@
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="3:11">
       <c r="C10" s="2">
-        <v>2000005</v>
+        <v>2000002</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10" s="2">
         <v>10</v>
       </c>
       <c r="I10" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
         <v>5</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C11" s="2">
+        <v>2000003</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" s="3" customFormat="1" customHeight="1"/>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C12" s="1">
-        <v>2000100</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E11" s="2">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1">
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C12" s="2">
+        <v>2000004</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2">
         <v>5</v>
       </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C13" s="1">
-        <v>2000101</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="1">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>10</v>
-      </c>
-      <c r="I13" s="1">
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C13" s="2">
+        <v>2000005</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
         <v>5</v>
       </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C14" s="1">
-        <v>2000102</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>10</v>
-      </c>
-      <c r="I14" s="1">
-        <v>5</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C15" s="1">
-        <v>2000103</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E15" s="1">
-        <v>15</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>10</v>
-      </c>
-      <c r="I15" s="1">
-        <v>5</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C16" s="1">
-        <v>2000104</v>
+        <v>2000100</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1663,24 +1641,24 @@
         <v>10</v>
       </c>
       <c r="I16" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C17" s="1">
-        <v>2000105</v>
+        <v>2000101</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1692,24 +1670,24 @@
         <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C18" s="1">
-        <v>2000106</v>
+        <v>2000102</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -1721,24 +1699,24 @@
         <v>10</v>
       </c>
       <c r="I18" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C19" s="1">
-        <v>2000107</v>
+        <v>2000103</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -1750,517 +1728,517 @@
         <v>10</v>
       </c>
       <c r="I19" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C20" s="1">
-        <v>2000108</v>
+        <v>2000104</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="1">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C21" s="1">
+        <v>2000105</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C22" s="1">
+        <v>2000106</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="1">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C23" s="1">
+        <v>2000107</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="1">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:11">
+      <c r="C24" s="1">
+        <v>2000108</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1">
         <v>16</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>10</v>
-      </c>
-      <c r="I20" s="1">
-        <v>5</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:11">
-      <c r="C21" s="1">
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:11">
+      <c r="C25" s="1">
         <v>2000109</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1">
         <v>16</v>
       </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>10</v>
-      </c>
-      <c r="I21" s="1">
-        <v>5</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:11">
-      <c r="C22" s="1">
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>10</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:11">
+      <c r="C26" s="1">
         <v>2000110</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="1">
         <v>16</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>10</v>
-      </c>
-      <c r="I22" s="1">
-        <v>5</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:11">
-      <c r="C23" s="1">
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="3:11">
+      <c r="C27" s="1">
         <v>2000111</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="1">
         <v>16</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>10</v>
-      </c>
-      <c r="I23" s="1">
-        <v>5</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" s="4" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C24" s="1">
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C28" s="1">
         <v>2000112</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="3">
         <v>15</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F28" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G28" s="3">
         <v>2</v>
       </c>
-      <c r="H24" s="4">
-        <v>10</v>
-      </c>
-      <c r="I24" s="1">
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
-        <v>2</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" s="4" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C25" s="1">
-        <v>2000113</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="4">
-        <v>15</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4">
-        <v>2</v>
-      </c>
-      <c r="H25" s="4">
-        <v>10</v>
-      </c>
-      <c r="I25" s="1">
-        <v>10</v>
-      </c>
-      <c r="J25" s="1">
-        <v>2</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" s="4" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C26" s="1">
-        <v>2000114</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="4">
-        <v>15</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2</v>
-      </c>
-      <c r="G26" s="4">
-        <v>2</v>
-      </c>
-      <c r="H26" s="4">
-        <v>10</v>
-      </c>
-      <c r="I26" s="1">
-        <v>10</v>
-      </c>
-      <c r="J26" s="1">
-        <v>2</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" s="4" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C27" s="1">
-        <v>2000115</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="4">
-        <v>14</v>
-      </c>
-      <c r="F27" s="4">
-        <v>2</v>
-      </c>
-      <c r="G27" s="4">
-        <v>2</v>
-      </c>
-      <c r="H27" s="4">
-        <v>10</v>
-      </c>
-      <c r="I27" s="1">
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" s="4" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C28" s="1">
-        <v>2000116</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="4">
-        <v>14</v>
-      </c>
-      <c r="F28" s="4">
-        <v>2</v>
-      </c>
-      <c r="G28" s="4">
-        <v>2</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>10</v>
       </c>
       <c r="I28" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
         <v>2</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" customHeight="1" spans="3:11">
       <c r="C29" s="1">
-        <v>2000117</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="4">
-        <v>14</v>
-      </c>
-      <c r="F29" s="4">
+        <v>2000113</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="3">
+        <v>15</v>
+      </c>
+      <c r="F29" s="3">
         <v>2</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>2</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>10</v>
       </c>
       <c r="I29" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
         <v>2</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" customHeight="1" spans="3:11">
       <c r="C30" s="1">
-        <v>2000118</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="4">
-        <v>16</v>
-      </c>
-      <c r="F30" s="4">
+        <v>2000114</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="3">
+        <v>15</v>
+      </c>
+      <c r="F30" s="3">
         <v>2</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>2</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>10</v>
       </c>
       <c r="I30" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
         <v>2</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1" customHeight="1" spans="3:11">
       <c r="C31" s="1">
-        <v>2000119</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="4">
-        <v>16</v>
-      </c>
-      <c r="F31" s="4">
+        <v>2000115</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="3">
+        <v>14</v>
+      </c>
+      <c r="F31" s="3">
         <v>2</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>2</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <v>10</v>
       </c>
       <c r="I31" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1">
         <v>2</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" s="3" customFormat="1" customHeight="1" spans="3:11">
       <c r="C32" s="1">
-        <v>2000120</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="4">
-        <v>16</v>
-      </c>
-      <c r="F32" s="4">
+        <v>2000116</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="3">
+        <v>14</v>
+      </c>
+      <c r="F32" s="3">
         <v>2</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>2</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <v>10</v>
       </c>
       <c r="I32" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1">
         <v>2</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:11">
+      <c r="K32" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" s="3" customFormat="1" customHeight="1" spans="3:11">
       <c r="C33" s="1">
-        <v>2000121</v>
-      </c>
-      <c r="D33" s="1" t="s">
+        <v>2000117</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="3">
+        <v>14</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>2</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C34" s="1">
+        <v>2000118</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="1">
-        <v>15</v>
-      </c>
-      <c r="F33" s="1">
-        <v>3</v>
-      </c>
-      <c r="G33" s="1">
-        <v>3</v>
-      </c>
-      <c r="H33" s="1">
-        <v>10</v>
-      </c>
-      <c r="I33" s="1">
-        <v>15</v>
-      </c>
-      <c r="J33" s="1">
-        <v>3</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:11">
-      <c r="C34" s="1">
-        <v>2000122</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="3">
+        <v>16</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2</v>
+      </c>
+      <c r="H34" s="3">
+        <v>10</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>2</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C35" s="1">
+        <v>2000119</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="1">
-        <v>15</v>
-      </c>
-      <c r="F34" s="1">
-        <v>3</v>
-      </c>
-      <c r="G34" s="1">
-        <v>3</v>
-      </c>
-      <c r="H34" s="1">
-        <v>10</v>
-      </c>
-      <c r="I34" s="1">
-        <v>15</v>
-      </c>
-      <c r="J34" s="1">
-        <v>3</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:11">
-      <c r="C35" s="1">
-        <v>2000123</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="3">
+        <v>16</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2</v>
+      </c>
+      <c r="H35" s="3">
+        <v>10</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C36" s="1">
+        <v>2000120</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="1">
-        <v>14</v>
-      </c>
-      <c r="F35" s="1">
-        <v>3</v>
-      </c>
-      <c r="G35" s="1">
-        <v>3</v>
-      </c>
-      <c r="H35" s="1">
-        <v>10</v>
-      </c>
-      <c r="I35" s="1">
-        <v>15</v>
-      </c>
-      <c r="J35" s="1">
-        <v>3</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:11">
-      <c r="C36" s="1">
-        <v>2000124</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="1">
-        <v>14</v>
-      </c>
-      <c r="F36" s="1">
-        <v>3</v>
-      </c>
-      <c r="G36" s="1">
-        <v>3</v>
-      </c>
-      <c r="H36" s="1">
+      <c r="E36" s="3">
+        <v>16</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2</v>
+      </c>
+      <c r="H36" s="3">
         <v>10</v>
       </c>
       <c r="I36" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>3</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:11">
       <c r="C37" s="1">
-        <v>2000125</v>
+        <v>2000121</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E37" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F37" s="1">
         <v>3</v>
@@ -2272,24 +2250,24 @@
         <v>10</v>
       </c>
       <c r="I37" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1">
         <v>3</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>31</v>
+      <c r="K37" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="3:11">
       <c r="C38" s="1">
-        <v>2000126</v>
+        <v>2000122</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E38" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F38" s="1">
         <v>3</v>
@@ -2301,430 +2279,546 @@
         <v>10</v>
       </c>
       <c r="I38" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
         <v>3</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" s="5" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K38" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:11">
       <c r="C39" s="1">
+        <v>2000123</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="1">
+        <v>14</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>10</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>3</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:11">
+      <c r="C40" s="1">
+        <v>2000124</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="1">
+        <v>14</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>10</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>3</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:11">
+      <c r="C41" s="1">
+        <v>2000125</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="1">
+        <v>16</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>10</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:11">
+      <c r="C42" s="1">
+        <v>2000126</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="1">
+        <v>16</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1">
+        <v>10</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>3</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C43" s="1">
         <v>2000127</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="5">
+      <c r="D43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="4">
         <v>15</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F43" s="4">
         <v>4</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G43" s="4">
         <v>4</v>
       </c>
-      <c r="H39" s="5">
-        <v>10</v>
-      </c>
-      <c r="I39" s="1">
-        <v>20</v>
-      </c>
-      <c r="J39" s="1">
+      <c r="H43" s="4">
+        <v>10</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
         <v>4</v>
       </c>
-      <c r="K39" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" s="5" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C40" s="1">
+      <c r="K43" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C44" s="1">
         <v>2000128</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="D44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="4">
         <v>14</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F44" s="4">
         <v>4</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G44" s="4">
         <v>4</v>
       </c>
-      <c r="H40" s="5">
-        <v>10</v>
-      </c>
-      <c r="I40" s="1">
-        <v>20</v>
-      </c>
-      <c r="J40" s="1">
+      <c r="H44" s="4">
+        <v>10</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
         <v>4</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K44" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" s="5" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C41" s="1">
+    <row r="45" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C45" s="1">
         <v>2000129</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="5">
+      <c r="D45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="4">
         <v>16</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F45" s="4">
         <v>4</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G45" s="4">
         <v>4</v>
       </c>
-      <c r="H41" s="5">
-        <v>10</v>
-      </c>
-      <c r="I41" s="1">
-        <v>20</v>
-      </c>
-      <c r="J41" s="1">
+      <c r="H45" s="4">
+        <v>10</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
         <v>4</v>
       </c>
-      <c r="K41" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="2:4">
-      <c r="B43" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2000200</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="2:4">
-      <c r="B44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2000201</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:4">
-      <c r="B45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="1">
-        <v>2000202</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="2:4">
-      <c r="B46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="1">
-        <v>2000203</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>57</v>
+      <c r="K45" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:4">
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C47" s="1">
-        <v>2000204</v>
+        <v>2000200</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:4">
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C48" s="1">
-        <v>2000205</v>
+        <v>2000201</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:4">
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C49" s="1">
-        <v>2000206</v>
+        <v>2000202</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:4">
       <c r="B50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C50" s="1">
-        <v>2000207</v>
+        <v>2000203</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:4">
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C51" s="1">
-        <v>2000208</v>
+        <v>2000204</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:4">
       <c r="B52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C52" s="1">
-        <v>2000209</v>
+        <v>2000205</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:4">
       <c r="B53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1">
-        <v>2000210</v>
+        <v>2000206</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:4">
       <c r="B54" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C54" s="1">
-        <v>2000211</v>
+        <v>2000207</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:4">
       <c r="B55" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C55" s="1">
-        <v>2000212</v>
+        <v>2000208</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:4">
       <c r="B56" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C56" s="1">
-        <v>2000213</v>
+        <v>2000209</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:4">
       <c r="B57" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C57" s="1">
-        <v>2000214</v>
+        <v>2000210</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:4">
       <c r="B58" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1">
-        <v>2000215</v>
+        <v>2000211</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:4">
       <c r="B59" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C59" s="1">
-        <v>2000216</v>
+        <v>2000212</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:4">
       <c r="B60" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C60" s="1">
-        <v>2000217</v>
+        <v>2000213</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:4">
       <c r="B61" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C61" s="1">
-        <v>2000218</v>
+        <v>2000214</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:4">
       <c r="B62" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C62" s="1">
-        <v>2000219</v>
+        <v>2000215</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:4">
       <c r="B63" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C63" s="1">
-        <v>2000220</v>
+        <v>2000216</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:4">
       <c r="B64" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C64" s="1">
-        <v>2000221</v>
+        <v>2000217</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:4">
       <c r="B65" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C65" s="1">
-        <v>2000222</v>
+        <v>2000218</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:4">
       <c r="B66" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C66" s="1">
-        <v>2000223</v>
+        <v>2000219</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C67" s="1">
-        <v>2000224</v>
+        <v>2000220</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:4">
       <c r="B68" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C68" s="1">
-        <v>2000225</v>
+        <v>2000221</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:4">
       <c r="B69" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C69" s="1">
-        <v>2000226</v>
+        <v>2000222</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:4">
       <c r="B70" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C70" s="1">
-        <v>2000227</v>
+        <v>2000223</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="2:4">
       <c r="B71" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C71" s="1">
-        <v>2000228</v>
+        <v>2000224</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:4">
       <c r="B72" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C72" s="1">
+        <v>2000225</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="2:4">
+      <c r="B73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2000226</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="2:4">
+      <c r="B74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2000227</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="2:4">
+      <c r="B75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2000228</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="2:4">
+      <c r="B76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="1">
         <v>2000229</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>83</v>
+      <c r="D76" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
   <si>
     <t>Id</t>
   </si>
@@ -92,6 +92,27 @@
   </si>
   <si>
     <t>继承加成</t>
+  </si>
+  <si>
+    <t>龙城攻击</t>
+  </si>
+  <si>
+    <t>龙城防御</t>
+  </si>
+  <si>
+    <t>龙城生命</t>
+  </si>
+  <si>
+    <t>龙城增伤</t>
+  </si>
+  <si>
+    <t>增伤</t>
+  </si>
+  <si>
+    <t>龙城减伤</t>
+  </si>
+  <si>
+    <t>减伤</t>
   </si>
   <si>
     <t>狗头黄金</t>
@@ -287,7 +308,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,7 +325,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -330,6 +350,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -483,18 +509,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -828,146 +848,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1287,10 +1309,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:K76"/>
+  <dimension ref="B3:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1303,1122 +1325,1044 @@
   </cols>
   <sheetData>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C6" s="2">
+      <c r="K5" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C6" s="3">
         <v>1999998</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>15</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
         <v>200</v>
       </c>
-      <c r="I6" s="2">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="I6" s="3">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3">
         <v>5</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C7" s="2">
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C7" s="3">
         <v>1999999</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>14</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
         <v>200</v>
       </c>
-      <c r="I7" s="2">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+      <c r="J7" s="3">
         <v>5</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C8" s="2">
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C8" s="3">
         <v>2000000</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>16</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="2">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="I8" s="3">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
         <v>5</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C9" s="2">
+    <row r="9" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C9" s="3">
         <v>2000001</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>7</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>10</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>5</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C10" s="2">
+    <row r="10" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C10" s="3">
         <v>2000002</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>14</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>5</v>
       </c>
-      <c r="H10" s="2">
-        <v>10</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="H10" s="3">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>5</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C11" s="2">
+    <row r="11" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C11" s="3">
         <v>2000003</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>8</v>
       </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>10</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
         <v>5</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C12" s="2">
+    <row r="12" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C12" s="3">
         <v>2000004</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>9</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>5</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>5</v>
       </c>
-      <c r="H12" s="2">
-        <v>10</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>5</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C13" s="2">
+    <row r="13" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C13" s="3">
         <v>2000005</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>17</v>
       </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>10</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
         <v>5</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C16" s="1">
+    <row r="14" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C14" s="3">
+        <v>2000006</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3">
+        <v>14</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C15" s="3">
+        <v>2000007</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>10</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C16" s="3">
+        <v>2000008</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3">
+        <v>20</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>5</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C17" s="3">
+        <v>2000009</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="7">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C18" s="3">
+        <v>2000010</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="7">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>10</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" customHeight="1"/>
+    <row r="20" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C26" s="1">
         <v>2000100</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="1">
         <v>15</v>
       </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>10</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1" t="s">
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C17" s="1">
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C27" s="1">
         <v>2000101</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="1">
         <v>15</v>
       </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>10</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C18" s="1">
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C28" s="1">
         <v>2000102</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="1">
         <v>15</v>
       </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>10</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>10</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C19" s="1">
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C29" s="1">
         <v>2000103</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1">
         <v>15</v>
       </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>10</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>10</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C20" s="1">
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C30" s="1">
         <v>2000104</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="1">
         <v>14</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>10</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="s">
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C21" s="1">
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C31" s="1">
         <v>2000105</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="1">
         <v>14</v>
       </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1">
-        <v>10</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1" t="s">
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C22" s="1">
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C32" s="1">
         <v>2000106</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="1">
         <v>14</v>
       </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>10</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>10</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C23" s="1">
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C33" s="1">
         <v>2000107</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="1">
         <v>14</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
-        <v>10</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="3:11">
-      <c r="C24" s="1">
+    <row r="34" customHeight="1" spans="3:11">
+      <c r="C34" s="1">
         <v>2000108</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="1">
         <v>16</v>
       </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>10</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>10</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="3:11">
-      <c r="C25" s="1">
+    <row r="35" customHeight="1" spans="3:11">
+      <c r="C35" s="1">
         <v>2000109</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="1">
         <v>16</v>
       </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>10</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>10</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="3:11">
-      <c r="C26" s="1">
+    <row r="36" customHeight="1" spans="3:11">
+      <c r="C36" s="1">
         <v>2000110</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="1">
         <v>16</v>
       </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>10</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:11">
-      <c r="C27" s="1">
-        <v>2000111</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="1">
-        <v>16</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>10</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" s="3" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C28" s="1">
-        <v>2000112</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="3">
-        <v>15</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2</v>
-      </c>
-      <c r="G28" s="3">
-        <v>2</v>
-      </c>
-      <c r="H28" s="3">
-        <v>10</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>2</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" s="3" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C29" s="1">
-        <v>2000113</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="3">
-        <v>15</v>
-      </c>
-      <c r="F29" s="3">
-        <v>2</v>
-      </c>
-      <c r="G29" s="3">
-        <v>2</v>
-      </c>
-      <c r="H29" s="3">
-        <v>10</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>2</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" s="3" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C30" s="1">
-        <v>2000114</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="3">
-        <v>15</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2</v>
-      </c>
-      <c r="G30" s="3">
-        <v>2</v>
-      </c>
-      <c r="H30" s="3">
-        <v>10</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>2</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" s="3" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C31" s="1">
-        <v>2000115</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="3">
-        <v>14</v>
-      </c>
-      <c r="F31" s="3">
-        <v>2</v>
-      </c>
-      <c r="G31" s="3">
-        <v>2</v>
-      </c>
-      <c r="H31" s="3">
-        <v>10</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
-        <v>2</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" s="3" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C32" s="1">
-        <v>2000116</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="3">
-        <v>14</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2</v>
-      </c>
-      <c r="H32" s="3">
-        <v>10</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1">
-        <v>2</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" s="3" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C33" s="1">
-        <v>2000117</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="3">
-        <v>14</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2</v>
-      </c>
-      <c r="G33" s="3">
-        <v>2</v>
-      </c>
-      <c r="H33" s="3">
-        <v>10</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1">
-        <v>2</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" s="3" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C34" s="1">
-        <v>2000118</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="3">
-        <v>16</v>
-      </c>
-      <c r="F34" s="3">
-        <v>2</v>
-      </c>
-      <c r="G34" s="3">
-        <v>2</v>
-      </c>
-      <c r="H34" s="3">
-        <v>10</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>2</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" s="3" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C35" s="1">
-        <v>2000119</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="3">
-        <v>16</v>
-      </c>
-      <c r="F35" s="3">
-        <v>2</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2</v>
-      </c>
-      <c r="H35" s="3">
-        <v>10</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
-        <v>2</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" s="3" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C36" s="1">
-        <v>2000120</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="3">
-        <v>16</v>
-      </c>
-      <c r="F36" s="3">
-        <v>2</v>
-      </c>
-      <c r="G36" s="3">
-        <v>2</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
         <v>10</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>2</v>
-      </c>
-      <c r="K36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:11">
       <c r="C37" s="1">
-        <v>2000121</v>
+        <v>2000111</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="1">
+        <v>16</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>10</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C38" s="1">
+        <v>2000112</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="4">
+        <v>15</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4">
+        <v>2</v>
+      </c>
+      <c r="H38" s="4">
+        <v>10</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C39" s="1">
+        <v>2000113</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="4">
+        <v>15</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4">
+        <v>2</v>
+      </c>
+      <c r="H39" s="4">
+        <v>10</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C40" s="1">
+        <v>2000114</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E40" s="4">
         <v>15</v>
       </c>
-      <c r="F37" s="1">
-        <v>3</v>
-      </c>
-      <c r="G37" s="1">
-        <v>3</v>
-      </c>
-      <c r="H37" s="1">
-        <v>10</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>3</v>
-      </c>
-      <c r="K37" s="6" t="s">
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4">
+        <v>10</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="3:11">
-      <c r="C38" s="1">
-        <v>2000122</v>
-      </c>
-      <c r="D38" s="1" t="s">
+    <row r="41" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C41" s="1">
+        <v>2000115</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="1">
-        <v>15</v>
-      </c>
-      <c r="F38" s="1">
-        <v>3</v>
-      </c>
-      <c r="G38" s="1">
-        <v>3</v>
-      </c>
-      <c r="H38" s="1">
-        <v>10</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <v>3</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:11">
-      <c r="C39" s="1">
-        <v>2000123</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E41" s="4">
+        <v>14</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" s="4">
+        <v>2</v>
+      </c>
+      <c r="H41" s="4">
+        <v>10</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C42" s="1">
+        <v>2000116</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E42" s="4">
         <v>14</v>
       </c>
-      <c r="F39" s="1">
-        <v>3</v>
-      </c>
-      <c r="G39" s="1">
-        <v>3</v>
-      </c>
-      <c r="H39" s="1">
-        <v>10</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>3</v>
-      </c>
-      <c r="K39" s="6" t="s">
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" s="4">
+        <v>2</v>
+      </c>
+      <c r="H42" s="4">
+        <v>10</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>2</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:11">
-      <c r="C40" s="1">
-        <v>2000124</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="1">
-        <v>14</v>
-      </c>
-      <c r="F40" s="1">
-        <v>3</v>
-      </c>
-      <c r="G40" s="1">
-        <v>3</v>
-      </c>
-      <c r="H40" s="1">
-        <v>10</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
-        <v>3</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:11">
-      <c r="C41" s="1">
-        <v>2000125</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="1">
-        <v>16</v>
-      </c>
-      <c r="F41" s="1">
-        <v>3</v>
-      </c>
-      <c r="G41" s="1">
-        <v>3</v>
-      </c>
-      <c r="H41" s="1">
-        <v>10</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1">
-        <v>3</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:11">
-      <c r="C42" s="1">
-        <v>2000126</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="1">
-        <v>16</v>
-      </c>
-      <c r="F42" s="1">
-        <v>3</v>
-      </c>
-      <c r="G42" s="1">
-        <v>3</v>
-      </c>
-      <c r="H42" s="1">
-        <v>10</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1">
-        <v>3</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C43" s="1">
-        <v>2000127</v>
+        <v>2000117</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E43" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F43" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G43" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H43" s="4">
         <v>10</v>
@@ -2427,27 +2371,27 @@
         <v>0</v>
       </c>
       <c r="J43" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C44" s="1">
-        <v>2000128</v>
+        <v>2000118</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E44" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F44" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G44" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H44" s="4">
         <v>10</v>
@@ -2456,27 +2400,27 @@
         <v>0</v>
       </c>
       <c r="J44" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" customHeight="1" spans="3:11">
       <c r="C45" s="1">
-        <v>2000129</v>
+        <v>2000119</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E45" s="4">
         <v>16</v>
       </c>
       <c r="F45" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G45" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H45" s="4">
         <v>10</v>
@@ -2485,340 +2429,630 @@
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="2:4">
-      <c r="B47" s="1" t="s">
+    <row r="46" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C46" s="1">
+        <v>2000120</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="4">
+        <v>16</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4">
+        <v>2</v>
+      </c>
+      <c r="H46" s="4">
+        <v>10</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:11">
+      <c r="C47" s="1">
+        <v>2000121</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="1">
+        <v>15</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3</v>
+      </c>
+      <c r="H47" s="1">
+        <v>10</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>3</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:11">
+      <c r="C48" s="1">
+        <v>2000122</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="1">
+        <v>15</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3</v>
+      </c>
+      <c r="H48" s="1">
+        <v>10</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>3</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:11">
+      <c r="C49" s="1">
+        <v>2000123</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="1">
-        <v>2000200</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="E49" s="1">
+        <v>14</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3</v>
+      </c>
+      <c r="H49" s="1">
+        <v>10</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>3</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:11">
+      <c r="C50" s="1">
+        <v>2000124</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="48" customHeight="1" spans="2:4">
-      <c r="B48" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="1">
-        <v>2000201</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="E50" s="1">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1">
+        <v>10</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>3</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:11">
+      <c r="C51" s="1">
+        <v>2000125</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="2:4">
-      <c r="B49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2000202</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="E51" s="1">
+        <v>16</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1">
+        <v>10</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>3</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:11">
+      <c r="C52" s="1">
+        <v>2000126</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="2:4">
-      <c r="B50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="1">
-        <v>2000203</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="E52" s="1">
+        <v>16</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1">
+        <v>3</v>
+      </c>
+      <c r="H52" s="1">
+        <v>10</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>3</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" s="5" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C53" s="1">
+        <v>2000127</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="2:4">
-      <c r="B51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="1">
-        <v>2000204</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="E53" s="5">
+        <v>15</v>
+      </c>
+      <c r="F53" s="5">
+        <v>4</v>
+      </c>
+      <c r="G53" s="5">
+        <v>4</v>
+      </c>
+      <c r="H53" s="5">
+        <v>10</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>4</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" s="5" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C54" s="1">
+        <v>2000128</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="52" customHeight="1" spans="2:4">
-      <c r="B52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2000205</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="E54" s="5">
+        <v>14</v>
+      </c>
+      <c r="F54" s="5">
+        <v>4</v>
+      </c>
+      <c r="G54" s="5">
+        <v>4</v>
+      </c>
+      <c r="H54" s="5">
+        <v>10</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>4</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" s="5" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C55" s="1">
+        <v>2000129</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53" customHeight="1" spans="2:4">
-      <c r="B53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2000206</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="2:4">
-      <c r="B54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2000207</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="2:4">
-      <c r="B55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="1">
-        <v>2000208</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="2:4">
-      <c r="B56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="1">
-        <v>2000209</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>66</v>
+      <c r="E55" s="5">
+        <v>16</v>
+      </c>
+      <c r="F55" s="5">
+        <v>4</v>
+      </c>
+      <c r="G55" s="5">
+        <v>4</v>
+      </c>
+      <c r="H55" s="5">
+        <v>10</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>4</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:4">
       <c r="B57" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C57" s="1">
-        <v>2000210</v>
+        <v>2000200</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:4">
       <c r="B58" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C58" s="1">
-        <v>2000211</v>
+        <v>2000201</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:4">
       <c r="B59" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C59" s="1">
-        <v>2000212</v>
+        <v>2000202</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:4">
       <c r="B60" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C60" s="1">
-        <v>2000213</v>
+        <v>2000203</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:4">
       <c r="B61" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C61" s="1">
-        <v>2000214</v>
+        <v>2000204</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:4">
       <c r="B62" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C62" s="1">
-        <v>2000215</v>
+        <v>2000205</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:4">
       <c r="B63" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C63" s="1">
-        <v>2000216</v>
+        <v>2000206</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:4">
       <c r="B64" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C64" s="1">
-        <v>2000217</v>
+        <v>2000207</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:4">
       <c r="B65" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C65" s="1">
-        <v>2000218</v>
+        <v>2000208</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:4">
       <c r="B66" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C66" s="1">
-        <v>2000219</v>
+        <v>2000209</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C67" s="1">
-        <v>2000220</v>
+        <v>2000210</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:4">
       <c r="B68" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C68" s="1">
-        <v>2000221</v>
+        <v>2000211</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:4">
       <c r="B69" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C69" s="1">
-        <v>2000222</v>
+        <v>2000212</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:4">
       <c r="B70" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C70" s="1">
-        <v>2000223</v>
+        <v>2000213</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="2:4">
       <c r="B71" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C71" s="1">
-        <v>2000224</v>
+        <v>2000214</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:4">
       <c r="B72" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C72" s="1">
-        <v>2000225</v>
+        <v>2000215</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="2:4">
       <c r="B73" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C73" s="1">
-        <v>2000226</v>
+        <v>2000216</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:4">
       <c r="B74" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C74" s="1">
-        <v>2000227</v>
+        <v>2000217</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:4">
       <c r="B75" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C75" s="1">
-        <v>2000228</v>
+        <v>2000218</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="2:4">
       <c r="B76" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C76" s="1">
+        <v>2000219</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="2:4">
+      <c r="B77" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2000220</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="2:4">
+      <c r="B78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2000221</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="2:4">
+      <c r="B79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2000222</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="2:4">
+      <c r="B80" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2000223</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="2:4">
+      <c r="B81" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2000224</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="2:4">
+      <c r="B82" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2000225</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="2:4">
+      <c r="B83" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2000226</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="2:4">
+      <c r="B84" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2000227</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="2:4">
+      <c r="B85" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2000228</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="2:4">
+      <c r="B86" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="1">
         <v>2000229</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>86</v>
+      <c r="D86" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
   <si>
     <t>Id</t>
   </si>
@@ -38,6 +51,12 @@
   </si>
   <si>
     <t>Quality</t>
+  </si>
+  <si>
+    <t>RiseLevel</t>
+  </si>
+  <si>
+    <t>RiseNumber</t>
   </si>
   <si>
     <t>Des</t>
@@ -301,14 +320,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,12 +369,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -848,137 +861,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -989,7 +1002,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1309,22 +1321,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:K86"/>
+  <dimension ref="A3:X86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="10" width="12.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="5" max="12" width="12.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.75" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:11">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1352,8 +1364,14 @@
       <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="L3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1381,42 +1399,54 @@
       <c r="K4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="L4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C5" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:11">
+        <v>11</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:21">
       <c r="C6" s="3">
         <v>1999998</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3">
         <v>15</v>
@@ -1428,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I6" s="3">
         <v>10</v>
@@ -1436,16 +1466,28 @@
       <c r="J6" s="3">
         <v>5</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K6" s="3">
+        <v>200</v>
+      </c>
+      <c r="L6" s="3">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:21">
       <c r="C7" s="3">
         <v>1999999</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3">
         <v>14</v>
@@ -1457,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I7" s="3">
         <v>10</v>
@@ -1465,16 +1507,28 @@
       <c r="J7" s="3">
         <v>5</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K7" s="3">
+        <v>200</v>
+      </c>
+      <c r="L7" s="3">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:21">
       <c r="C8" s="3">
         <v>2000000</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3">
         <v>16</v>
@@ -1486,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>10</v>
@@ -1494,16 +1548,30 @@
       <c r="J8" s="3">
         <v>5</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K8" s="3">
+        <v>200</v>
+      </c>
+      <c r="L8" s="3">
+        <v>20</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="3">
         <v>2000001</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3">
         <v>7</v>
@@ -1523,16 +1591,35 @@
       <c r="J9" s="3">
         <v>5</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K9" s="3">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="3">
         <v>2000002</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3">
         <v>14</v>
@@ -1552,16 +1639,35 @@
       <c r="J10" s="3">
         <v>5</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K10" s="3">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" s="3" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="3">
         <v>2000003</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3">
         <v>8</v>
@@ -1581,16 +1687,35 @@
       <c r="J11" s="3">
         <v>5</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K11" s="3">
+        <v>10</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" s="3" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="3">
         <v>2000004</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3">
         <v>9</v>
@@ -1610,16 +1735,35 @@
       <c r="J12" s="3">
         <v>5</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K12" s="3">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" s="3" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="3">
         <v>2000005</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3">
         <v>17</v>
@@ -1639,16 +1783,35 @@
       <c r="J13" s="3">
         <v>5</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K13" s="3">
+        <v>10</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" s="3" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="3">
         <v>2000006</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="3">
         <v>14</v>
@@ -1668,16 +1831,35 @@
       <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K14" s="3">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" s="3" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="3">
         <v>2000007</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="3">
         <v>16</v>
@@ -1697,16 +1879,35 @@
       <c r="J15" s="3">
         <v>5</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K15" s="3">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" s="3" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="3">
         <v>2000008</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3">
         <v>15</v>
@@ -1718,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
@@ -1726,18 +1927,37 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K16" s="3">
+        <v>10</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" s="3" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="3">
         <v>2000009</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="7">
+        <v>31</v>
+      </c>
+      <c r="E17" s="3">
         <v>12</v>
       </c>
       <c r="F17" s="3">
@@ -1755,18 +1975,37 @@
       <c r="J17" s="3">
         <v>5</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K17" s="3">
+        <v>10</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" s="3" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="3">
         <v>2000010</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="7">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3">
         <v>13</v>
       </c>
       <c r="F18" s="3">
@@ -1784,12 +2023,45 @@
       <c r="J18" s="3">
         <v>5</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="1" customHeight="1"/>
-    <row r="20" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K18" s="3">
+        <v>10</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" s="3" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" customFormat="1" customHeight="1" spans="1:21">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1799,8 +2071,20 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" customFormat="1" customHeight="1" spans="3:11">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" customFormat="1" customHeight="1" spans="1:21">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1810,8 +2094,20 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" customFormat="1" customHeight="1" spans="3:11">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" customFormat="1" customHeight="1" spans="1:21">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1821,8 +2117,18 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" customFormat="1" customHeight="1" spans="3:11">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" customFormat="1" customHeight="1" spans="1:21">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1832,8 +2138,18 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" customFormat="1" customHeight="1" spans="3:11">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1843,8 +2159,15 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-    </row>
-    <row r="25" customFormat="1" customHeight="1" spans="3:11">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" customFormat="1" customHeight="1" spans="3:20">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1854,13 +2177,20 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C26" s="1">
         <v>2000100</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E26" s="1">
         <v>15</v>
@@ -1880,16 +2210,22 @@
       <c r="J26" s="1">
         <v>1</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K26" s="1">
+        <v>10</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C27" s="1">
         <v>2000101</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" s="1">
         <v>15</v>
@@ -1909,16 +2245,22 @@
       <c r="J27" s="1">
         <v>1</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K27" s="1">
+        <v>10</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C28" s="1">
         <v>2000102</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E28" s="1">
         <v>15</v>
@@ -1938,16 +2280,22 @@
       <c r="J28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K28" s="1">
+        <v>10</v>
+      </c>
+      <c r="L28" s="1">
+        <v>2</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C29" s="1">
         <v>2000103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E29" s="1">
         <v>15</v>
@@ -1967,16 +2315,22 @@
       <c r="J29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K29" s="1">
+        <v>10</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C30" s="1">
         <v>2000104</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E30" s="1">
         <v>14</v>
@@ -1996,16 +2350,22 @@
       <c r="J30" s="1">
         <v>1</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K30" s="1">
+        <v>10</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C31" s="1">
         <v>2000105</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E31" s="1">
         <v>14</v>
@@ -2025,16 +2385,22 @@
       <c r="J31" s="1">
         <v>1</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K31" s="1">
+        <v>10</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C32" s="1">
         <v>2000106</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E32" s="1">
         <v>14</v>
@@ -2054,16 +2420,22 @@
       <c r="J32" s="1">
         <v>1</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K32" s="1">
+        <v>10</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C33" s="1">
         <v>2000107</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E33" s="1">
         <v>14</v>
@@ -2083,16 +2455,22 @@
       <c r="J33" s="1">
         <v>1</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:11">
+      <c r="K33" s="1">
+        <v>10</v>
+      </c>
+      <c r="L33" s="1">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="3:13">
       <c r="C34" s="1">
         <v>2000108</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1">
         <v>16</v>
@@ -2112,16 +2490,22 @@
       <c r="J34" s="1">
         <v>1</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:11">
+      <c r="K34" s="1">
+        <v>10</v>
+      </c>
+      <c r="L34" s="1">
+        <v>2</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="3:13">
       <c r="C35" s="1">
         <v>2000109</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E35" s="1">
         <v>16</v>
@@ -2141,16 +2525,22 @@
       <c r="J35" s="1">
         <v>1</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:11">
+      <c r="K35" s="1">
+        <v>10</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="3:13">
       <c r="C36" s="1">
         <v>2000110</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1">
         <v>16</v>
@@ -2170,16 +2560,22 @@
       <c r="J36" s="1">
         <v>1</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:11">
+      <c r="K36" s="1">
+        <v>10</v>
+      </c>
+      <c r="L36" s="1">
+        <v>2</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:13">
       <c r="C37" s="1">
         <v>2000111</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E37" s="1">
         <v>16</v>
@@ -2199,16 +2595,22 @@
       <c r="J37" s="1">
         <v>1</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K37" s="1">
+        <v>10</v>
+      </c>
+      <c r="L37" s="1">
+        <v>2</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C38" s="1">
         <v>2000112</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E38" s="4">
         <v>15</v>
@@ -2228,16 +2630,22 @@
       <c r="J38" s="1">
         <v>2</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K38" s="1">
+        <v>10</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C39" s="1">
         <v>2000113</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E39" s="4">
         <v>15</v>
@@ -2257,16 +2665,22 @@
       <c r="J39" s="1">
         <v>2</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K39" s="1">
+        <v>10</v>
+      </c>
+      <c r="L39" s="1">
+        <v>2</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C40" s="1">
         <v>2000114</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E40" s="4">
         <v>15</v>
@@ -2286,16 +2700,22 @@
       <c r="J40" s="1">
         <v>2</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K40" s="1">
+        <v>10</v>
+      </c>
+      <c r="L40" s="1">
+        <v>2</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C41" s="1">
         <v>2000115</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E41" s="4">
         <v>14</v>
@@ -2315,16 +2735,22 @@
       <c r="J41" s="1">
         <v>2</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K41" s="1">
+        <v>10</v>
+      </c>
+      <c r="L41" s="1">
+        <v>2</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C42" s="1">
         <v>2000116</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E42" s="4">
         <v>14</v>
@@ -2344,16 +2770,22 @@
       <c r="J42" s="1">
         <v>2</v>
       </c>
-      <c r="K42" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K42" s="1">
+        <v>10</v>
+      </c>
+      <c r="L42" s="1">
+        <v>2</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C43" s="1">
         <v>2000117</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E43" s="4">
         <v>14</v>
@@ -2373,16 +2805,22 @@
       <c r="J43" s="1">
         <v>2</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K43" s="1">
+        <v>10</v>
+      </c>
+      <c r="L43" s="1">
+        <v>2</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C44" s="1">
         <v>2000118</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E44" s="4">
         <v>16</v>
@@ -2402,16 +2840,22 @@
       <c r="J44" s="1">
         <v>2</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K44" s="1">
+        <v>10</v>
+      </c>
+      <c r="L44" s="1">
+        <v>2</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C45" s="1">
         <v>2000119</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E45" s="4">
         <v>16</v>
@@ -2431,16 +2875,22 @@
       <c r="J45" s="1">
         <v>2</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" s="4" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K45" s="1">
+        <v>10</v>
+      </c>
+      <c r="L45" s="1">
+        <v>2</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C46" s="1">
         <v>2000120</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E46" s="4">
         <v>16</v>
@@ -2460,16 +2910,22 @@
       <c r="J46" s="1">
         <v>2</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:11">
+      <c r="K46" s="1">
+        <v>10</v>
+      </c>
+      <c r="L46" s="1">
+        <v>2</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="3:13">
       <c r="C47" s="1">
         <v>2000121</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E47" s="1">
         <v>15</v>
@@ -2489,16 +2945,22 @@
       <c r="J47" s="1">
         <v>3</v>
       </c>
-      <c r="K47" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:11">
+      <c r="K47" s="1">
+        <v>10</v>
+      </c>
+      <c r="L47" s="1">
+        <v>2</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="3:13">
       <c r="C48" s="1">
         <v>2000122</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E48" s="1">
         <v>15</v>
@@ -2518,16 +2980,22 @@
       <c r="J48" s="1">
         <v>3</v>
       </c>
-      <c r="K48" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:11">
+      <c r="K48" s="1">
+        <v>10</v>
+      </c>
+      <c r="L48" s="1">
+        <v>2</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="3:13">
       <c r="C49" s="1">
         <v>2000123</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E49" s="1">
         <v>14</v>
@@ -2547,16 +3015,22 @@
       <c r="J49" s="1">
         <v>3</v>
       </c>
-      <c r="K49" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:11">
+      <c r="K49" s="1">
+        <v>10</v>
+      </c>
+      <c r="L49" s="1">
+        <v>2</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:13">
       <c r="C50" s="1">
         <v>2000124</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E50" s="1">
         <v>14</v>
@@ -2576,16 +3050,22 @@
       <c r="J50" s="1">
         <v>3</v>
       </c>
-      <c r="K50" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:11">
+      <c r="K50" s="1">
+        <v>10</v>
+      </c>
+      <c r="L50" s="1">
+        <v>2</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:13">
       <c r="C51" s="1">
         <v>2000125</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E51" s="1">
         <v>16</v>
@@ -2605,16 +3085,22 @@
       <c r="J51" s="1">
         <v>3</v>
       </c>
-      <c r="K51" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:11">
+      <c r="K51" s="1">
+        <v>10</v>
+      </c>
+      <c r="L51" s="1">
+        <v>2</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:13">
       <c r="C52" s="1">
         <v>2000126</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E52" s="1">
         <v>16</v>
@@ -2634,16 +3120,22 @@
       <c r="J52" s="1">
         <v>3</v>
       </c>
-      <c r="K52" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" s="5" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K52" s="1">
+        <v>10</v>
+      </c>
+      <c r="L52" s="1">
+        <v>2</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" s="5" customFormat="1" customHeight="1" spans="3:13">
       <c r="C53" s="1">
         <v>2000127</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E53" s="5">
         <v>15</v>
@@ -2663,16 +3155,22 @@
       <c r="J53" s="1">
         <v>4</v>
       </c>
-      <c r="K53" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" s="5" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K53" s="1">
+        <v>10</v>
+      </c>
+      <c r="L53" s="1">
+        <v>2</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" s="5" customFormat="1" customHeight="1" spans="3:13">
       <c r="C54" s="1">
         <v>2000128</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E54" s="5">
         <v>14</v>
@@ -2692,16 +3190,22 @@
       <c r="J54" s="1">
         <v>4</v>
       </c>
-      <c r="K54" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" s="5" customFormat="1" customHeight="1" spans="3:11">
+      <c r="K54" s="1">
+        <v>10</v>
+      </c>
+      <c r="L54" s="1">
+        <v>2</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" s="5" customFormat="1" customHeight="1" spans="3:13">
       <c r="C55" s="1">
         <v>2000129</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E55" s="5">
         <v>16</v>
@@ -2721,338 +3225,344 @@
       <c r="J55" s="1">
         <v>4</v>
       </c>
-      <c r="K55" s="5" t="s">
-        <v>16</v>
+      <c r="K55" s="1">
+        <v>10</v>
+      </c>
+      <c r="L55" s="1">
+        <v>2</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:4">
       <c r="B57" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C57" s="1">
         <v>2000200</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:4">
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C58" s="1">
         <v>2000201</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:4">
       <c r="B59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C59" s="1">
         <v>2000202</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:4">
       <c r="B60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C60" s="1">
         <v>2000203</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:4">
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C61" s="1">
         <v>2000204</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:4">
       <c r="B62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C62" s="1">
         <v>2000205</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:4">
       <c r="B63" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C63" s="1">
         <v>2000206</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:4">
       <c r="B64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C64" s="1">
         <v>2000207</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:4">
       <c r="B65" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C65" s="1">
         <v>2000208</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:4">
       <c r="B66" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C66" s="1">
         <v>2000209</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C67" s="1">
         <v>2000210</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:4">
       <c r="B68" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C68" s="1">
         <v>2000211</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:4">
       <c r="B69" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C69" s="1">
         <v>2000212</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:4">
       <c r="B70" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C70" s="1">
         <v>2000213</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="2:4">
       <c r="B71" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C71" s="1">
         <v>2000214</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:4">
       <c r="B72" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1">
         <v>2000215</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="2:4">
       <c r="B73" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C73" s="1">
         <v>2000216</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:4">
       <c r="B74" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C74" s="1">
         <v>2000217</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:4">
       <c r="B75" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C75" s="1">
         <v>2000218</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="2:4">
       <c r="B76" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C76" s="1">
         <v>2000219</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:4">
       <c r="B77" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C77" s="1">
         <v>2000220</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:4">
       <c r="B78" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C78" s="1">
         <v>2000221</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="2:4">
       <c r="B79" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C79" s="1">
         <v>2000222</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="2:4">
       <c r="B80" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C80" s="1">
         <v>2000223</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="2:4">
       <c r="B81" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C81" s="1">
         <v>2000224</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:4">
       <c r="B82" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C82" s="1">
         <v>2000225</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C83" s="1">
         <v>2000226</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:4">
       <c r="B84" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C84" s="1">
         <v>2000227</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="2:4">
       <c r="B85" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C85" s="1">
         <v>2000228</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:4">
       <c r="B86" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C86" s="1">
         <v>2000229</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1324,7 +1324,7 @@
   <dimension ref="A3:X86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1835,7 +1835,7 @@
         <v>10</v>
       </c>
       <c r="L14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>16</v>
@@ -1883,7 +1883,7 @@
         <v>10</v>
       </c>
       <c r="L15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>18</v>
@@ -1931,7 +1931,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>14</v>
@@ -1979,7 +1979,7 @@
         <v>10</v>
       </c>
       <c r="L17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>32</v>
@@ -2027,7 +2027,7 @@
         <v>10</v>
       </c>
       <c r="L18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>34</v>
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
@@ -2237,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -2517,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -2621,8 +2621,8 @@
       <c r="G38" s="4">
         <v>2</v>
       </c>
-      <c r="H38" s="4">
-        <v>10</v>
+      <c r="H38" s="1">
+        <v>30</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
@@ -2656,8 +2656,8 @@
       <c r="G39" s="4">
         <v>2</v>
       </c>
-      <c r="H39" s="4">
-        <v>10</v>
+      <c r="H39" s="1">
+        <v>30</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -2691,8 +2691,8 @@
       <c r="G40" s="4">
         <v>2</v>
       </c>
-      <c r="H40" s="4">
-        <v>10</v>
+      <c r="H40" s="1">
+        <v>30</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
@@ -2726,8 +2726,8 @@
       <c r="G41" s="4">
         <v>2</v>
       </c>
-      <c r="H41" s="4">
-        <v>10</v>
+      <c r="H41" s="1">
+        <v>30</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -2761,8 +2761,8 @@
       <c r="G42" s="4">
         <v>2</v>
       </c>
-      <c r="H42" s="4">
-        <v>10</v>
+      <c r="H42" s="1">
+        <v>30</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
@@ -2796,8 +2796,8 @@
       <c r="G43" s="4">
         <v>2</v>
       </c>
-      <c r="H43" s="4">
-        <v>10</v>
+      <c r="H43" s="1">
+        <v>30</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -2831,8 +2831,8 @@
       <c r="G44" s="4">
         <v>2</v>
       </c>
-      <c r="H44" s="4">
-        <v>10</v>
+      <c r="H44" s="1">
+        <v>30</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
@@ -2866,8 +2866,8 @@
       <c r="G45" s="4">
         <v>2</v>
       </c>
-      <c r="H45" s="4">
-        <v>10</v>
+      <c r="H45" s="1">
+        <v>30</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
@@ -2901,8 +2901,8 @@
       <c r="G46" s="4">
         <v>2</v>
       </c>
-      <c r="H46" s="4">
-        <v>10</v>
+      <c r="H46" s="1">
+        <v>30</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>3</v>
       </c>
       <c r="H47" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>3</v>
       </c>
       <c r="H48" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I48" s="1">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="H49" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>3</v>
       </c>
       <c r="H50" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I50" s="1">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>3</v>
       </c>
       <c r="H51" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I51" s="1">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>3</v>
       </c>
       <c r="H52" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
@@ -3146,8 +3146,8 @@
       <c r="G53" s="5">
         <v>4</v>
       </c>
-      <c r="H53" s="5">
-        <v>10</v>
+      <c r="H53" s="1">
+        <v>30</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
@@ -3181,8 +3181,8 @@
       <c r="G54" s="5">
         <v>4</v>
       </c>
-      <c r="H54" s="5">
-        <v>10</v>
+      <c r="H54" s="1">
+        <v>30</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -3216,8 +3216,8 @@
       <c r="G55" s="5">
         <v>4</v>
       </c>
-      <c r="H55" s="5">
-        <v>10</v>
+      <c r="H55" s="1">
+        <v>30</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1324,7 +1324,7 @@
   <dimension ref="A3:X86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1823,7 +1823,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1919,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
   <si>
     <t>Id</t>
   </si>
@@ -68,6 +68,24 @@
     <t>string</t>
   </si>
   <si>
+    <t>龙之力</t>
+  </si>
+  <si>
+    <t>物伤倍率</t>
+  </si>
+  <si>
+    <t>龙之智</t>
+  </si>
+  <si>
+    <t>法伤倍率</t>
+  </si>
+  <si>
+    <t>龙之秘</t>
+  </si>
+  <si>
+    <t>道伤倍率</t>
+  </si>
+  <si>
     <t>无尽生命</t>
   </si>
   <si>
@@ -107,10 +125,10 @@
     <t>爆伤</t>
   </si>
   <si>
-    <t>召唤之书</t>
-  </si>
-  <si>
-    <t>继承加成</t>
+    <t>致命之书</t>
+  </si>
+  <si>
+    <t>增伤加成</t>
   </si>
   <si>
     <t>龙城攻击</t>
@@ -994,8 +1012,8 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1321,10 +1339,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:X86"/>
+  <dimension ref="A3:X89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1441,733 +1459,789 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="3:21">
-      <c r="C6" s="3">
-        <v>1999998</v>
-      </c>
-      <c r="D6" s="3" t="s">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2">
+        <v>1999995</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E9" s="2">
+        <v>2007</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
         <v>15</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>400</v>
-      </c>
-      <c r="I6" s="3">
-        <v>10</v>
-      </c>
-      <c r="J6" s="3">
-        <v>5</v>
-      </c>
-      <c r="K6" s="3">
-        <v>200</v>
-      </c>
-      <c r="L6" s="3">
-        <v>20</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6</v>
+      </c>
+      <c r="K9" s="2">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="3:21">
-      <c r="C7" s="3">
-        <v>1999999</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>400</v>
-      </c>
-      <c r="I7" s="3">
-        <v>10</v>
-      </c>
-      <c r="J7" s="3">
-        <v>5</v>
-      </c>
-      <c r="K7" s="3">
-        <v>200</v>
-      </c>
-      <c r="L7" s="3">
-        <v>20</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="3:21">
-      <c r="C8" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3">
-        <v>16</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10</v>
-      </c>
-      <c r="J8" s="3">
-        <v>5</v>
-      </c>
-      <c r="K8" s="3">
-        <v>200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>20</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:24">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3">
-        <v>2000001</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
-        <v>10</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-    </row>
-    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:24">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3">
-        <v>2000002</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="3">
-        <v>14</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>10</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
-        <v>10</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2</v>
-      </c>
-      <c r="M10" s="3" t="s">
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" customFormat="1" customHeight="1" spans="1:21">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2">
+        <v>1999996</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2008</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-    </row>
-    <row r="11" s="3" customFormat="1" customHeight="1" spans="1:24">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3">
-        <v>2000003</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="3">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>10</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>5</v>
-      </c>
-      <c r="K11" s="3">
-        <v>10</v>
-      </c>
-      <c r="L11" s="3">
-        <v>2</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+    </row>
+    <row r="11" customFormat="1" customHeight="1" spans="1:21">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2">
+        <v>1999997</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2009</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>6</v>
+      </c>
+      <c r="K11" s="2">
+        <v>10</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-    </row>
-    <row r="12" s="3" customFormat="1" customHeight="1" spans="1:24">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3">
-        <v>2000004</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3">
-        <v>9</v>
-      </c>
-      <c r="F12" s="3">
+    </row>
+    <row r="12" s="3" customFormat="1" customHeight="1" spans="3:21">
+      <c r="C12" s="2">
+        <v>1999998</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>400</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>10</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5</v>
-      </c>
-      <c r="K12" s="3">
-        <v>10</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="K12" s="2">
+        <v>200</v>
+      </c>
+      <c r="L12" s="2">
+        <v>20</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-    </row>
-    <row r="13" s="3" customFormat="1" customHeight="1" spans="1:24">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3">
-        <v>2000005</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3">
-        <v>17</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>10</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
+    </row>
+    <row r="13" s="3" customFormat="1" customHeight="1" spans="3:21">
+      <c r="C13" s="2">
+        <v>1999999</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>400</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
         <v>5</v>
       </c>
-      <c r="K13" s="3">
-        <v>10</v>
-      </c>
-      <c r="L13" s="3">
-        <v>2</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="K13" s="2">
+        <v>200</v>
+      </c>
+      <c r="L13" s="2">
+        <v>20</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-    </row>
-    <row r="14" s="3" customFormat="1" customHeight="1" spans="1:24">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3">
-        <v>2000006</v>
+    </row>
+    <row r="14" s="3" customFormat="1" customHeight="1" spans="3:21">
+      <c r="C14" s="2">
+        <v>2000000</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="3">
-        <v>14</v>
-      </c>
-      <c r="F14" s="3">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>400</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>30</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>10</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="K14" s="2">
+        <v>200</v>
+      </c>
+      <c r="L14" s="2">
+        <v>20</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-    </row>
-    <row r="15" s="3" customFormat="1" customHeight="1" spans="1:24">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3">
-        <v>2000007</v>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2">
+        <v>2000001</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="3">
-        <v>16</v>
-      </c>
-      <c r="F15" s="3">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
         <v>5</v>
       </c>
-      <c r="G15" s="3">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3">
-        <v>30</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
-        <v>10</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="K15" s="2">
+        <v>10</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-    </row>
-    <row r="16" s="3" customFormat="1" customHeight="1" spans="1:24">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3">
-        <v>2000008</v>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2">
+        <v>2000002</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="3">
-        <v>15</v>
-      </c>
-      <c r="F16" s="3">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2">
         <v>5</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>5</v>
       </c>
-      <c r="H16" s="3">
-        <v>30</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
+      <c r="H16" s="2">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
         <v>5</v>
       </c>
-      <c r="K16" s="3">
-        <v>10</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="K16" s="2">
+        <v>10</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-    </row>
-    <row r="17" s="3" customFormat="1" customHeight="1" spans="1:24">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3">
-        <v>2000009</v>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2">
+        <v>2000003</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="3">
-        <v>12</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>30</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <v>5</v>
       </c>
-      <c r="K17" s="3">
-        <v>10</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="K17" s="2">
+        <v>10</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-    </row>
-    <row r="18" s="3" customFormat="1" customHeight="1" spans="1:24">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3">
-        <v>2000010</v>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2">
+        <v>2000004</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="3">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>30</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2">
         <v>5</v>
       </c>
-      <c r="K18" s="3">
-        <v>10</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
+      <c r="K18" s="2">
+        <v>10</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-    </row>
-    <row r="19" s="3" customFormat="1" customHeight="1" spans="1:24">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2">
+        <v>2000005</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
+      <c r="K19" s="2">
+        <v>10</v>
+      </c>
+      <c r="L19" s="2">
+        <v>2</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-    </row>
-    <row r="20" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2">
+        <v>2000006</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5</v>
+      </c>
+      <c r="K20" s="2">
+        <v>10</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-    </row>
-    <row r="21" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2">
+        <v>2000007</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5</v>
+      </c>
+      <c r="K21" s="2">
+        <v>10</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-    </row>
-    <row r="22" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2">
+        <v>2000008</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5</v>
+      </c>
+      <c r="K22" s="2">
+        <v>10</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-    </row>
-    <row r="23" customFormat="1" customHeight="1" spans="1:21">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2">
+        <v>2000009</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
+      <c r="K23" s="2">
+        <v>10</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-    </row>
-    <row r="24" customFormat="1" customHeight="1" spans="1:20">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2">
+        <v>2000010</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5</v>
+      </c>
+      <c r="K24" s="2">
+        <v>10</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-    </row>
-    <row r="25" customFormat="1" customHeight="1" spans="3:20">
+      <c r="U24" s="1"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" customFormat="1" customHeight="1" spans="1:21">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2184,118 +2258,73 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:13">
-      <c r="C26" s="1">
-        <v>2000100</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="1">
-        <v>15</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
-        <v>30</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1">
-        <v>10</v>
-      </c>
-      <c r="L26" s="1">
-        <v>2</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:13">
-      <c r="C27" s="1">
-        <v>2000101</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="1">
-        <v>15</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
-        <v>30</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>10</v>
-      </c>
-      <c r="L27" s="1">
-        <v>2</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:13">
-      <c r="C28" s="1">
-        <v>2000102</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="1">
-        <v>15</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>30</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1">
-        <v>10</v>
-      </c>
-      <c r="L28" s="1">
-        <v>2</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" customFormat="1" customHeight="1" spans="1:21">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" customFormat="1" customHeight="1" spans="3:20">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C29" s="1">
-        <v>2000103</v>
+        <v>2000100</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1">
         <v>15</v>
@@ -2322,18 +2351,18 @@
         <v>2</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C30" s="1">
-        <v>2000104</v>
+        <v>2000101</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -2357,18 +2386,18 @@
         <v>2</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C31" s="1">
-        <v>2000105</v>
+        <v>2000102</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -2392,18 +2421,18 @@
         <v>2</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C32" s="1">
-        <v>2000106</v>
+        <v>2000103</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E32" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
@@ -2427,15 +2456,15 @@
         <v>2</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C33" s="1">
-        <v>2000107</v>
+        <v>2000104</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E33" s="1">
         <v>14</v>
@@ -2462,18 +2491,18 @@
         <v>2</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C34" s="1">
-        <v>2000108</v>
+        <v>2000105</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -2497,18 +2526,18 @@
         <v>2</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C35" s="1">
-        <v>2000109</v>
+        <v>2000106</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -2532,18 +2561,18 @@
         <v>2</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C36" s="1">
-        <v>2000110</v>
+        <v>2000107</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E36" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -2567,15 +2596,15 @@
         <v>2</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="3:13">
       <c r="C37" s="1">
-        <v>2000111</v>
+        <v>2000108</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E37" s="1">
         <v>16</v>
@@ -2602,24 +2631,24 @@
         <v>2</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" s="4" customFormat="1" customHeight="1" spans="3:13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:13">
       <c r="C38" s="1">
-        <v>2000112</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="4">
-        <v>15</v>
-      </c>
-      <c r="F38" s="4">
-        <v>2</v>
-      </c>
-      <c r="G38" s="4">
-        <v>2</v>
+        <v>2000109</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="1">
+        <v>16</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
       </c>
       <c r="H38" s="1">
         <v>30</v>
@@ -2628,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
         <v>10</v>
@@ -2636,25 +2665,25 @@
       <c r="L38" s="1">
         <v>2</v>
       </c>
-      <c r="M38" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" s="4" customFormat="1" customHeight="1" spans="3:13">
+      <c r="M38" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:13">
       <c r="C39" s="1">
-        <v>2000113</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="4">
-        <v>15</v>
-      </c>
-      <c r="F39" s="4">
-        <v>2</v>
-      </c>
-      <c r="G39" s="4">
-        <v>2</v>
+        <v>2000110</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="1">
+        <v>16</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
       </c>
       <c r="H39" s="1">
         <v>30</v>
@@ -2663,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
         <v>10</v>
@@ -2671,25 +2700,25 @@
       <c r="L39" s="1">
         <v>2</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" s="4" customFormat="1" customHeight="1" spans="3:13">
+      <c r="M39" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:13">
       <c r="C40" s="1">
-        <v>2000114</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="4">
-        <v>15</v>
-      </c>
-      <c r="F40" s="4">
-        <v>2</v>
-      </c>
-      <c r="G40" s="4">
-        <v>2</v>
+        <v>2000111</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="1">
+        <v>16</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
       </c>
       <c r="H40" s="1">
         <v>30</v>
@@ -2698,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" s="1">
         <v>10</v>
@@ -2706,19 +2735,19 @@
       <c r="L40" s="1">
         <v>2</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>14</v>
+      <c r="M40" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C41" s="1">
-        <v>2000115</v>
+        <v>2000112</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E41" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F41" s="4">
         <v>2</v>
@@ -2742,18 +2771,18 @@
         <v>2</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C42" s="1">
-        <v>2000116</v>
+        <v>2000113</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E42" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F42" s="4">
         <v>2</v>
@@ -2777,18 +2806,18 @@
         <v>2</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C43" s="1">
-        <v>2000117</v>
+        <v>2000114</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E43" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F43" s="4">
         <v>2</v>
@@ -2812,18 +2841,18 @@
         <v>2</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C44" s="1">
-        <v>2000118</v>
+        <v>2000115</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E44" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F44" s="4">
         <v>2</v>
@@ -2847,18 +2876,18 @@
         <v>2</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C45" s="1">
-        <v>2000119</v>
+        <v>2000116</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E45" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F45" s="4">
         <v>2</v>
@@ -2882,129 +2911,129 @@
         <v>2</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C46" s="1">
+        <v>2000117</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="4">
+        <v>14</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>30</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>10</v>
+      </c>
+      <c r="L46" s="1">
+        <v>2</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" s="4" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C47" s="1">
+        <v>2000118</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="4">
+        <v>16</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>30</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>10</v>
+      </c>
+      <c r="L47" s="1">
+        <v>2</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" s="4" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C48" s="1">
+        <v>2000119</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="4">
+        <v>16</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4">
+        <v>2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>30</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2</v>
+      </c>
+      <c r="K48" s="1">
+        <v>10</v>
+      </c>
+      <c r="L48" s="1">
+        <v>2</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" s="4" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C49" s="1">
         <v>2000120</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="D49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="4">
         <v>16</v>
       </c>
-      <c r="F46" s="4">
-        <v>2</v>
-      </c>
-      <c r="G46" s="4">
-        <v>2</v>
-      </c>
-      <c r="H46" s="1">
-        <v>30</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1">
-        <v>2</v>
-      </c>
-      <c r="K46" s="1">
-        <v>10</v>
-      </c>
-      <c r="L46" s="1">
-        <v>2</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:13">
-      <c r="C47" s="1">
-        <v>2000121</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="1">
-        <v>15</v>
-      </c>
-      <c r="F47" s="1">
-        <v>3</v>
-      </c>
-      <c r="G47" s="1">
-        <v>3</v>
-      </c>
-      <c r="H47" s="1">
-        <v>30</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1">
-        <v>3</v>
-      </c>
-      <c r="K47" s="1">
-        <v>10</v>
-      </c>
-      <c r="L47" s="1">
-        <v>2</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:13">
-      <c r="C48" s="1">
-        <v>2000122</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="1">
-        <v>15</v>
-      </c>
-      <c r="F48" s="1">
-        <v>3</v>
-      </c>
-      <c r="G48" s="1">
-        <v>3</v>
-      </c>
-      <c r="H48" s="1">
-        <v>30</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1">
-        <v>3</v>
-      </c>
-      <c r="K48" s="1">
-        <v>10</v>
-      </c>
-      <c r="L48" s="1">
-        <v>2</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:13">
-      <c r="C49" s="1">
-        <v>2000123</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="1">
-        <v>14</v>
-      </c>
-      <c r="F49" s="1">
-        <v>3</v>
-      </c>
-      <c r="G49" s="1">
-        <v>3</v>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4">
+        <v>2</v>
       </c>
       <c r="H49" s="1">
         <v>30</v>
@@ -3013,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K49" s="1">
         <v>10</v>
@@ -3021,19 +3050,19 @@
       <c r="L49" s="1">
         <v>2</v>
       </c>
-      <c r="M49" s="7" t="s">
-        <v>16</v>
+      <c r="M49" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="3:13">
       <c r="C50" s="1">
-        <v>2000124</v>
+        <v>2000121</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E50" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F50" s="1">
         <v>3</v>
@@ -3057,18 +3086,18 @@
         <v>2</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="3:13">
       <c r="C51" s="1">
-        <v>2000125</v>
+        <v>2000122</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E51" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F51" s="1">
         <v>3</v>
@@ -3092,18 +3121,18 @@
         <v>2</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="3:13">
       <c r="C52" s="1">
-        <v>2000126</v>
+        <v>2000123</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E52" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
@@ -3127,447 +3156,552 @@
         <v>2</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" s="5" customFormat="1" customHeight="1" spans="3:13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:13">
       <c r="C53" s="1">
+        <v>2000124</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="1">
+        <v>14</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3</v>
+      </c>
+      <c r="H53" s="1">
+        <v>30</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>3</v>
+      </c>
+      <c r="K53" s="1">
+        <v>10</v>
+      </c>
+      <c r="L53" s="1">
+        <v>2</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:13">
+      <c r="C54" s="1">
+        <v>2000125</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="1">
+        <v>16</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1">
+        <v>30</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>3</v>
+      </c>
+      <c r="K54" s="1">
+        <v>10</v>
+      </c>
+      <c r="L54" s="1">
+        <v>2</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:13">
+      <c r="C55" s="1">
+        <v>2000126</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="1">
+        <v>16</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3</v>
+      </c>
+      <c r="G55" s="1">
+        <v>3</v>
+      </c>
+      <c r="H55" s="1">
+        <v>30</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>3</v>
+      </c>
+      <c r="K55" s="1">
+        <v>10</v>
+      </c>
+      <c r="L55" s="1">
+        <v>2</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" s="5" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C56" s="1">
         <v>2000127</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" s="5">
+      <c r="D56" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="5">
         <v>15</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F56" s="5">
         <v>4</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G56" s="5">
         <v>4</v>
       </c>
-      <c r="H53" s="1">
-        <v>30</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1">
+      <c r="H56" s="1">
+        <v>30</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
         <v>4</v>
       </c>
-      <c r="K53" s="1">
-        <v>10</v>
-      </c>
-      <c r="L53" s="1">
-        <v>2</v>
-      </c>
-      <c r="M53" s="5" t="s">
+      <c r="K56" s="1">
+        <v>10</v>
+      </c>
+      <c r="L56" s="1">
+        <v>2</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" s="5" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C57" s="1">
+        <v>2000128</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" s="5" customFormat="1" customHeight="1" spans="3:13">
-      <c r="C54" s="1">
-        <v>2000128</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="5">
-        <v>14</v>
-      </c>
-      <c r="F54" s="5">
+      <c r="F57" s="5">
         <v>4</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G57" s="5">
         <v>4</v>
       </c>
-      <c r="H54" s="1">
-        <v>30</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
-      <c r="J54" s="1">
+      <c r="H57" s="1">
+        <v>30</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
         <v>4</v>
       </c>
-      <c r="K54" s="1">
-        <v>10</v>
-      </c>
-      <c r="L54" s="1">
-        <v>2</v>
-      </c>
-      <c r="M54" s="5" t="s">
+      <c r="K57" s="1">
+        <v>10</v>
+      </c>
+      <c r="L57" s="1">
+        <v>2</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" s="5" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C58" s="1">
+        <v>2000129</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E58" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" s="5" customFormat="1" customHeight="1" spans="3:13">
-      <c r="C55" s="1">
-        <v>2000129</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" s="5">
-        <v>16</v>
-      </c>
-      <c r="F55" s="5">
+      <c r="F58" s="5">
         <v>4</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G58" s="5">
         <v>4</v>
       </c>
-      <c r="H55" s="1">
-        <v>30</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="J55" s="1">
+      <c r="H58" s="1">
+        <v>30</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
         <v>4</v>
       </c>
-      <c r="K55" s="1">
-        <v>10</v>
-      </c>
-      <c r="L55" s="1">
-        <v>2</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="2:4">
-      <c r="B57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="1">
-        <v>2000200</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="2:4">
-      <c r="B58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2000201</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="2:4">
-      <c r="B59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="1">
-        <v>2000202</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>68</v>
+      <c r="K58" s="1">
+        <v>10</v>
+      </c>
+      <c r="L58" s="1">
+        <v>2</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:4">
       <c r="B60" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C60" s="1">
-        <v>2000203</v>
+        <v>2000200</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:4">
       <c r="B61" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C61" s="1">
-        <v>2000204</v>
+        <v>2000201</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:4">
       <c r="B62" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C62" s="1">
-        <v>2000205</v>
+        <v>2000202</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:4">
       <c r="B63" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C63" s="1">
-        <v>2000206</v>
+        <v>2000203</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:4">
       <c r="B64" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C64" s="1">
-        <v>2000207</v>
+        <v>2000204</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:4">
       <c r="B65" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C65" s="1">
-        <v>2000208</v>
+        <v>2000205</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:4">
       <c r="B66" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C66" s="1">
-        <v>2000209</v>
+        <v>2000206</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C67" s="1">
-        <v>2000210</v>
+        <v>2000207</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:4">
       <c r="B68" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C68" s="1">
-        <v>2000211</v>
+        <v>2000208</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:4">
       <c r="B69" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C69" s="1">
-        <v>2000212</v>
+        <v>2000209</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:4">
       <c r="B70" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C70" s="1">
-        <v>2000213</v>
+        <v>2000210</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="2:4">
       <c r="B71" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C71" s="1">
-        <v>2000214</v>
+        <v>2000211</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:4">
       <c r="B72" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C72" s="1">
-        <v>2000215</v>
+        <v>2000212</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="2:4">
       <c r="B73" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C73" s="1">
-        <v>2000216</v>
+        <v>2000213</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:4">
       <c r="B74" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C74" s="1">
-        <v>2000217</v>
+        <v>2000214</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:4">
       <c r="B75" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C75" s="1">
-        <v>2000218</v>
+        <v>2000215</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="2:4">
       <c r="B76" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C76" s="1">
-        <v>2000219</v>
+        <v>2000216</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:4">
       <c r="B77" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C77" s="1">
-        <v>2000220</v>
+        <v>2000217</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:4">
       <c r="B78" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C78" s="1">
-        <v>2000221</v>
+        <v>2000218</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="2:4">
       <c r="B79" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C79" s="1">
-        <v>2000222</v>
+        <v>2000219</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="2:4">
       <c r="B80" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C80" s="1">
-        <v>2000223</v>
+        <v>2000220</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="2:4">
       <c r="B81" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C81" s="1">
-        <v>2000224</v>
+        <v>2000221</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:4">
       <c r="B82" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C82" s="1">
-        <v>2000225</v>
+        <v>2000222</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C83" s="1">
-        <v>2000226</v>
+        <v>2000223</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:4">
       <c r="B84" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C84" s="1">
-        <v>2000227</v>
+        <v>2000224</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="2:4">
       <c r="B85" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C85" s="1">
-        <v>2000228</v>
+        <v>2000225</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:4">
       <c r="B86" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C86" s="1">
+        <v>2000226</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="2:4">
+      <c r="B87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2000227</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="2:4">
+      <c r="B88" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2000228</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="2:4">
+      <c r="B89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="1">
         <v>2000229</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>95</v>
+      <c r="D89" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D3 C4:D5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D3 C4:D5 C6:D8" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -1341,8 +1341,8 @@
   <sheetPr/>
   <dimension ref="A3:X89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I12" s="2">
         <v>10</v>
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I13" s="2">
         <v>10</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I14" s="2">
         <v>10</v>
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -2335,8 +2335,8 @@
       <c r="G29" s="1">
         <v>1</v>
       </c>
-      <c r="H29" s="1">
-        <v>30</v>
+      <c r="H29" s="2">
+        <v>40</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
@@ -2370,8 +2370,8 @@
       <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="1">
-        <v>30</v>
+      <c r="H30" s="2">
+        <v>40</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -2405,8 +2405,8 @@
       <c r="G31" s="1">
         <v>1</v>
       </c>
-      <c r="H31" s="1">
-        <v>30</v>
+      <c r="H31" s="2">
+        <v>40</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -2440,8 +2440,8 @@
       <c r="G32" s="1">
         <v>1</v>
       </c>
-      <c r="H32" s="1">
-        <v>30</v>
+      <c r="H32" s="2">
+        <v>40</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -2475,8 +2475,8 @@
       <c r="G33" s="1">
         <v>1</v>
       </c>
-      <c r="H33" s="1">
-        <v>30</v>
+      <c r="H33" s="2">
+        <v>40</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -2510,8 +2510,8 @@
       <c r="G34" s="1">
         <v>1</v>
       </c>
-      <c r="H34" s="1">
-        <v>30</v>
+      <c r="H34" s="2">
+        <v>40</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -2545,8 +2545,8 @@
       <c r="G35" s="1">
         <v>1</v>
       </c>
-      <c r="H35" s="1">
-        <v>30</v>
+      <c r="H35" s="2">
+        <v>40</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -2580,8 +2580,8 @@
       <c r="G36" s="1">
         <v>1</v>
       </c>
-      <c r="H36" s="1">
-        <v>30</v>
+      <c r="H36" s="2">
+        <v>40</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -2615,8 +2615,8 @@
       <c r="G37" s="1">
         <v>1</v>
       </c>
-      <c r="H37" s="1">
-        <v>30</v>
+      <c r="H37" s="2">
+        <v>40</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -2650,8 +2650,8 @@
       <c r="G38" s="1">
         <v>1</v>
       </c>
-      <c r="H38" s="1">
-        <v>30</v>
+      <c r="H38" s="2">
+        <v>40</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
@@ -2685,8 +2685,8 @@
       <c r="G39" s="1">
         <v>1</v>
       </c>
-      <c r="H39" s="1">
-        <v>30</v>
+      <c r="H39" s="2">
+        <v>40</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -2720,8 +2720,8 @@
       <c r="G40" s="1">
         <v>1</v>
       </c>
-      <c r="H40" s="1">
-        <v>30</v>
+      <c r="H40" s="2">
+        <v>40</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
@@ -2755,8 +2755,8 @@
       <c r="G41" s="4">
         <v>2</v>
       </c>
-      <c r="H41" s="1">
-        <v>30</v>
+      <c r="H41" s="2">
+        <v>40</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -2790,8 +2790,8 @@
       <c r="G42" s="4">
         <v>2</v>
       </c>
-      <c r="H42" s="1">
-        <v>30</v>
+      <c r="H42" s="2">
+        <v>40</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
@@ -2825,8 +2825,8 @@
       <c r="G43" s="4">
         <v>2</v>
       </c>
-      <c r="H43" s="1">
-        <v>30</v>
+      <c r="H43" s="2">
+        <v>40</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -2860,8 +2860,8 @@
       <c r="G44" s="4">
         <v>2</v>
       </c>
-      <c r="H44" s="1">
-        <v>30</v>
+      <c r="H44" s="2">
+        <v>40</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
@@ -2895,8 +2895,8 @@
       <c r="G45" s="4">
         <v>2</v>
       </c>
-      <c r="H45" s="1">
-        <v>30</v>
+      <c r="H45" s="2">
+        <v>40</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
@@ -2930,8 +2930,8 @@
       <c r="G46" s="4">
         <v>2</v>
       </c>
-      <c r="H46" s="1">
-        <v>30</v>
+      <c r="H46" s="2">
+        <v>40</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
@@ -2965,8 +2965,8 @@
       <c r="G47" s="4">
         <v>2</v>
       </c>
-      <c r="H47" s="1">
-        <v>30</v>
+      <c r="H47" s="2">
+        <v>40</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
@@ -3000,8 +3000,8 @@
       <c r="G48" s="4">
         <v>2</v>
       </c>
-      <c r="H48" s="1">
-        <v>30</v>
+      <c r="H48" s="2">
+        <v>40</v>
       </c>
       <c r="I48" s="1">
         <v>0</v>
@@ -3035,8 +3035,8 @@
       <c r="G49" s="4">
         <v>2</v>
       </c>
-      <c r="H49" s="1">
-        <v>30</v>
+      <c r="H49" s="2">
+        <v>40</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -3070,8 +3070,8 @@
       <c r="G50" s="1">
         <v>3</v>
       </c>
-      <c r="H50" s="1">
-        <v>30</v>
+      <c r="H50" s="2">
+        <v>40</v>
       </c>
       <c r="I50" s="1">
         <v>0</v>
@@ -3105,8 +3105,8 @@
       <c r="G51" s="1">
         <v>3</v>
       </c>
-      <c r="H51" s="1">
-        <v>30</v>
+      <c r="H51" s="2">
+        <v>40</v>
       </c>
       <c r="I51" s="1">
         <v>0</v>
@@ -3140,8 +3140,8 @@
       <c r="G52" s="1">
         <v>3</v>
       </c>
-      <c r="H52" s="1">
-        <v>30</v>
+      <c r="H52" s="2">
+        <v>40</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
@@ -3175,8 +3175,8 @@
       <c r="G53" s="1">
         <v>3</v>
       </c>
-      <c r="H53" s="1">
-        <v>30</v>
+      <c r="H53" s="2">
+        <v>40</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
@@ -3210,8 +3210,8 @@
       <c r="G54" s="1">
         <v>3</v>
       </c>
-      <c r="H54" s="1">
-        <v>30</v>
+      <c r="H54" s="2">
+        <v>40</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -3245,8 +3245,8 @@
       <c r="G55" s="1">
         <v>3</v>
       </c>
-      <c r="H55" s="1">
-        <v>30</v>
+      <c r="H55" s="2">
+        <v>40</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -3280,8 +3280,8 @@
       <c r="G56" s="5">
         <v>4</v>
       </c>
-      <c r="H56" s="1">
-        <v>30</v>
+      <c r="H56" s="2">
+        <v>40</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -3315,8 +3315,8 @@
       <c r="G57" s="5">
         <v>4</v>
       </c>
-      <c r="H57" s="1">
-        <v>30</v>
+      <c r="H57" s="2">
+        <v>40</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
@@ -3350,8 +3350,8 @@
       <c r="G58" s="5">
         <v>4</v>
       </c>
-      <c r="H58" s="1">
-        <v>30</v>
+      <c r="H58" s="2">
+        <v>40</v>
       </c>
       <c r="I58" s="1">
         <v>0</v>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -1517,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="I12" s="2">
         <v>10</v>
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="I13" s="2">
         <v>10</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="I14" s="2">
         <v>10</v>
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="H21" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I31" s="1">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I33" s="1">
         <v>0</v>
@@ -2511,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I35" s="1">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -2616,7 +2616,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="H41" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         <v>2</v>
       </c>
       <c r="H42" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
@@ -2826,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="H43" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -2861,7 +2861,7 @@
         <v>2</v>
       </c>
       <c r="H44" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>2</v>
       </c>
       <c r="H45" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>2</v>
       </c>
       <c r="H46" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
@@ -2966,7 +2966,7 @@
         <v>2</v>
       </c>
       <c r="H47" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>2</v>
       </c>
       <c r="H48" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I48" s="1">
         <v>0</v>
@@ -3036,7 +3036,7 @@
         <v>2</v>
       </c>
       <c r="H49" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>3</v>
       </c>
       <c r="H50" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I50" s="1">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>3</v>
       </c>
       <c r="H51" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I51" s="1">
         <v>0</v>
@@ -3141,7 +3141,7 @@
         <v>3</v>
       </c>
       <c r="H52" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I52" s="1">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>3</v>
       </c>
       <c r="H53" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
@@ -3211,7 +3211,7 @@
         <v>3</v>
       </c>
       <c r="H54" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>3</v>
       </c>
       <c r="H55" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I55" s="1">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>4</v>
       </c>
       <c r="H58" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I58" s="1">
         <v>0</v>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="101">
   <si>
     <t>Id</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>LevelIncrea</t>
-  </si>
-  <si>
-    <t>MaxLevel</t>
   </si>
   <si>
     <t>StoneNumber</t>
@@ -1339,22 +1336,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:X89"/>
+  <dimension ref="A3:W89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:H58"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="12" width="12.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.75" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="5" max="11" width="12.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.75" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:13">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1385,11 +1382,8 @@
       <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:13">
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1420,46 +1414,40 @@
       <c r="L4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:13">
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:13">
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1470,9 +1458,8 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:13">
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1483,9 +1470,8 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:13">
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1496,16 +1482,15 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:24">
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:23">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2">
         <v>1999995</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2">
         <v>2007</v>
@@ -1517,43 +1502,40 @@
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K9" s="2">
-        <v>10</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
+      <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" customFormat="1" customHeight="1" spans="1:21">
+    </row>
+    <row r="10" customFormat="1" customHeight="1" spans="1:20">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2">
         <v>1999996</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
         <v>2008</v>
@@ -1565,40 +1547,37 @@
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J10" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K10" s="2">
-        <v>10</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" customFormat="1" customHeight="1" spans="1:21">
+    </row>
+    <row r="11" customFormat="1" customHeight="1" spans="1:20">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2">
         <v>1999997</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2">
         <v>2009</v>
@@ -1610,38 +1589,35 @@
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J11" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K11" s="2">
-        <v>10</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" s="3" customFormat="1" customHeight="1" spans="3:21">
+    </row>
+    <row r="12" s="3" customFormat="1" customHeight="1" spans="3:20">
       <c r="C12" s="2">
         <v>1999998</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2">
         <v>15</v>
@@ -1653,36 +1629,33 @@
         <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="I12" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J12" s="2">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="K12" s="2">
-        <v>200</v>
-      </c>
-      <c r="L12" s="2">
         <v>20</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="L12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" s="3" customFormat="1" customHeight="1" spans="3:21">
+    </row>
+    <row r="13" s="3" customFormat="1" customHeight="1" spans="3:20">
       <c r="C13" s="2">
         <v>1999999</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2">
         <v>14</v>
@@ -1694,36 +1667,33 @@
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="I13" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J13" s="2">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="K13" s="2">
-        <v>200</v>
-      </c>
-      <c r="L13" s="2">
         <v>20</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="L13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" s="3" customFormat="1" customHeight="1" spans="3:21">
+    </row>
+    <row r="14" s="3" customFormat="1" customHeight="1" spans="3:20">
       <c r="C14" s="2">
         <v>2000000</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2">
         <v>16</v>
@@ -1735,38 +1705,35 @@
         <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J14" s="2">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="K14" s="2">
-        <v>200</v>
-      </c>
-      <c r="L14" s="2">
         <v>20</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="L14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:24">
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:23">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2">
         <v>2000001</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2">
         <v>7</v>
@@ -1778,43 +1745,40 @@
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K15" s="2">
-        <v>10</v>
-      </c>
-      <c r="L15" s="2">
-        <v>2</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
+      <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:24">
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:23">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2">
         <v>2000002</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2">
         <v>14</v>
@@ -1826,43 +1790,40 @@
         <v>5</v>
       </c>
       <c r="H16" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K16" s="2">
-        <v>10</v>
-      </c>
-      <c r="L16" s="2">
-        <v>2</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+      <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:24">
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:23">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2">
         <v>2000003</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2">
         <v>8</v>
@@ -1874,43 +1835,40 @@
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K17" s="2">
-        <v>10</v>
-      </c>
-      <c r="L17" s="2">
-        <v>2</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
+      <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:24">
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:23">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2">
         <v>2000004</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2">
         <v>9</v>
@@ -1922,43 +1880,40 @@
         <v>5</v>
       </c>
       <c r="H18" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K18" s="2">
-        <v>10</v>
-      </c>
-      <c r="L18" s="2">
-        <v>2</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
+      <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-    </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:24">
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:23">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2">
         <v>2000005</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2">
         <v>12</v>
@@ -1970,43 +1925,40 @@
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K19" s="2">
-        <v>10</v>
-      </c>
-      <c r="L19" s="2">
-        <v>2</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
+      <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:24">
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:23">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2">
         <v>2000006</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2">
         <v>14</v>
@@ -2018,43 +1970,40 @@
         <v>5</v>
       </c>
       <c r="H20" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J20" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K20" s="2">
-        <v>10</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
+      <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-    </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:24">
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:23">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2">
         <v>2000007</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2">
         <v>16</v>
@@ -2066,43 +2015,40 @@
         <v>5</v>
       </c>
       <c r="H21" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J21" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K21" s="2">
-        <v>10</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-    </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:24">
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:23">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2">
         <v>2000008</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2">
         <v>15</v>
@@ -2114,43 +2060,40 @@
         <v>5</v>
       </c>
       <c r="H22" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K22" s="2">
-        <v>10</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
+      <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:24">
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:23">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2">
         <v>2000009</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2">
         <v>12</v>
@@ -2162,43 +2105,40 @@
         <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K23" s="2">
-        <v>10</v>
-      </c>
-      <c r="L23" s="2">
-        <v>1</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
+      <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-    </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:24">
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:23">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2">
         <v>2000010</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2">
         <v>13</v>
@@ -2210,36 +2150,33 @@
         <v>1</v>
       </c>
       <c r="H24" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J24" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K24" s="2">
-        <v>10</v>
-      </c>
-      <c r="L24" s="2">
-        <v>1</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
+      <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-    </row>
-    <row r="25" customFormat="1" customHeight="1" spans="1:21">
+    </row>
+    <row r="25" customFormat="1" customHeight="1" spans="1:20">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
@@ -2252,15 +2189,14 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-    </row>
-    <row r="26" customFormat="1" customHeight="1" spans="1:21">
+    </row>
+    <row r="26" customFormat="1" customHeight="1" spans="1:20">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
@@ -2273,15 +2209,14 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-    </row>
-    <row r="27" customFormat="1" customHeight="1" spans="1:20">
+    </row>
+    <row r="27" customFormat="1" customHeight="1" spans="1:19">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
@@ -2294,14 +2229,13 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-    </row>
-    <row r="28" customFormat="1" customHeight="1" spans="3:20">
+    </row>
+    <row r="28" customFormat="1" customHeight="1" spans="3:19">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2312,19 +2246,18 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:13">
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C29" s="1">
         <v>2000100</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1">
         <v>15</v>
@@ -2335,31 +2268,28 @@
       <c r="G29" s="1">
         <v>1</v>
       </c>
-      <c r="H29" s="2">
-        <v>50</v>
+      <c r="H29" s="1">
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K29" s="1">
-        <v>10</v>
-      </c>
-      <c r="L29" s="1">
-        <v>2</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C30" s="1">
         <v>2000101</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" s="1">
         <v>15</v>
@@ -2370,31 +2300,28 @@
       <c r="G30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="2">
-        <v>50</v>
+      <c r="H30" s="1">
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K30" s="1">
-        <v>10</v>
-      </c>
-      <c r="L30" s="1">
-        <v>2</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C31" s="1">
         <v>2000102</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" s="1">
         <v>15</v>
@@ -2405,31 +2332,28 @@
       <c r="G31" s="1">
         <v>1</v>
       </c>
-      <c r="H31" s="2">
-        <v>50</v>
+      <c r="H31" s="1">
+        <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K31" s="1">
-        <v>10</v>
-      </c>
-      <c r="L31" s="1">
-        <v>2</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C32" s="1">
         <v>2000103</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1">
         <v>15</v>
@@ -2440,31 +2364,28 @@
       <c r="G32" s="1">
         <v>1</v>
       </c>
-      <c r="H32" s="2">
-        <v>50</v>
+      <c r="H32" s="1">
+        <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K32" s="1">
-        <v>10</v>
-      </c>
-      <c r="L32" s="1">
-        <v>2</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C33" s="1">
         <v>2000104</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33" s="1">
         <v>14</v>
@@ -2475,31 +2396,28 @@
       <c r="G33" s="1">
         <v>1</v>
       </c>
-      <c r="H33" s="2">
-        <v>50</v>
+      <c r="H33" s="1">
+        <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K33" s="1">
-        <v>10</v>
-      </c>
-      <c r="L33" s="1">
-        <v>2</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C34" s="1">
         <v>2000105</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E34" s="1">
         <v>14</v>
@@ -2510,31 +2428,28 @@
       <c r="G34" s="1">
         <v>1</v>
       </c>
-      <c r="H34" s="2">
-        <v>50</v>
+      <c r="H34" s="1">
+        <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K34" s="1">
-        <v>10</v>
-      </c>
-      <c r="L34" s="1">
-        <v>2</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C35" s="1">
         <v>2000106</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35" s="1">
         <v>14</v>
@@ -2545,31 +2460,28 @@
       <c r="G35" s="1">
         <v>1</v>
       </c>
-      <c r="H35" s="2">
-        <v>50</v>
+      <c r="H35" s="1">
+        <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K35" s="1">
-        <v>10</v>
-      </c>
-      <c r="L35" s="1">
-        <v>2</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:12">
       <c r="C36" s="1">
         <v>2000107</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36" s="1">
         <v>14</v>
@@ -2580,31 +2492,28 @@
       <c r="G36" s="1">
         <v>1</v>
       </c>
-      <c r="H36" s="2">
-        <v>50</v>
+      <c r="H36" s="1">
+        <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K36" s="1">
-        <v>10</v>
-      </c>
-      <c r="L36" s="1">
-        <v>2</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:12">
       <c r="C37" s="1">
         <v>2000108</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E37" s="1">
         <v>16</v>
@@ -2615,31 +2524,28 @@
       <c r="G37" s="1">
         <v>1</v>
       </c>
-      <c r="H37" s="2">
-        <v>50</v>
+      <c r="H37" s="1">
+        <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K37" s="1">
-        <v>10</v>
-      </c>
-      <c r="L37" s="1">
-        <v>2</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:12">
       <c r="C38" s="1">
         <v>2000109</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" s="1">
         <v>16</v>
@@ -2650,31 +2556,28 @@
       <c r="G38" s="1">
         <v>1</v>
       </c>
-      <c r="H38" s="2">
-        <v>50</v>
+      <c r="H38" s="1">
+        <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K38" s="1">
-        <v>10</v>
-      </c>
-      <c r="L38" s="1">
-        <v>2</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:12">
       <c r="C39" s="1">
         <v>2000110</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E39" s="1">
         <v>16</v>
@@ -2685,31 +2588,28 @@
       <c r="G39" s="1">
         <v>1</v>
       </c>
-      <c r="H39" s="2">
-        <v>50</v>
+      <c r="H39" s="1">
+        <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K39" s="1">
-        <v>10</v>
-      </c>
-      <c r="L39" s="1">
-        <v>2</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:12">
       <c r="C40" s="1">
         <v>2000111</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E40" s="1">
         <v>16</v>
@@ -2720,31 +2620,28 @@
       <c r="G40" s="1">
         <v>1</v>
       </c>
-      <c r="H40" s="2">
-        <v>50</v>
+      <c r="H40" s="1">
+        <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K40" s="1">
-        <v>10</v>
-      </c>
-      <c r="L40" s="1">
-        <v>2</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" s="4" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" s="4" customFormat="1" customHeight="1" spans="3:12">
       <c r="C41" s="1">
         <v>2000112</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E41" s="4">
         <v>15</v>
@@ -2755,31 +2652,28 @@
       <c r="G41" s="4">
         <v>2</v>
       </c>
-      <c r="H41" s="2">
-        <v>50</v>
+      <c r="H41" s="1">
+        <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K41" s="1">
-        <v>10</v>
-      </c>
-      <c r="L41" s="1">
-        <v>2</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" s="4" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" s="4" customFormat="1" customHeight="1" spans="3:12">
       <c r="C42" s="1">
         <v>2000113</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42" s="4">
         <v>15</v>
@@ -2790,31 +2684,28 @@
       <c r="G42" s="4">
         <v>2</v>
       </c>
-      <c r="H42" s="2">
-        <v>50</v>
+      <c r="H42" s="1">
+        <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K42" s="1">
-        <v>10</v>
-      </c>
-      <c r="L42" s="1">
-        <v>2</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" s="4" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" customHeight="1" spans="3:12">
       <c r="C43" s="1">
         <v>2000114</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43" s="4">
         <v>15</v>
@@ -2825,31 +2716,28 @@
       <c r="G43" s="4">
         <v>2</v>
       </c>
-      <c r="H43" s="2">
-        <v>50</v>
+      <c r="H43" s="1">
+        <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K43" s="1">
-        <v>10</v>
-      </c>
-      <c r="L43" s="1">
-        <v>2</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" s="4" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" s="4" customFormat="1" customHeight="1" spans="3:12">
       <c r="C44" s="1">
         <v>2000115</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E44" s="4">
         <v>14</v>
@@ -2860,31 +2748,28 @@
       <c r="G44" s="4">
         <v>2</v>
       </c>
-      <c r="H44" s="2">
-        <v>50</v>
+      <c r="H44" s="1">
+        <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K44" s="1">
-        <v>10</v>
-      </c>
-      <c r="L44" s="1">
-        <v>2</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" s="4" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" s="4" customFormat="1" customHeight="1" spans="3:12">
       <c r="C45" s="1">
         <v>2000116</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E45" s="4">
         <v>14</v>
@@ -2895,31 +2780,28 @@
       <c r="G45" s="4">
         <v>2</v>
       </c>
-      <c r="H45" s="2">
-        <v>50</v>
+      <c r="H45" s="1">
+        <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K45" s="1">
-        <v>10</v>
-      </c>
-      <c r="L45" s="1">
-        <v>2</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" s="4" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" s="4" customFormat="1" customHeight="1" spans="3:12">
       <c r="C46" s="1">
         <v>2000117</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E46" s="4">
         <v>14</v>
@@ -2930,31 +2812,28 @@
       <c r="G46" s="4">
         <v>2</v>
       </c>
-      <c r="H46" s="2">
-        <v>50</v>
+      <c r="H46" s="1">
+        <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K46" s="1">
-        <v>10</v>
-      </c>
-      <c r="L46" s="1">
-        <v>2</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" s="4" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" s="4" customFormat="1" customHeight="1" spans="3:12">
       <c r="C47" s="1">
         <v>2000118</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E47" s="4">
         <v>16</v>
@@ -2965,31 +2844,28 @@
       <c r="G47" s="4">
         <v>2</v>
       </c>
-      <c r="H47" s="2">
-        <v>50</v>
+      <c r="H47" s="1">
+        <v>0</v>
       </c>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K47" s="1">
-        <v>10</v>
-      </c>
-      <c r="L47" s="1">
-        <v>2</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" s="4" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" s="4" customFormat="1" customHeight="1" spans="3:12">
       <c r="C48" s="1">
         <v>2000119</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" s="4">
         <v>16</v>
@@ -3000,31 +2876,28 @@
       <c r="G48" s="4">
         <v>2</v>
       </c>
-      <c r="H48" s="2">
-        <v>50</v>
+      <c r="H48" s="1">
+        <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J48" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K48" s="1">
-        <v>10</v>
-      </c>
-      <c r="L48" s="1">
-        <v>2</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" s="4" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" s="4" customFormat="1" customHeight="1" spans="3:12">
       <c r="C49" s="1">
         <v>2000120</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E49" s="4">
         <v>16</v>
@@ -3035,31 +2908,28 @@
       <c r="G49" s="4">
         <v>2</v>
       </c>
-      <c r="H49" s="2">
-        <v>50</v>
+      <c r="H49" s="1">
+        <v>0</v>
       </c>
       <c r="I49" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K49" s="1">
-        <v>10</v>
-      </c>
-      <c r="L49" s="1">
-        <v>2</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:12">
       <c r="C50" s="1">
         <v>2000121</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E50" s="1">
         <v>15</v>
@@ -3070,31 +2940,28 @@
       <c r="G50" s="1">
         <v>3</v>
       </c>
-      <c r="H50" s="2">
-        <v>50</v>
+      <c r="H50" s="1">
+        <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K50" s="1">
-        <v>10</v>
-      </c>
-      <c r="L50" s="1">
-        <v>2</v>
-      </c>
-      <c r="M50" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:12">
       <c r="C51" s="1">
         <v>2000122</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E51" s="1">
         <v>15</v>
@@ -3105,31 +2972,28 @@
       <c r="G51" s="1">
         <v>3</v>
       </c>
-      <c r="H51" s="2">
-        <v>50</v>
+      <c r="H51" s="1">
+        <v>0</v>
       </c>
       <c r="I51" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K51" s="1">
-        <v>10</v>
-      </c>
-      <c r="L51" s="1">
-        <v>2</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:12">
       <c r="C52" s="1">
         <v>2000123</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E52" s="1">
         <v>14</v>
@@ -3140,31 +3004,28 @@
       <c r="G52" s="1">
         <v>3</v>
       </c>
-      <c r="H52" s="2">
-        <v>50</v>
+      <c r="H52" s="1">
+        <v>0</v>
       </c>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K52" s="1">
-        <v>10</v>
-      </c>
-      <c r="L52" s="1">
-        <v>2</v>
-      </c>
-      <c r="M52" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:12">
       <c r="C53" s="1">
         <v>2000124</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E53" s="1">
         <v>14</v>
@@ -3175,31 +3036,28 @@
       <c r="G53" s="1">
         <v>3</v>
       </c>
-      <c r="H53" s="2">
-        <v>50</v>
+      <c r="H53" s="1">
+        <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K53" s="1">
-        <v>10</v>
-      </c>
-      <c r="L53" s="1">
-        <v>2</v>
-      </c>
-      <c r="M53" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:12">
       <c r="C54" s="1">
         <v>2000125</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E54" s="1">
         <v>16</v>
@@ -3210,31 +3068,28 @@
       <c r="G54" s="1">
         <v>3</v>
       </c>
-      <c r="H54" s="2">
-        <v>50</v>
+      <c r="H54" s="1">
+        <v>0</v>
       </c>
       <c r="I54" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K54" s="1">
-        <v>10</v>
-      </c>
-      <c r="L54" s="1">
-        <v>2</v>
-      </c>
-      <c r="M54" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:12">
       <c r="C55" s="1">
         <v>2000126</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E55" s="1">
         <v>16</v>
@@ -3245,31 +3100,28 @@
       <c r="G55" s="1">
         <v>3</v>
       </c>
-      <c r="H55" s="2">
-        <v>50</v>
+      <c r="H55" s="1">
+        <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K55" s="1">
-        <v>10</v>
-      </c>
-      <c r="L55" s="1">
-        <v>2</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" s="5" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" s="5" customFormat="1" customHeight="1" spans="3:12">
       <c r="C56" s="1">
         <v>2000127</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E56" s="5">
         <v>15</v>
@@ -3280,31 +3132,28 @@
       <c r="G56" s="5">
         <v>4</v>
       </c>
-      <c r="H56" s="2">
-        <v>50</v>
+      <c r="H56" s="1">
+        <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J56" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K56" s="1">
-        <v>10</v>
-      </c>
-      <c r="L56" s="1">
-        <v>2</v>
-      </c>
-      <c r="M56" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" s="5" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" s="5" customFormat="1" customHeight="1" spans="3:12">
       <c r="C57" s="1">
         <v>2000128</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E57" s="5">
         <v>14</v>
@@ -3315,31 +3164,28 @@
       <c r="G57" s="5">
         <v>4</v>
       </c>
-      <c r="H57" s="2">
-        <v>50</v>
+      <c r="H57" s="1">
+        <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J57" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K57" s="1">
-        <v>10</v>
-      </c>
-      <c r="L57" s="1">
-        <v>2</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" s="5" customFormat="1" customHeight="1" spans="3:13">
+        <v>2</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" s="5" customFormat="1" customHeight="1" spans="3:12">
       <c r="C58" s="1">
         <v>2000129</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E58" s="5">
         <v>16</v>
@@ -3350,353 +3196,350 @@
       <c r="G58" s="5">
         <v>4</v>
       </c>
-      <c r="H58" s="2">
-        <v>50</v>
+      <c r="H58" s="1">
+        <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J58" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K58" s="1">
-        <v>10</v>
-      </c>
-      <c r="L58" s="1">
-        <v>2</v>
-      </c>
-      <c r="M58" s="5" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:4">
       <c r="B60" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60" s="1">
         <v>2000200</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:4">
       <c r="B61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" s="1">
         <v>2000201</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:4">
       <c r="B62" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="1">
         <v>2000202</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:4">
       <c r="B63" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="1">
         <v>2000203</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:4">
       <c r="B64" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" s="1">
         <v>2000204</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:4">
       <c r="B65" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="1">
         <v>2000205</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:4">
       <c r="B66" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" s="1">
         <v>2000206</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:4">
       <c r="B67" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67" s="1">
         <v>2000207</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:4">
       <c r="B68" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" s="1">
         <v>2000208</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:4">
       <c r="B69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" s="1">
         <v>2000209</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:4">
       <c r="B70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="1">
         <v>2000210</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="2:4">
       <c r="B71" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="1">
         <v>2000211</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:4">
       <c r="B72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="1">
         <v>2000212</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="2:4">
       <c r="B73" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="1">
         <v>2000213</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:4">
       <c r="B74" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="1">
         <v>2000214</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:4">
       <c r="B75" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="1">
         <v>2000215</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="2:4">
       <c r="B76" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76" s="1">
         <v>2000216</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:4">
       <c r="B77" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" s="1">
         <v>2000217</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:4">
       <c r="B78" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78" s="1">
         <v>2000218</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="2:4">
       <c r="B79" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C79" s="1">
         <v>2000219</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="2:4">
       <c r="B80" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" s="1">
         <v>2000220</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="2:4">
       <c r="B81" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" s="1">
         <v>2000221</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:4">
       <c r="B82" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C82" s="1">
         <v>2000222</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:4">
       <c r="B83" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" s="1">
         <v>2000223</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:4">
       <c r="B84" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C84" s="1">
         <v>2000224</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="2:4">
       <c r="B85" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C85" s="1">
         <v>2000225</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:4">
       <c r="B86" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C86" s="1">
         <v>2000226</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:4">
       <c r="B87" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C87" s="1">
         <v>2000227</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="2:4">
       <c r="B88" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C88" s="1">
         <v>2000228</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="2:4">
       <c r="B89" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C89" s="1">
         <v>2000229</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -27,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>Stage</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -237,9 +240,6 @@
   </si>
   <si>
     <t>水晶玄铜</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>青金枪</t>
@@ -1336,22 +1336,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:W89"/>
+  <dimension ref="A3:X89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="11" width="12.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26.75" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="12" width="12.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.75" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:12">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1382,8 +1382,11 @@
       <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="M3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1414,40 +1417,46 @@
       <c r="L4" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="M4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="M5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1458,8 +1467,9 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1470,8 +1480,9 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1482,701 +1493,750 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:23">
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2">
         <v>1999995</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2">
         <v>2007</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
         <v>6</v>
       </c>
-      <c r="J9" s="2">
-        <v>10</v>
-      </c>
       <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="N9" s="3"/>
-      <c r="O9" s="1"/>
+      <c r="O9" s="3"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="3"/>
+      <c r="U9" s="1"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-    </row>
-    <row r="10" customFormat="1" customHeight="1" spans="1:20">
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" customFormat="1" customHeight="1" spans="1:21">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2">
         <v>1999996</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2">
         <v>2008</v>
       </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
       <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <v>6</v>
       </c>
-      <c r="J10" s="2">
-        <v>10</v>
-      </c>
       <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="N10" s="3"/>
-      <c r="O10" s="1"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-    </row>
-    <row r="11" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" customFormat="1" customHeight="1" spans="1:21">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2">
         <v>1999997</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2">
         <v>2009</v>
       </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
         <v>6</v>
       </c>
-      <c r="J11" s="2">
-        <v>10</v>
-      </c>
       <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="1"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-    </row>
-    <row r="12" s="3" customFormat="1" customHeight="1" spans="3:20">
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" s="3" customFormat="1" customHeight="1" spans="3:21">
       <c r="C12" s="2">
         <v>1999998</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2">
         <v>15</v>
       </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
       <c r="G12" s="2">
         <v>1</v>
       </c>
       <c r="H12" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2">
         <v>5</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>200</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>20</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="1"/>
+      <c r="M12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-    </row>
-    <row r="13" s="3" customFormat="1" customHeight="1" spans="3:20">
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" s="3" customFormat="1" customHeight="1" spans="3:21">
       <c r="C13" s="2">
         <v>1999999</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>200</v>
+      </c>
+      <c r="L13" s="2">
         <v>20</v>
       </c>
-      <c r="E13" s="2">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2">
-        <v>5</v>
-      </c>
-      <c r="J13" s="2">
-        <v>200</v>
-      </c>
-      <c r="K13" s="2">
-        <v>20</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="1"/>
+      <c r="M13" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-    </row>
-    <row r="14" s="3" customFormat="1" customHeight="1" spans="3:20">
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" s="3" customFormat="1" customHeight="1" spans="3:21">
       <c r="C14" s="2">
         <v>2000000</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2">
         <v>16</v>
       </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
         <v>5</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>200</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>20</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" s="1"/>
+      <c r="M14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:23">
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2">
         <v>2000001</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="2">
         <v>7</v>
       </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
       <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
         <v>5</v>
       </c>
-      <c r="J15" s="2">
-        <v>10</v>
-      </c>
       <c r="K15" s="2">
-        <v>2</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="1"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="3"/>
+      <c r="U15" s="1"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-    </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:23">
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2">
         <v>2000002</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2">
         <v>14</v>
-      </c>
-      <c r="F16" s="2">
-        <v>5</v>
       </c>
       <c r="G16" s="2">
         <v>5</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
         <v>5</v>
       </c>
-      <c r="J16" s="2">
-        <v>10</v>
-      </c>
       <c r="K16" s="2">
-        <v>2</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="N16" s="3"/>
-      <c r="O16" s="1"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="3"/>
+      <c r="U16" s="1"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:23">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2">
         <v>2000003</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="2">
         <v>8</v>
       </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
       <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <v>5</v>
       </c>
-      <c r="J17" s="2">
-        <v>10</v>
-      </c>
       <c r="K17" s="2">
-        <v>2</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="N17" s="3"/>
-      <c r="O17" s="1"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="3"/>
+      <c r="U17" s="1"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:23">
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2">
         <v>2000004</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2">
         <v>9</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
         <v>5</v>
       </c>
-      <c r="J18" s="2">
-        <v>10</v>
-      </c>
       <c r="K18" s="2">
-        <v>2</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="N18" s="3"/>
-      <c r="O18" s="1"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="3"/>
+      <c r="U18" s="1"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-    </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:23">
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2">
         <v>2000005</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="2">
         <v>12</v>
       </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
       <c r="G19" s="2">
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
         <v>5</v>
       </c>
-      <c r="J19" s="2">
-        <v>10</v>
-      </c>
       <c r="K19" s="2">
-        <v>2</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L19" s="2">
+        <v>2</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="N19" s="3"/>
-      <c r="O19" s="1"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="3"/>
+      <c r="U19" s="1"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:23">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2">
         <v>2000006</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="2">
         <v>14</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5</v>
       </c>
       <c r="G20" s="2">
         <v>5</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
         <v>5</v>
       </c>
-      <c r="J20" s="2">
-        <v>10</v>
-      </c>
       <c r="K20" s="2">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="N20" s="3"/>
-      <c r="O20" s="1"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="3"/>
+      <c r="U20" s="1"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-    </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:23">
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2">
         <v>2000007</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="2">
         <v>16</v>
-      </c>
-      <c r="F21" s="2">
-        <v>5</v>
       </c>
       <c r="G21" s="2">
         <v>5</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
         <v>5</v>
       </c>
-      <c r="J21" s="2">
-        <v>10</v>
-      </c>
       <c r="K21" s="2">
-        <v>1</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="N21" s="3"/>
-      <c r="O21" s="1"/>
+      <c r="O21" s="3"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="3"/>
+      <c r="U21" s="1"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-    </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:23">
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2">
         <v>2000008</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="2">
         <v>15</v>
-      </c>
-      <c r="F22" s="2">
-        <v>5</v>
       </c>
       <c r="G22" s="2">
         <v>5</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
         <v>5</v>
       </c>
-      <c r="J22" s="2">
-        <v>10</v>
-      </c>
       <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="N22" s="3"/>
-      <c r="O22" s="1"/>
+      <c r="O22" s="3"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="3"/>
+      <c r="U22" s="1"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-    </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:23">
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2">
         <v>2000009</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="2">
         <v>12</v>
       </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
       <c r="G23" s="2">
         <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
         <v>5</v>
       </c>
-      <c r="J23" s="2">
-        <v>10</v>
-      </c>
       <c r="K23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M23" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="N23" s="3"/>
-      <c r="O23" s="1"/>
+      <c r="O23" s="3"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-      <c r="U23" s="3"/>
+      <c r="U23" s="1"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-    </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:23">
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2">
         <v>2000010</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="2">
         <v>13</v>
       </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
       <c r="G24" s="2">
         <v>1</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
         <v>5</v>
       </c>
-      <c r="J24" s="2">
-        <v>10</v>
-      </c>
       <c r="K24" s="2">
-        <v>1</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="N24" s="3"/>
-      <c r="O24" s="1"/>
+      <c r="O24" s="3"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="3"/>
+      <c r="U24" s="1"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-    </row>
-    <row r="25" customFormat="1" customHeight="1" spans="1:20">
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" customFormat="1" customHeight="1" spans="1:21">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
@@ -2189,14 +2249,15 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="M25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-    </row>
-    <row r="26" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" customFormat="1" customHeight="1" spans="1:21">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
@@ -2209,14 +2270,15 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="M26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-    </row>
-    <row r="27" customFormat="1" customHeight="1" spans="1:19">
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" customFormat="1" customHeight="1" spans="1:20">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
@@ -2229,13 +2291,14 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="M27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-    </row>
-    <row r="28" customFormat="1" customHeight="1" spans="3:19">
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" customFormat="1" customHeight="1" spans="3:20">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2246,1305 +2309,2116 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="M28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:12">
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C29" s="1">
         <v>2000100</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="1">
         <v>15</v>
       </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
       <c r="G29" s="1">
         <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>2</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C30" s="1">
         <v>2000101</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="1">
         <v>15</v>
       </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
       <c r="G30" s="1">
         <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>2</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C31" s="1">
         <v>2000102</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="1">
         <v>15</v>
       </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
       <c r="G31" s="1">
         <v>1</v>
       </c>
       <c r="H31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>2</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C32" s="1">
         <v>2000103</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="1">
         <v>15</v>
       </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
       <c r="G32" s="1">
         <v>1</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>2</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C33" s="1">
         <v>2000104</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="1">
         <v>14</v>
       </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
       <c r="G33" s="1">
         <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>2</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L33" s="1">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C34" s="1">
         <v>2000105</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="1">
         <v>14</v>
       </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
       <c r="G34" s="1">
         <v>1</v>
       </c>
       <c r="H34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>2</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L34" s="1">
+        <v>2</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C35" s="1">
         <v>2000106</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="1">
         <v>14</v>
       </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
       <c r="G35" s="1">
         <v>1</v>
       </c>
       <c r="H35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>2</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C36" s="1">
         <v>2000107</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="1">
         <v>14</v>
       </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
       <c r="G36" s="1">
         <v>1</v>
       </c>
       <c r="H36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>2</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L36" s="1">
+        <v>2</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="3:13">
       <c r="C37" s="1">
         <v>2000108</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="1">
         <v>16</v>
       </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
       <c r="G37" s="1">
         <v>1</v>
       </c>
       <c r="H37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>2</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L37" s="1">
+        <v>2</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="3:13">
       <c r="C38" s="1">
         <v>2000109</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="1">
         <v>16</v>
       </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
       <c r="G38" s="1">
         <v>1</v>
       </c>
       <c r="H38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>2</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:13">
       <c r="C39" s="1">
         <v>2000110</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="1">
         <v>16</v>
       </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
       <c r="G39" s="1">
         <v>1</v>
       </c>
       <c r="H39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>2</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L39" s="1">
+        <v>2</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:13">
       <c r="C40" s="1">
         <v>2000111</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="1">
         <v>16</v>
       </c>
-      <c r="F40" s="1">
-        <v>1</v>
-      </c>
       <c r="G40" s="1">
         <v>1</v>
       </c>
       <c r="H40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>2</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" s="4" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L40" s="1">
+        <v>2</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C41" s="1">
         <v>2000112</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="4">
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="4">
         <v>15</v>
       </c>
-      <c r="F41" s="4">
-        <v>2</v>
-      </c>
       <c r="G41" s="4">
         <v>2</v>
       </c>
-      <c r="H41" s="1">
-        <v>0</v>
+      <c r="H41" s="4">
+        <v>2</v>
       </c>
       <c r="I41" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K41" s="1">
-        <v>2</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" s="4" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L41" s="1">
+        <v>2</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C42" s="1">
         <v>2000113</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="4">
         <v>15</v>
       </c>
-      <c r="F42" s="4">
-        <v>2</v>
-      </c>
       <c r="G42" s="4">
         <v>2</v>
       </c>
-      <c r="H42" s="1">
-        <v>0</v>
+      <c r="H42" s="4">
+        <v>2</v>
       </c>
       <c r="I42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K42" s="1">
-        <v>2</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" s="4" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L42" s="1">
+        <v>2</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C43" s="1">
         <v>2000114</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" s="4">
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="4">
         <v>15</v>
       </c>
-      <c r="F43" s="4">
-        <v>2</v>
-      </c>
       <c r="G43" s="4">
         <v>2</v>
       </c>
-      <c r="H43" s="1">
-        <v>0</v>
+      <c r="H43" s="4">
+        <v>2</v>
       </c>
       <c r="I43" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K43" s="1">
-        <v>2</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" s="4" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L43" s="1">
+        <v>2</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C44" s="1">
         <v>2000115</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="4">
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="4">
         <v>14</v>
       </c>
-      <c r="F44" s="4">
-        <v>2</v>
-      </c>
       <c r="G44" s="4">
         <v>2</v>
       </c>
-      <c r="H44" s="1">
-        <v>0</v>
+      <c r="H44" s="4">
+        <v>2</v>
       </c>
       <c r="I44" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K44" s="1">
-        <v>2</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" s="4" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L44" s="1">
+        <v>2</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C45" s="1">
         <v>2000116</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="4">
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="4">
         <v>14</v>
       </c>
-      <c r="F45" s="4">
-        <v>2</v>
-      </c>
       <c r="G45" s="4">
         <v>2</v>
       </c>
-      <c r="H45" s="1">
-        <v>0</v>
+      <c r="H45" s="4">
+        <v>2</v>
       </c>
       <c r="I45" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K45" s="1">
-        <v>2</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" s="4" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L45" s="1">
+        <v>2</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C46" s="1">
         <v>2000117</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="4">
         <v>14</v>
       </c>
-      <c r="F46" s="4">
-        <v>2</v>
-      </c>
       <c r="G46" s="4">
         <v>2</v>
       </c>
-      <c r="H46" s="1">
-        <v>0</v>
+      <c r="H46" s="4">
+        <v>2</v>
       </c>
       <c r="I46" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K46" s="1">
-        <v>2</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" s="4" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L46" s="1">
+        <v>2</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C47" s="1">
         <v>2000118</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" s="4">
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="4">
         <v>16</v>
       </c>
-      <c r="F47" s="4">
-        <v>2</v>
-      </c>
       <c r="G47" s="4">
         <v>2</v>
       </c>
-      <c r="H47" s="1">
-        <v>0</v>
+      <c r="H47" s="4">
+        <v>2</v>
       </c>
       <c r="I47" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K47" s="1">
-        <v>2</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" s="4" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L47" s="1">
+        <v>2</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C48" s="1">
         <v>2000119</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="4">
         <v>16</v>
       </c>
-      <c r="F48" s="4">
-        <v>2</v>
-      </c>
       <c r="G48" s="4">
         <v>2</v>
       </c>
-      <c r="H48" s="1">
-        <v>0</v>
+      <c r="H48" s="4">
+        <v>2</v>
       </c>
       <c r="I48" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K48" s="1">
-        <v>2</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" s="4" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L48" s="1">
+        <v>2</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C49" s="1">
         <v>2000120</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="4">
         <v>16</v>
       </c>
-      <c r="F49" s="4">
-        <v>2</v>
-      </c>
       <c r="G49" s="4">
         <v>2</v>
       </c>
-      <c r="H49" s="1">
-        <v>0</v>
+      <c r="H49" s="4">
+        <v>2</v>
       </c>
       <c r="I49" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K49" s="1">
-        <v>2</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L49" s="1">
+        <v>2</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="3:13">
       <c r="C50" s="1">
         <v>2000121</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="1">
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="1">
         <v>15</v>
-      </c>
-      <c r="F50" s="1">
-        <v>3</v>
       </c>
       <c r="G50" s="1">
         <v>3</v>
       </c>
       <c r="H50" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
         <v>3</v>
       </c>
-      <c r="J50" s="1">
-        <v>10</v>
-      </c>
       <c r="K50" s="1">
-        <v>2</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L50" s="1">
+        <v>2</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="3:13">
       <c r="C51" s="1">
         <v>2000122</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="1">
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="1">
         <v>15</v>
-      </c>
-      <c r="F51" s="1">
-        <v>3</v>
       </c>
       <c r="G51" s="1">
         <v>3</v>
       </c>
       <c r="H51" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
         <v>3</v>
       </c>
-      <c r="J51" s="1">
-        <v>10</v>
-      </c>
       <c r="K51" s="1">
-        <v>2</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L51" s="1">
+        <v>2</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:13">
       <c r="C52" s="1">
         <v>2000123</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="1">
         <v>14</v>
-      </c>
-      <c r="F52" s="1">
-        <v>3</v>
       </c>
       <c r="G52" s="1">
         <v>3</v>
       </c>
       <c r="H52" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
         <v>3</v>
       </c>
-      <c r="J52" s="1">
-        <v>10</v>
-      </c>
       <c r="K52" s="1">
-        <v>2</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L52" s="1">
+        <v>2</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:13">
       <c r="C53" s="1">
         <v>2000124</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="1">
         <v>14</v>
-      </c>
-      <c r="F53" s="1">
-        <v>3</v>
       </c>
       <c r="G53" s="1">
         <v>3</v>
       </c>
       <c r="H53" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
         <v>3</v>
       </c>
-      <c r="J53" s="1">
-        <v>10</v>
-      </c>
       <c r="K53" s="1">
-        <v>2</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L53" s="1">
+        <v>2</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:13">
       <c r="C54" s="1">
         <v>2000125</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E54" s="1">
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="1">
         <v>16</v>
-      </c>
-      <c r="F54" s="1">
-        <v>3</v>
       </c>
       <c r="G54" s="1">
         <v>3</v>
       </c>
       <c r="H54" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
         <v>3</v>
       </c>
-      <c r="J54" s="1">
-        <v>10</v>
-      </c>
       <c r="K54" s="1">
-        <v>2</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L54" s="1">
+        <v>2</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:13">
       <c r="C55" s="1">
         <v>2000126</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E55" s="1">
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="1">
         <v>16</v>
-      </c>
-      <c r="F55" s="1">
-        <v>3</v>
       </c>
       <c r="G55" s="1">
         <v>3</v>
       </c>
       <c r="H55" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
         <v>3</v>
       </c>
-      <c r="J55" s="1">
-        <v>10</v>
-      </c>
       <c r="K55" s="1">
-        <v>2</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" s="5" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L55" s="1">
+        <v>2</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" s="5" customFormat="1" customHeight="1" spans="3:13">
       <c r="C56" s="1">
         <v>2000127</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="5">
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="5">
         <v>15</v>
-      </c>
-      <c r="F56" s="5">
-        <v>4</v>
       </c>
       <c r="G56" s="5">
         <v>4</v>
       </c>
-      <c r="H56" s="1">
-        <v>0</v>
+      <c r="H56" s="5">
+        <v>4</v>
       </c>
       <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
         <v>4</v>
       </c>
-      <c r="J56" s="1">
-        <v>10</v>
-      </c>
       <c r="K56" s="1">
-        <v>2</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" s="5" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L56" s="1">
+        <v>2</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" s="5" customFormat="1" customHeight="1" spans="3:13">
       <c r="C57" s="1">
         <v>2000128</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="5">
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="5">
         <v>14</v>
-      </c>
-      <c r="F57" s="5">
-        <v>4</v>
       </c>
       <c r="G57" s="5">
         <v>4</v>
       </c>
-      <c r="H57" s="1">
-        <v>0</v>
+      <c r="H57" s="5">
+        <v>4</v>
       </c>
       <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
         <v>4</v>
       </c>
-      <c r="J57" s="1">
-        <v>10</v>
-      </c>
       <c r="K57" s="1">
-        <v>2</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" s="5" customFormat="1" customHeight="1" spans="3:12">
+        <v>10</v>
+      </c>
+      <c r="L57" s="1">
+        <v>2</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" s="5" customFormat="1" customHeight="1" spans="3:13">
       <c r="C58" s="1">
         <v>2000129</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58" s="5">
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" s="5">
         <v>16</v>
-      </c>
-      <c r="F58" s="5">
-        <v>4</v>
       </c>
       <c r="G58" s="5">
         <v>4</v>
       </c>
-      <c r="H58" s="1">
-        <v>0</v>
+      <c r="H58" s="5">
+        <v>4</v>
       </c>
       <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
         <v>4</v>
       </c>
-      <c r="J58" s="1">
-        <v>10</v>
-      </c>
       <c r="K58" s="1">
-        <v>2</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="2:4">
-      <c r="B60" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="L58" s="1">
+        <v>2</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="3:13">
       <c r="C60" s="1">
         <v>2000200</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="61" customHeight="1" spans="2:4">
-      <c r="B61" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F60" s="1">
+        <v>15</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1">
+        <v>10</v>
+      </c>
+      <c r="L60" s="1">
+        <v>2</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="3:13">
       <c r="C61" s="1">
         <v>2000201</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="62" customHeight="1" spans="2:4">
-      <c r="B62" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F61" s="1">
+        <v>15</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
+        <v>10</v>
+      </c>
+      <c r="L61" s="1">
+        <v>2</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:13">
       <c r="C62" s="1">
         <v>2000202</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="63" customHeight="1" spans="2:4">
-      <c r="B63" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F62" s="1">
+        <v>15</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
+        <v>10</v>
+      </c>
+      <c r="L62" s="1">
+        <v>2</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:13">
       <c r="C63" s="1">
         <v>2000203</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="64" customHeight="1" spans="2:4">
-      <c r="B64" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F63" s="1">
+        <v>15</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
+        <v>10</v>
+      </c>
+      <c r="L63" s="1">
+        <v>2</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:13">
       <c r="C64" s="1">
         <v>2000204</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="65" customHeight="1" spans="2:4">
-      <c r="B65" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F64" s="1">
+        <v>15</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
+        <v>10</v>
+      </c>
+      <c r="L64" s="1">
+        <v>2</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:13">
       <c r="C65" s="1">
         <v>2000205</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="66" customHeight="1" spans="2:4">
-      <c r="B66" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F65" s="1">
+        <v>15</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>1</v>
+      </c>
+      <c r="K65" s="1">
+        <v>10</v>
+      </c>
+      <c r="L65" s="1">
+        <v>2</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:13">
       <c r="C66" s="1">
         <v>2000206</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="67" customHeight="1" spans="2:4">
-      <c r="B67" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F66" s="1">
+        <v>15</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>1</v>
+      </c>
+      <c r="K66" s="1">
+        <v>10</v>
+      </c>
+      <c r="L66" s="1">
+        <v>2</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:13">
       <c r="C67" s="1">
         <v>2000207</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="1">
+        <v>2</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="68" customHeight="1" spans="2:4">
-      <c r="B68" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F67" s="1">
+        <v>16</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1">
+        <v>10</v>
+      </c>
+      <c r="L67" s="1">
+        <v>2</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:13">
       <c r="C68" s="1">
         <v>2000208</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="1">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="69" customHeight="1" spans="2:4">
-      <c r="B69" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F68" s="1">
+        <v>16</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1">
+        <v>10</v>
+      </c>
+      <c r="L68" s="1">
+        <v>2</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:13">
       <c r="C69" s="1">
         <v>2000209</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="1">
+        <v>2</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="70" customHeight="1" spans="2:4">
-      <c r="B70" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F69" s="1">
+        <v>16</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
+        <v>10</v>
+      </c>
+      <c r="L69" s="1">
+        <v>2</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:13">
       <c r="C70" s="1">
         <v>2000210</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="71" customHeight="1" spans="2:4">
-      <c r="B71" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F70" s="1">
+        <v>16</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>1</v>
+      </c>
+      <c r="K70" s="1">
+        <v>10</v>
+      </c>
+      <c r="L70" s="1">
+        <v>2</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:13">
       <c r="C71" s="1">
         <v>2000211</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="1">
+        <v>2</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="72" customHeight="1" spans="2:4">
-      <c r="B72" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F71" s="1">
+        <v>16</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1">
+        <v>10</v>
+      </c>
+      <c r="L71" s="1">
+        <v>2</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:13">
       <c r="C72" s="1">
         <v>2000212</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="1">
+        <v>2</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="73" customHeight="1" spans="2:4">
-      <c r="B73" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F72" s="4">
+        <v>15</v>
+      </c>
+      <c r="G72" s="4">
+        <v>2</v>
+      </c>
+      <c r="H72" s="4">
+        <v>2</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>2</v>
+      </c>
+      <c r="K72" s="1">
+        <v>10</v>
+      </c>
+      <c r="L72" s="1">
+        <v>2</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:13">
       <c r="C73" s="1">
         <v>2000213</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="74" customHeight="1" spans="2:4">
-      <c r="B74" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F73" s="4">
+        <v>15</v>
+      </c>
+      <c r="G73" s="4">
+        <v>2</v>
+      </c>
+      <c r="H73" s="4">
+        <v>2</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>2</v>
+      </c>
+      <c r="K73" s="1">
+        <v>10</v>
+      </c>
+      <c r="L73" s="1">
+        <v>2</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:13">
       <c r="C74" s="1">
         <v>2000214</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="1">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="75" customHeight="1" spans="2:4">
-      <c r="B75" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F74" s="4">
+        <v>15</v>
+      </c>
+      <c r="G74" s="4">
+        <v>2</v>
+      </c>
+      <c r="H74" s="4">
+        <v>2</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>2</v>
+      </c>
+      <c r="K74" s="1">
+        <v>10</v>
+      </c>
+      <c r="L74" s="1">
+        <v>2</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:13">
       <c r="C75" s="1">
         <v>2000215</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="1">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="76" customHeight="1" spans="2:4">
-      <c r="B76" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F75" s="4">
+        <v>15</v>
+      </c>
+      <c r="G75" s="4">
+        <v>2</v>
+      </c>
+      <c r="H75" s="4">
+        <v>2</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>2</v>
+      </c>
+      <c r="K75" s="1">
+        <v>10</v>
+      </c>
+      <c r="L75" s="1">
+        <v>2</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:13">
       <c r="C76" s="1">
         <v>2000216</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="1">
+        <v>2</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="77" customHeight="1" spans="2:4">
-      <c r="B77" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F76" s="4">
+        <v>15</v>
+      </c>
+      <c r="G76" s="4">
+        <v>2</v>
+      </c>
+      <c r="H76" s="4">
+        <v>2</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>2</v>
+      </c>
+      <c r="K76" s="1">
+        <v>10</v>
+      </c>
+      <c r="L76" s="1">
+        <v>2</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:13">
       <c r="C77" s="1">
         <v>2000217</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="1">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="78" customHeight="1" spans="2:4">
-      <c r="B78" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F77" s="4">
+        <v>16</v>
+      </c>
+      <c r="G77" s="4">
+        <v>2</v>
+      </c>
+      <c r="H77" s="4">
+        <v>2</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>2</v>
+      </c>
+      <c r="K77" s="1">
+        <v>10</v>
+      </c>
+      <c r="L77" s="1">
+        <v>2</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:13">
       <c r="C78" s="1">
         <v>2000218</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="1">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="79" customHeight="1" spans="2:4">
-      <c r="B79" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F78" s="4">
+        <v>16</v>
+      </c>
+      <c r="G78" s="4">
+        <v>2</v>
+      </c>
+      <c r="H78" s="4">
+        <v>2</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>2</v>
+      </c>
+      <c r="K78" s="1">
+        <v>10</v>
+      </c>
+      <c r="L78" s="1">
+        <v>2</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:13">
       <c r="C79" s="1">
         <v>2000219</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="1">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="80" customHeight="1" spans="2:4">
-      <c r="B80" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F79" s="4">
+        <v>16</v>
+      </c>
+      <c r="G79" s="4">
+        <v>2</v>
+      </c>
+      <c r="H79" s="4">
+        <v>2</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>2</v>
+      </c>
+      <c r="K79" s="1">
+        <v>10</v>
+      </c>
+      <c r="L79" s="1">
+        <v>2</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:13">
       <c r="C80" s="1">
         <v>2000220</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="1">
+        <v>2</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="81" customHeight="1" spans="2:4">
-      <c r="B81" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F80" s="4">
+        <v>16</v>
+      </c>
+      <c r="G80" s="4">
+        <v>2</v>
+      </c>
+      <c r="H80" s="4">
+        <v>2</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>2</v>
+      </c>
+      <c r="K80" s="1">
+        <v>10</v>
+      </c>
+      <c r="L80" s="1">
+        <v>2</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:13">
       <c r="C81" s="1">
         <v>2000221</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="1">
+        <v>2</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="82" customHeight="1" spans="2:4">
-      <c r="B82" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F81" s="1">
+        <v>15</v>
+      </c>
+      <c r="G81" s="1">
+        <v>3</v>
+      </c>
+      <c r="H81" s="1">
+        <v>3</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>3</v>
+      </c>
+      <c r="K81" s="1">
+        <v>10</v>
+      </c>
+      <c r="L81" s="1">
+        <v>2</v>
+      </c>
+      <c r="M81" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:13">
       <c r="C82" s="1">
         <v>2000222</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="1">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="83" customHeight="1" spans="2:4">
-      <c r="B83" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F82" s="1">
+        <v>15</v>
+      </c>
+      <c r="G82" s="1">
+        <v>3</v>
+      </c>
+      <c r="H82" s="1">
+        <v>3</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>3</v>
+      </c>
+      <c r="K82" s="1">
+        <v>10</v>
+      </c>
+      <c r="L82" s="1">
+        <v>2</v>
+      </c>
+      <c r="M82" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:13">
       <c r="C83" s="1">
         <v>2000223</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="1">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="84" customHeight="1" spans="2:4">
-      <c r="B84" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F83" s="1">
+        <v>15</v>
+      </c>
+      <c r="G83" s="1">
+        <v>3</v>
+      </c>
+      <c r="H83" s="1">
+        <v>3</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>3</v>
+      </c>
+      <c r="K83" s="1">
+        <v>10</v>
+      </c>
+      <c r="L83" s="1">
+        <v>2</v>
+      </c>
+      <c r="M83" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:13">
       <c r="C84" s="1">
         <v>2000224</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="1">
+        <v>2</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="85" customHeight="1" spans="2:4">
-      <c r="B85" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F84" s="1">
+        <v>15</v>
+      </c>
+      <c r="G84" s="1">
+        <v>3</v>
+      </c>
+      <c r="H84" s="1">
+        <v>3</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>3</v>
+      </c>
+      <c r="K84" s="1">
+        <v>10</v>
+      </c>
+      <c r="L84" s="1">
+        <v>2</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:13">
       <c r="C85" s="1">
         <v>2000225</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="1">
+        <v>2</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="86" customHeight="1" spans="2:4">
-      <c r="B86" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F85" s="1">
+        <v>16</v>
+      </c>
+      <c r="G85" s="1">
+        <v>3</v>
+      </c>
+      <c r="H85" s="1">
+        <v>3</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>3</v>
+      </c>
+      <c r="K85" s="1">
+        <v>10</v>
+      </c>
+      <c r="L85" s="1">
+        <v>2</v>
+      </c>
+      <c r="M85" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:13">
       <c r="C86" s="1">
         <v>2000226</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="1">
+        <v>2</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="87" customHeight="1" spans="2:4">
-      <c r="B87" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F86" s="1">
+        <v>16</v>
+      </c>
+      <c r="G86" s="1">
+        <v>3</v>
+      </c>
+      <c r="H86" s="1">
+        <v>3</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>3</v>
+      </c>
+      <c r="K86" s="1">
+        <v>10</v>
+      </c>
+      <c r="L86" s="1">
+        <v>2</v>
+      </c>
+      <c r="M86" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:13">
       <c r="C87" s="1">
         <v>2000227</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="1">
+        <v>2</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="88" customHeight="1" spans="2:4">
-      <c r="B88" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F87" s="5">
+        <v>15</v>
+      </c>
+      <c r="G87" s="5">
+        <v>4</v>
+      </c>
+      <c r="H87" s="5">
+        <v>4</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>4</v>
+      </c>
+      <c r="K87" s="1">
+        <v>10</v>
+      </c>
+      <c r="L87" s="1">
+        <v>2</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:13">
       <c r="C88" s="1">
         <v>2000228</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="1">
+        <v>2</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="89" customHeight="1" spans="2:4">
-      <c r="B89" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F88" s="5">
+        <v>15</v>
+      </c>
+      <c r="G88" s="5">
+        <v>4</v>
+      </c>
+      <c r="H88" s="5">
+        <v>4</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>4</v>
+      </c>
+      <c r="K88" s="1">
+        <v>10</v>
+      </c>
+      <c r="L88" s="1">
+        <v>2</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:13">
       <c r="C89" s="1">
         <v>2000229</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>100</v>
+      </c>
+      <c r="F89" s="5">
+        <v>16</v>
+      </c>
+      <c r="G89" s="5">
+        <v>4</v>
+      </c>
+      <c r="H89" s="5">
+        <v>4</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>4</v>
+      </c>
+      <c r="K89" s="1">
+        <v>10</v>
+      </c>
+      <c r="L89" s="1">
+        <v>2</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:D3 C4:D5 C6:D8" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 E3 C4:C5 C6:C8 D3:D5 D6:D8 E4:E5 E6:E8" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="105">
   <si>
     <t>Id</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>龙之血</t>
+  </si>
+  <si>
+    <t>生命倍率</t>
+  </si>
+  <si>
+    <t>龙之御</t>
+  </si>
+  <si>
+    <t>防御倍率</t>
   </si>
   <si>
     <t>龙之力</t>
@@ -1336,10 +1348,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:X89"/>
+  <dimension ref="A3:X91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1499,7 +1511,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2">
-        <v>1999995</v>
+        <v>1999993</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -1508,7 +1520,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="2">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -1543,20 +1555,20 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" customFormat="1" customHeight="1" spans="1:21">
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2">
-        <v>1999996</v>
+        <v>1999994</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="2">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1587,21 +1599,24 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-    </row>
-    <row r="11" customFormat="1" customHeight="1" spans="1:21">
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2">
-        <v>1999997</v>
+        <v>1999995</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -1632,19 +1647,24 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-    </row>
-    <row r="12" s="3" customFormat="1" customHeight="1" spans="3:21">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" customFormat="1" customHeight="1" spans="1:21">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="2">
-        <v>1999998</v>
+        <v>1999996</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="2">
-        <v>15</v>
+        <v>2008</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -1653,20 +1673,22 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" s="2">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="L12" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1674,18 +1696,20 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" s="3" customFormat="1" customHeight="1" spans="3:21">
+    <row r="13" customFormat="1" customHeight="1" spans="1:21">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="2">
-        <v>1999999</v>
+        <v>1999997</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="2">
-        <v>14</v>
+        <v>2009</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -1694,20 +1718,22 @@
         <v>1</v>
       </c>
       <c r="I13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K13" s="2">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="L13" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1717,7 +1743,7 @@
     </row>
     <row r="14" s="3" customFormat="1" customHeight="1" spans="3:21">
       <c r="C14" s="2">
-        <v>2000000</v>
+        <v>1999998</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -1726,7 +1752,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -1756,11 +1782,9 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:24">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+    <row r="15" s="3" customFormat="1" customHeight="1" spans="3:21">
       <c r="C15" s="2">
-        <v>2000001</v>
+        <v>1999999</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -1769,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="F15" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -1778,37 +1802,30 @@
         <v>1</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J15" s="2">
         <v>5</v>
       </c>
       <c r="K15" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="L15" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:24">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+    </row>
+    <row r="16" s="3" customFormat="1" customHeight="1" spans="3:21">
       <c r="C16" s="2">
-        <v>2000002</v>
+        <v>2000000</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -1817,55 +1834,50 @@
         <v>27</v>
       </c>
       <c r="F16" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G16" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16" s="2">
         <v>5</v>
       </c>
       <c r="K16" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="L16" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+        <v>28</v>
+      </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2">
-        <v>2000003</v>
+        <v>2000001</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -1886,7 +1898,7 @@
         <v>2</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -1904,16 +1916,16 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2">
-        <v>2000004</v>
+        <v>2000002</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2">
         <v>5</v>
@@ -1934,7 +1946,7 @@
         <v>2</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -1952,7 +1964,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2">
-        <v>2000005</v>
+        <v>2000003</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -1961,7 +1973,7 @@
         <v>32</v>
       </c>
       <c r="F19" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -2000,16 +2012,16 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2">
-        <v>2000006</v>
+        <v>2000004</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F20" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G20" s="2">
         <v>5</v>
@@ -2027,10 +2039,10 @@
         <v>10</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -2048,22 +2060,22 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2">
-        <v>2000007</v>
+        <v>2000005</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>35</v>
+      <c r="E21" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F21" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G21" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -2075,10 +2087,10 @@
         <v>10</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -2096,16 +2108,16 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2">
-        <v>2000008</v>
+        <v>2000006</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F22" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="2">
         <v>5</v>
@@ -2126,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -2144,22 +2156,22 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2">
-        <v>2000009</v>
+        <v>2000007</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G23" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
@@ -2174,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -2192,22 +2204,22 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2">
-        <v>2000010</v>
+        <v>2000008</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H24" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
@@ -2222,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2236,49 +2248,103 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" customFormat="1" customHeight="1" spans="1:21">
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="C25" s="2">
+        <v>2000009</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="2">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5</v>
+      </c>
+      <c r="K25" s="2">
+        <v>10</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-    </row>
-    <row r="26" customFormat="1" customHeight="1" spans="1:21">
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:24">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="C26" s="2">
+        <v>2000010</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="2">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5</v>
+      </c>
+      <c r="K26" s="2">
+        <v>10</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
-    </row>
-    <row r="27" customFormat="1" customHeight="1" spans="1:20">
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" customFormat="1" customHeight="1" spans="1:21">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
@@ -2297,8 +2363,11 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-    </row>
-    <row r="28" customFormat="1" customHeight="1" spans="3:20">
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" customFormat="1" customHeight="1" spans="1:21">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2315,86 +2384,55 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:13">
-      <c r="C29" s="1">
-        <v>2000100</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="1">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1">
-        <v>10</v>
-      </c>
-      <c r="L29" s="1">
-        <v>2</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:13">
-      <c r="C30" s="1">
-        <v>2000101</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="1">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1">
-        <v>10</v>
-      </c>
-      <c r="L30" s="1">
-        <v>2</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" customFormat="1" customHeight="1" spans="1:20">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" customFormat="1" customHeight="1" spans="3:20">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C31" s="1">
-        <v>2000102</v>
+        <v>2000100</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F31" s="1">
         <v>15</v>
@@ -2418,18 +2456,18 @@
         <v>2</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C32" s="1">
-        <v>2000103</v>
+        <v>2000101</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F32" s="1">
         <v>15</v>
@@ -2453,21 +2491,21 @@
         <v>2</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C33" s="1">
-        <v>2000104</v>
+        <v>2000102</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F33" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -2488,21 +2526,21 @@
         <v>2</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C34" s="1">
-        <v>2000105</v>
+        <v>2000103</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F34" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -2523,18 +2561,18 @@
         <v>2</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C35" s="1">
-        <v>2000106</v>
+        <v>2000104</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F35" s="1">
         <v>14</v>
@@ -2558,18 +2596,18 @@
         <v>2</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C36" s="1">
-        <v>2000107</v>
+        <v>2000105</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F36" s="1">
         <v>14</v>
@@ -2593,21 +2631,21 @@
         <v>2</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C37" s="1">
-        <v>2000108</v>
+        <v>2000106</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F37" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -2628,21 +2666,21 @@
         <v>2</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="3:13">
       <c r="C38" s="1">
-        <v>2000109</v>
+        <v>2000107</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F38" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -2663,18 +2701,18 @@
         <v>2</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="3:13">
       <c r="C39" s="1">
-        <v>2000110</v>
+        <v>2000108</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F39" s="1">
         <v>16</v>
@@ -2698,18 +2736,18 @@
         <v>2</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="3:13">
       <c r="C40" s="1">
-        <v>2000111</v>
+        <v>2000109</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F40" s="1">
         <v>16</v>
@@ -2733,33 +2771,33 @@
         <v>2</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" s="4" customFormat="1" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:13">
       <c r="C41" s="1">
-        <v>2000112</v>
+        <v>2000110</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="4">
-        <v>15</v>
-      </c>
-      <c r="G41" s="4">
-        <v>2</v>
-      </c>
-      <c r="H41" s="4">
-        <v>2</v>
+      <c r="E41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="1">
+        <v>16</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
       </c>
       <c r="J41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" s="1">
         <v>10</v>
@@ -2767,34 +2805,34 @@
       <c r="L41" s="1">
         <v>2</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" s="4" customFormat="1" customHeight="1" spans="3:13">
+      <c r="M41" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:13">
       <c r="C42" s="1">
-        <v>2000113</v>
+        <v>2000111</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F42" s="4">
-        <v>15</v>
-      </c>
-      <c r="G42" s="4">
-        <v>2</v>
-      </c>
-      <c r="H42" s="4">
-        <v>2</v>
+      <c r="E42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="1">
+        <v>16</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
       </c>
       <c r="J42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
         <v>10</v>
@@ -2802,19 +2840,19 @@
       <c r="L42" s="1">
         <v>2</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>20</v>
+      <c r="M42" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C43" s="1">
-        <v>2000114</v>
+        <v>2000112</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F43" s="4">
         <v>15</v>
@@ -2838,21 +2876,21 @@
         <v>2</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C44" s="1">
-        <v>2000115</v>
+        <v>2000113</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F44" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G44" s="4">
         <v>2</v>
@@ -2873,21 +2911,21 @@
         <v>2</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C45" s="1">
-        <v>2000116</v>
+        <v>2000114</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F45" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G45" s="4">
         <v>2</v>
@@ -2908,18 +2946,18 @@
         <v>2</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C46" s="1">
-        <v>2000117</v>
+        <v>2000115</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F46" s="4">
         <v>14</v>
@@ -2943,21 +2981,21 @@
         <v>2</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C47" s="1">
-        <v>2000118</v>
+        <v>2000116</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F47" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G47" s="4">
         <v>2</v>
@@ -2978,21 +3016,21 @@
         <v>2</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C48" s="1">
-        <v>2000119</v>
+        <v>2000117</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F48" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G48" s="4">
         <v>2</v>
@@ -3013,18 +3051,18 @@
         <v>2</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C49" s="1">
-        <v>2000120</v>
+        <v>2000118</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F49" s="4">
         <v>16</v>
@@ -3048,33 +3086,33 @@
         <v>2</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C50" s="1">
-        <v>2000121</v>
+        <v>2000119</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" s="1">
-        <v>15</v>
-      </c>
-      <c r="G50" s="1">
-        <v>3</v>
-      </c>
-      <c r="H50" s="1">
-        <v>3</v>
+      <c r="E50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="4">
+        <v>16</v>
+      </c>
+      <c r="G50" s="4">
+        <v>2</v>
+      </c>
+      <c r="H50" s="4">
+        <v>2</v>
       </c>
       <c r="I50" s="1">
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K50" s="1">
         <v>10</v>
@@ -3082,34 +3120,34 @@
       <c r="L50" s="1">
         <v>2</v>
       </c>
-      <c r="M50" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="3:13">
+      <c r="M50" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" s="4" customFormat="1" customHeight="1" spans="3:13">
       <c r="C51" s="1">
-        <v>2000122</v>
+        <v>2000120</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="1">
-        <v>15</v>
-      </c>
-      <c r="G51" s="1">
-        <v>3</v>
-      </c>
-      <c r="H51" s="1">
-        <v>3</v>
+      <c r="E51" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="4">
+        <v>16</v>
+      </c>
+      <c r="G51" s="4">
+        <v>2</v>
+      </c>
+      <c r="H51" s="4">
+        <v>2</v>
       </c>
       <c r="I51" s="1">
         <v>0</v>
       </c>
       <c r="J51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51" s="1">
         <v>10</v>
@@ -3117,22 +3155,22 @@
       <c r="L51" s="1">
         <v>2</v>
       </c>
-      <c r="M51" s="7" t="s">
-        <v>20</v>
+      <c r="M51" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="3:13">
       <c r="C52" s="1">
-        <v>2000123</v>
+        <v>2000121</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F52" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G52" s="1">
         <v>3</v>
@@ -3153,21 +3191,21 @@
         <v>2</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="3:13">
       <c r="C53" s="1">
-        <v>2000124</v>
+        <v>2000122</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F53" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G53" s="1">
         <v>3</v>
@@ -3188,21 +3226,21 @@
         <v>2</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="3:13">
       <c r="C54" s="1">
-        <v>2000125</v>
+        <v>2000123</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F54" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G54" s="1">
         <v>3</v>
@@ -3223,21 +3261,21 @@
         <v>2</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="3:13">
       <c r="C55" s="1">
-        <v>2000126</v>
+        <v>2000124</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F55" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G55" s="1">
         <v>3</v>
@@ -3258,33 +3296,33 @@
         <v>2</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" s="5" customFormat="1" customHeight="1" spans="3:13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:13">
       <c r="C56" s="1">
-        <v>2000127</v>
+        <v>2000125</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" s="5">
-        <v>15</v>
-      </c>
-      <c r="G56" s="5">
-        <v>4</v>
-      </c>
-      <c r="H56" s="5">
-        <v>4</v>
+      <c r="E56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="1">
+        <v>16</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1">
+        <v>3</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
       </c>
       <c r="J56" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K56" s="1">
         <v>10</v>
@@ -3292,34 +3330,34 @@
       <c r="L56" s="1">
         <v>2</v>
       </c>
-      <c r="M56" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" s="5" customFormat="1" customHeight="1" spans="3:13">
+      <c r="M56" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:13">
       <c r="C57" s="1">
-        <v>2000128</v>
+        <v>2000126</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F57" s="5">
-        <v>14</v>
-      </c>
-      <c r="G57" s="5">
-        <v>4</v>
-      </c>
-      <c r="H57" s="5">
-        <v>4</v>
+      <c r="E57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="1">
+        <v>16</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1">
+        <v>3</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
       </c>
       <c r="J57" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K57" s="1">
         <v>10</v>
@@ -3327,22 +3365,22 @@
       <c r="L57" s="1">
         <v>2</v>
       </c>
-      <c r="M57" s="5" t="s">
-        <v>22</v>
+      <c r="M57" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="58" s="5" customFormat="1" customHeight="1" spans="3:13">
       <c r="C58" s="1">
-        <v>2000129</v>
+        <v>2000127</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F58" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G58" s="5">
         <v>4</v>
@@ -3366,30 +3404,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="3:13">
+    <row r="59" s="5" customFormat="1" customHeight="1" spans="3:13">
+      <c r="C59" s="1">
+        <v>2000128</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="5">
+        <v>14</v>
+      </c>
+      <c r="G59" s="5">
+        <v>4</v>
+      </c>
+      <c r="H59" s="5">
+        <v>4</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>4</v>
+      </c>
+      <c r="K59" s="1">
+        <v>10</v>
+      </c>
+      <c r="L59" s="1">
+        <v>2</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" s="5" customFormat="1" customHeight="1" spans="3:13">
       <c r="C60" s="1">
-        <v>2000200</v>
+        <v>2000129</v>
       </c>
       <c r="D60" s="1">
-        <v>2</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F60" s="1">
-        <v>15</v>
-      </c>
-      <c r="G60" s="1">
-        <v>1</v>
-      </c>
-      <c r="H60" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" s="5">
+        <v>16</v>
+      </c>
+      <c r="G60" s="5">
+        <v>4</v>
+      </c>
+      <c r="H60" s="5">
+        <v>4</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K60" s="1">
         <v>10</v>
@@ -3397,54 +3470,19 @@
       <c r="L60" s="1">
         <v>2</v>
       </c>
-      <c r="M60" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="3:13">
-      <c r="C61" s="1">
-        <v>2000201</v>
-      </c>
-      <c r="D61" s="1">
-        <v>2</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F61" s="1">
-        <v>15</v>
-      </c>
-      <c r="G61" s="1">
-        <v>1</v>
-      </c>
-      <c r="H61" s="1">
-        <v>1</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
-      </c>
-      <c r="J61" s="1">
-        <v>1</v>
-      </c>
-      <c r="K61" s="1">
-        <v>10</v>
-      </c>
-      <c r="L61" s="1">
-        <v>2</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>20</v>
+      <c r="M60" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="3:13">
       <c r="C62" s="1">
-        <v>2000202</v>
+        <v>2000200</v>
       </c>
       <c r="D62" s="1">
         <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F62" s="1">
         <v>15</v>
@@ -3468,18 +3506,18 @@
         <v>2</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="3:13">
       <c r="C63" s="1">
-        <v>2000203</v>
+        <v>2000201</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F63" s="1">
         <v>15</v>
@@ -3503,18 +3541,18 @@
         <v>2</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="3:13">
       <c r="C64" s="1">
-        <v>2000204</v>
+        <v>2000202</v>
       </c>
       <c r="D64" s="1">
         <v>2</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F64" s="1">
         <v>15</v>
@@ -3538,18 +3576,18 @@
         <v>2</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="3:13">
       <c r="C65" s="1">
-        <v>2000205</v>
+        <v>2000203</v>
       </c>
       <c r="D65" s="1">
         <v>2</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F65" s="1">
         <v>15</v>
@@ -3573,18 +3611,18 @@
         <v>2</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="3:13">
       <c r="C66" s="1">
-        <v>2000206</v>
+        <v>2000204</v>
       </c>
       <c r="D66" s="1">
         <v>2</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F66" s="1">
         <v>15</v>
@@ -3608,21 +3646,21 @@
         <v>2</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="3:13">
       <c r="C67" s="1">
-        <v>2000207</v>
+        <v>2000205</v>
       </c>
       <c r="D67" s="1">
         <v>2</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F67" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G67" s="1">
         <v>1</v>
@@ -3648,16 +3686,16 @@
     </row>
     <row r="68" customHeight="1" spans="3:13">
       <c r="C68" s="1">
-        <v>2000208</v>
+        <v>2000206</v>
       </c>
       <c r="D68" s="1">
         <v>2</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F68" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G68" s="1">
         <v>1</v>
@@ -3683,13 +3721,13 @@
     </row>
     <row r="69" customHeight="1" spans="3:13">
       <c r="C69" s="1">
-        <v>2000209</v>
+        <v>2000207</v>
       </c>
       <c r="D69" s="1">
         <v>2</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F69" s="1">
         <v>16</v>
@@ -3713,18 +3751,18 @@
         <v>2</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="3:13">
       <c r="C70" s="1">
-        <v>2000210</v>
+        <v>2000208</v>
       </c>
       <c r="D70" s="1">
         <v>2</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F70" s="1">
         <v>16</v>
@@ -3748,18 +3786,18 @@
         <v>2</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="3:13">
       <c r="C71" s="1">
-        <v>2000211</v>
+        <v>2000209</v>
       </c>
       <c r="D71" s="1">
         <v>2</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F71" s="1">
         <v>16</v>
@@ -3783,33 +3821,33 @@
         <v>2</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="3:13">
       <c r="C72" s="1">
-        <v>2000212</v>
+        <v>2000210</v>
       </c>
       <c r="D72" s="1">
         <v>2</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F72" s="4">
-        <v>15</v>
-      </c>
-      <c r="G72" s="4">
-        <v>2</v>
-      </c>
-      <c r="H72" s="4">
-        <v>2</v>
+        <v>85</v>
+      </c>
+      <c r="F72" s="1">
+        <v>16</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
       </c>
       <c r="I72" s="1">
         <v>0</v>
       </c>
       <c r="J72" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
         <v>10</v>
@@ -3817,34 +3855,34 @@
       <c r="L72" s="1">
         <v>2</v>
       </c>
-      <c r="M72" s="4" t="s">
-        <v>20</v>
+      <c r="M72" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="3:13">
       <c r="C73" s="1">
-        <v>2000213</v>
+        <v>2000211</v>
       </c>
       <c r="D73" s="1">
         <v>2</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F73" s="4">
-        <v>15</v>
-      </c>
-      <c r="G73" s="4">
-        <v>2</v>
-      </c>
-      <c r="H73" s="4">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="F73" s="1">
+        <v>16</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
       </c>
       <c r="J73" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1">
         <v>10</v>
@@ -3852,19 +3890,19 @@
       <c r="L73" s="1">
         <v>2</v>
       </c>
-      <c r="M73" s="4" t="s">
-        <v>20</v>
+      <c r="M73" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="3:13">
       <c r="C74" s="1">
-        <v>2000214</v>
+        <v>2000212</v>
       </c>
       <c r="D74" s="1">
         <v>2</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F74" s="4">
         <v>15</v>
@@ -3888,18 +3926,18 @@
         <v>2</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="3:13">
       <c r="C75" s="1">
-        <v>2000215</v>
+        <v>2000213</v>
       </c>
       <c r="D75" s="1">
         <v>2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F75" s="4">
         <v>15</v>
@@ -3923,18 +3961,18 @@
         <v>2</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="3:13">
       <c r="C76" s="1">
-        <v>2000216</v>
+        <v>2000214</v>
       </c>
       <c r="D76" s="1">
         <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F76" s="4">
         <v>15</v>
@@ -3958,21 +3996,21 @@
         <v>2</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="3:13">
       <c r="C77" s="1">
-        <v>2000217</v>
+        <v>2000215</v>
       </c>
       <c r="D77" s="1">
         <v>2</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F77" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G77" s="4">
         <v>2</v>
@@ -3998,16 +4036,16 @@
     </row>
     <row r="78" customHeight="1" spans="3:13">
       <c r="C78" s="1">
-        <v>2000218</v>
+        <v>2000216</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F78" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G78" s="4">
         <v>2</v>
@@ -4033,13 +4071,13 @@
     </row>
     <row r="79" customHeight="1" spans="3:13">
       <c r="C79" s="1">
-        <v>2000219</v>
+        <v>2000217</v>
       </c>
       <c r="D79" s="1">
         <v>2</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F79" s="4">
         <v>16</v>
@@ -4063,18 +4101,18 @@
         <v>2</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="3:13">
       <c r="C80" s="1">
-        <v>2000220</v>
+        <v>2000218</v>
       </c>
       <c r="D80" s="1">
         <v>2</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F80" s="4">
         <v>16</v>
@@ -4098,33 +4136,33 @@
         <v>2</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="3:13">
       <c r="C81" s="1">
-        <v>2000221</v>
+        <v>2000219</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F81" s="1">
-        <v>15</v>
-      </c>
-      <c r="G81" s="1">
-        <v>3</v>
-      </c>
-      <c r="H81" s="1">
-        <v>3</v>
+        <v>94</v>
+      </c>
+      <c r="F81" s="4">
+        <v>16</v>
+      </c>
+      <c r="G81" s="4">
+        <v>2</v>
+      </c>
+      <c r="H81" s="4">
+        <v>2</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
       </c>
       <c r="J81" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K81" s="1">
         <v>10</v>
@@ -4132,34 +4170,34 @@
       <c r="L81" s="1">
         <v>2</v>
       </c>
-      <c r="M81" s="7" t="s">
-        <v>20</v>
+      <c r="M81" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="3:13">
       <c r="C82" s="1">
-        <v>2000222</v>
+        <v>2000220</v>
       </c>
       <c r="D82" s="1">
         <v>2</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F82" s="1">
-        <v>15</v>
-      </c>
-      <c r="G82" s="1">
-        <v>3</v>
-      </c>
-      <c r="H82" s="1">
-        <v>3</v>
+        <v>95</v>
+      </c>
+      <c r="F82" s="4">
+        <v>16</v>
+      </c>
+      <c r="G82" s="4">
+        <v>2</v>
+      </c>
+      <c r="H82" s="4">
+        <v>2</v>
       </c>
       <c r="I82" s="1">
         <v>0</v>
       </c>
       <c r="J82" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K82" s="1">
         <v>10</v>
@@ -4167,19 +4205,19 @@
       <c r="L82" s="1">
         <v>2</v>
       </c>
-      <c r="M82" s="7" t="s">
-        <v>20</v>
+      <c r="M82" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="3:13">
       <c r="C83" s="1">
-        <v>2000223</v>
+        <v>2000221</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F83" s="1">
         <v>15</v>
@@ -4203,18 +4241,18 @@
         <v>2</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="3:13">
       <c r="C84" s="1">
-        <v>2000224</v>
+        <v>2000222</v>
       </c>
       <c r="D84" s="1">
         <v>2</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F84" s="1">
         <v>15</v>
@@ -4238,21 +4276,21 @@
         <v>2</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="3:13">
       <c r="C85" s="1">
-        <v>2000225</v>
+        <v>2000223</v>
       </c>
       <c r="D85" s="1">
         <v>2</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F85" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G85" s="1">
         <v>3</v>
@@ -4278,16 +4316,16 @@
     </row>
     <row r="86" customHeight="1" spans="3:13">
       <c r="C86" s="1">
-        <v>2000226</v>
+        <v>2000224</v>
       </c>
       <c r="D86" s="1">
         <v>2</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F86" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G86" s="1">
         <v>3</v>
@@ -4313,28 +4351,28 @@
     </row>
     <row r="87" customHeight="1" spans="3:13">
       <c r="C87" s="1">
-        <v>2000227</v>
+        <v>2000225</v>
       </c>
       <c r="D87" s="1">
         <v>2</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F87" s="5">
-        <v>15</v>
-      </c>
-      <c r="G87" s="5">
-        <v>4</v>
-      </c>
-      <c r="H87" s="5">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="F87" s="1">
+        <v>16</v>
+      </c>
+      <c r="G87" s="1">
+        <v>3</v>
+      </c>
+      <c r="H87" s="1">
+        <v>3</v>
       </c>
       <c r="I87" s="1">
         <v>0</v>
       </c>
       <c r="J87" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K87" s="1">
         <v>10</v>
@@ -4342,34 +4380,34 @@
       <c r="L87" s="1">
         <v>2</v>
       </c>
-      <c r="M87" s="5" t="s">
-        <v>20</v>
+      <c r="M87" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="3:13">
       <c r="C88" s="1">
-        <v>2000228</v>
+        <v>2000226</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F88" s="5">
-        <v>15</v>
-      </c>
-      <c r="G88" s="5">
-        <v>4</v>
-      </c>
-      <c r="H88" s="5">
-        <v>4</v>
+        <v>101</v>
+      </c>
+      <c r="F88" s="1">
+        <v>16</v>
+      </c>
+      <c r="G88" s="1">
+        <v>3</v>
+      </c>
+      <c r="H88" s="1">
+        <v>3</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
       </c>
       <c r="J88" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K88" s="1">
         <v>10</v>
@@ -4377,22 +4415,22 @@
       <c r="L88" s="1">
         <v>2</v>
       </c>
-      <c r="M88" s="5" t="s">
-        <v>20</v>
+      <c r="M88" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="3:13">
       <c r="C89" s="1">
-        <v>2000229</v>
+        <v>2000227</v>
       </c>
       <c r="D89" s="1">
         <v>2</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F89" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G89" s="5">
         <v>4</v>
@@ -4414,6 +4452,76 @@
       </c>
       <c r="M89" s="5" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:13">
+      <c r="C90" s="1">
+        <v>2000228</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F90" s="5">
+        <v>15</v>
+      </c>
+      <c r="G90" s="5">
+        <v>4</v>
+      </c>
+      <c r="H90" s="5">
+        <v>4</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>4</v>
+      </c>
+      <c r="K90" s="1">
+        <v>10</v>
+      </c>
+      <c r="L90" s="1">
+        <v>2</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:13">
+      <c r="C91" s="1">
+        <v>2000229</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F91" s="5">
+        <v>16</v>
+      </c>
+      <c r="G91" s="5">
+        <v>4</v>
+      </c>
+      <c r="H91" s="5">
+        <v>4</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>4</v>
+      </c>
+      <c r="K91" s="1">
+        <v>10</v>
+      </c>
+      <c r="L91" s="1">
+        <v>2</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1351,7 +1351,7 @@
   <dimension ref="A3:X91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="136">
   <si>
     <t>Id</t>
   </si>
@@ -342,6 +342,99 @@
   </si>
   <si>
     <t>龙虎灵武枪</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>虫玉</t>
+  </si>
+  <si>
+    <t>金镶玉</t>
+  </si>
+  <si>
+    <t>上等布匹</t>
+  </si>
+  <si>
+    <t>镂空厚玉</t>
+  </si>
+  <si>
+    <t>平安吊坠</t>
+  </si>
+  <si>
+    <t>碧蓝护符</t>
+  </si>
+  <si>
+    <t>狐玉</t>
+  </si>
+  <si>
+    <t>招财蛤蟆</t>
+  </si>
+  <si>
+    <t>玉骨青叶</t>
+  </si>
+  <si>
+    <t>夜明坠</t>
+  </si>
+  <si>
+    <t>华府腰绳</t>
+  </si>
+  <si>
+    <t>紫晶如意</t>
+  </si>
+  <si>
+    <t>凤祝冷玉</t>
+  </si>
+  <si>
+    <t>龙祝暖玉</t>
+  </si>
+  <si>
+    <t>翠珠白菜</t>
+  </si>
+  <si>
+    <t>藏蓝织线</t>
+  </si>
+  <si>
+    <t>碧玺玉镯</t>
+  </si>
+  <si>
+    <t>明光扁玉</t>
+  </si>
+  <si>
+    <t>双鱼戏珠</t>
+  </si>
+  <si>
+    <t>明光袈裟</t>
+  </si>
+  <si>
+    <t>龙纹三玉</t>
+  </si>
+  <si>
+    <t>慧珠宝伞</t>
+  </si>
+  <si>
+    <t>碧玉琉璃台</t>
+  </si>
+  <si>
+    <t>化蝶符玉</t>
+  </si>
+  <si>
+    <t>拜龙宝玉</t>
+  </si>
+  <si>
+    <t>唤龙神玉符</t>
+  </si>
+  <si>
+    <t>欢乐金豆</t>
+  </si>
+  <si>
+    <t>织天彩线</t>
+  </si>
+  <si>
+    <t>金玉满堂</t>
+  </si>
+  <si>
+    <t>金枝玉叶</t>
   </si>
 </sst>
 </file>
@@ -1348,10 +1441,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:X91"/>
+  <dimension ref="A3:X123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -4524,6 +4617,1236 @@
         <v>28</v>
       </c>
     </row>
+    <row r="94" customHeight="1" spans="1:13">
+      <c r="A94" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2000300</v>
+      </c>
+      <c r="D94" s="1">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F94" s="1">
+        <v>15</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+      <c r="H94" s="1">
+        <v>1</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>1</v>
+      </c>
+      <c r="K94" s="1">
+        <v>10</v>
+      </c>
+      <c r="L94" s="1">
+        <v>2</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:13">
+      <c r="A95" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2000301</v>
+      </c>
+      <c r="D95" s="1">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F95" s="1">
+        <v>15</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+      <c r="H95" s="1">
+        <v>1</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>1</v>
+      </c>
+      <c r="K95" s="1">
+        <v>10</v>
+      </c>
+      <c r="L95" s="1">
+        <v>2</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:13">
+      <c r="A96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2000302</v>
+      </c>
+      <c r="D96" s="1">
+        <v>3</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F96" s="1">
+        <v>15</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>1</v>
+      </c>
+      <c r="K96" s="1">
+        <v>10</v>
+      </c>
+      <c r="L96" s="1">
+        <v>2</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:13">
+      <c r="A97" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2000303</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F97" s="1">
+        <v>15</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>1</v>
+      </c>
+      <c r="K97" s="1">
+        <v>10</v>
+      </c>
+      <c r="L97" s="1">
+        <v>2</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:13">
+      <c r="A98" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2000304</v>
+      </c>
+      <c r="D98" s="1">
+        <v>3</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F98" s="1">
+        <v>14</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1">
+        <v>1</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>1</v>
+      </c>
+      <c r="K98" s="1">
+        <v>10</v>
+      </c>
+      <c r="L98" s="1">
+        <v>2</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:13">
+      <c r="A99" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2000305</v>
+      </c>
+      <c r="D99" s="1">
+        <v>3</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99" s="1">
+        <v>14</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1">
+        <v>1</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1">
+        <v>10</v>
+      </c>
+      <c r="L99" s="1">
+        <v>2</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:13">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2000306</v>
+      </c>
+      <c r="D100" s="1">
+        <v>3</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F100" s="1">
+        <v>14</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>1</v>
+      </c>
+      <c r="K100" s="1">
+        <v>10</v>
+      </c>
+      <c r="L100" s="1">
+        <v>2</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:13">
+      <c r="A101" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2000307</v>
+      </c>
+      <c r="D101" s="1">
+        <v>3</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F101" s="1">
+        <v>14</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H101" s="1">
+        <v>1</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>1</v>
+      </c>
+      <c r="K101" s="1">
+        <v>10</v>
+      </c>
+      <c r="L101" s="1">
+        <v>2</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:13">
+      <c r="A102" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2000308</v>
+      </c>
+      <c r="D102" s="1">
+        <v>3</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F102" s="1">
+        <v>16</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1">
+        <v>1</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1">
+        <v>1</v>
+      </c>
+      <c r="K102" s="1">
+        <v>10</v>
+      </c>
+      <c r="L102" s="1">
+        <v>2</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:13">
+      <c r="A103" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2000309</v>
+      </c>
+      <c r="D103" s="1">
+        <v>3</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F103" s="1">
+        <v>16</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1">
+        <v>1</v>
+      </c>
+      <c r="K103" s="1">
+        <v>10</v>
+      </c>
+      <c r="L103" s="1">
+        <v>2</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:13">
+      <c r="A104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2000310</v>
+      </c>
+      <c r="D104" s="1">
+        <v>3</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F104" s="1">
+        <v>16</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="H104" s="1">
+        <v>1</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>1</v>
+      </c>
+      <c r="K104" s="1">
+        <v>10</v>
+      </c>
+      <c r="L104" s="1">
+        <v>2</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:13">
+      <c r="A105" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2000311</v>
+      </c>
+      <c r="D105" s="1">
+        <v>3</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F105" s="1">
+        <v>16</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1">
+        <v>1</v>
+      </c>
+      <c r="K105" s="1">
+        <v>10</v>
+      </c>
+      <c r="L105" s="1">
+        <v>2</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:13">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2000312</v>
+      </c>
+      <c r="D106" s="1">
+        <v>3</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F106" s="4">
+        <v>15</v>
+      </c>
+      <c r="G106" s="4">
+        <v>2</v>
+      </c>
+      <c r="H106" s="4">
+        <v>2</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>2</v>
+      </c>
+      <c r="K106" s="1">
+        <v>10</v>
+      </c>
+      <c r="L106" s="1">
+        <v>2</v>
+      </c>
+      <c r="M106" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:13">
+      <c r="A107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2000313</v>
+      </c>
+      <c r="D107" s="1">
+        <v>3</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F107" s="4">
+        <v>15</v>
+      </c>
+      <c r="G107" s="4">
+        <v>2</v>
+      </c>
+      <c r="H107" s="4">
+        <v>2</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>2</v>
+      </c>
+      <c r="K107" s="1">
+        <v>10</v>
+      </c>
+      <c r="L107" s="1">
+        <v>2</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:13">
+      <c r="A108" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C108" s="1">
+        <v>2000314</v>
+      </c>
+      <c r="D108" s="1">
+        <v>3</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F108" s="4">
+        <v>15</v>
+      </c>
+      <c r="G108" s="4">
+        <v>2</v>
+      </c>
+      <c r="H108" s="4">
+        <v>2</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>2</v>
+      </c>
+      <c r="K108" s="1">
+        <v>10</v>
+      </c>
+      <c r="L108" s="1">
+        <v>2</v>
+      </c>
+      <c r="M108" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:13">
+      <c r="A109" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2000315</v>
+      </c>
+      <c r="D109" s="1">
+        <v>3</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F109" s="4">
+        <v>14</v>
+      </c>
+      <c r="G109" s="4">
+        <v>2</v>
+      </c>
+      <c r="H109" s="4">
+        <v>2</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>2</v>
+      </c>
+      <c r="K109" s="1">
+        <v>10</v>
+      </c>
+      <c r="L109" s="1">
+        <v>2</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:13">
+      <c r="A110" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2000316</v>
+      </c>
+      <c r="D110" s="1">
+        <v>3</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F110" s="4">
+        <v>14</v>
+      </c>
+      <c r="G110" s="4">
+        <v>2</v>
+      </c>
+      <c r="H110" s="4">
+        <v>2</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>2</v>
+      </c>
+      <c r="K110" s="1">
+        <v>10</v>
+      </c>
+      <c r="L110" s="1">
+        <v>2</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:13">
+      <c r="A111" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2000317</v>
+      </c>
+      <c r="D111" s="1">
+        <v>3</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F111" s="4">
+        <v>14</v>
+      </c>
+      <c r="G111" s="4">
+        <v>2</v>
+      </c>
+      <c r="H111" s="4">
+        <v>2</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1">
+        <v>2</v>
+      </c>
+      <c r="K111" s="1">
+        <v>10</v>
+      </c>
+      <c r="L111" s="1">
+        <v>2</v>
+      </c>
+      <c r="M111" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:13">
+      <c r="A112" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2000318</v>
+      </c>
+      <c r="D112" s="1">
+        <v>3</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F112" s="4">
+        <v>16</v>
+      </c>
+      <c r="G112" s="4">
+        <v>2</v>
+      </c>
+      <c r="H112" s="4">
+        <v>2</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>2</v>
+      </c>
+      <c r="K112" s="1">
+        <v>10</v>
+      </c>
+      <c r="L112" s="1">
+        <v>2</v>
+      </c>
+      <c r="M112" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:13">
+      <c r="A113" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2000319</v>
+      </c>
+      <c r="D113" s="1">
+        <v>3</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F113" s="4">
+        <v>16</v>
+      </c>
+      <c r="G113" s="4">
+        <v>2</v>
+      </c>
+      <c r="H113" s="4">
+        <v>2</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1">
+        <v>2</v>
+      </c>
+      <c r="K113" s="1">
+        <v>10</v>
+      </c>
+      <c r="L113" s="1">
+        <v>2</v>
+      </c>
+      <c r="M113" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:13">
+      <c r="A114" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2000320</v>
+      </c>
+      <c r="D114" s="1">
+        <v>3</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114" s="4">
+        <v>16</v>
+      </c>
+      <c r="G114" s="4">
+        <v>2</v>
+      </c>
+      <c r="H114" s="4">
+        <v>2</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <v>2</v>
+      </c>
+      <c r="K114" s="1">
+        <v>10</v>
+      </c>
+      <c r="L114" s="1">
+        <v>2</v>
+      </c>
+      <c r="M114" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:13">
+      <c r="A115" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2000321</v>
+      </c>
+      <c r="D115" s="1">
+        <v>3</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F115" s="1">
+        <v>15</v>
+      </c>
+      <c r="G115" s="1">
+        <v>3</v>
+      </c>
+      <c r="H115" s="1">
+        <v>3</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1">
+        <v>3</v>
+      </c>
+      <c r="K115" s="1">
+        <v>10</v>
+      </c>
+      <c r="L115" s="1">
+        <v>2</v>
+      </c>
+      <c r="M115" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:13">
+      <c r="A116" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2000322</v>
+      </c>
+      <c r="D116" s="1">
+        <v>3</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F116" s="1">
+        <v>15</v>
+      </c>
+      <c r="G116" s="1">
+        <v>3</v>
+      </c>
+      <c r="H116" s="1">
+        <v>3</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1">
+        <v>3</v>
+      </c>
+      <c r="K116" s="1">
+        <v>10</v>
+      </c>
+      <c r="L116" s="1">
+        <v>2</v>
+      </c>
+      <c r="M116" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:13">
+      <c r="A117" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2000323</v>
+      </c>
+      <c r="D117" s="1">
+        <v>3</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F117" s="1">
+        <v>14</v>
+      </c>
+      <c r="G117" s="1">
+        <v>3</v>
+      </c>
+      <c r="H117" s="1">
+        <v>3</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1">
+        <v>3</v>
+      </c>
+      <c r="K117" s="1">
+        <v>10</v>
+      </c>
+      <c r="L117" s="1">
+        <v>2</v>
+      </c>
+      <c r="M117" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:13">
+      <c r="A118" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2000324</v>
+      </c>
+      <c r="D118" s="1">
+        <v>3</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F118" s="1">
+        <v>14</v>
+      </c>
+      <c r="G118" s="1">
+        <v>3</v>
+      </c>
+      <c r="H118" s="1">
+        <v>3</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1">
+        <v>3</v>
+      </c>
+      <c r="K118" s="1">
+        <v>10</v>
+      </c>
+      <c r="L118" s="1">
+        <v>2</v>
+      </c>
+      <c r="M118" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:13">
+      <c r="A119" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C119" s="1">
+        <v>2000325</v>
+      </c>
+      <c r="D119" s="1">
+        <v>3</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F119" s="1">
+        <v>16</v>
+      </c>
+      <c r="G119" s="1">
+        <v>3</v>
+      </c>
+      <c r="H119" s="1">
+        <v>3</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1">
+        <v>3</v>
+      </c>
+      <c r="K119" s="1">
+        <v>10</v>
+      </c>
+      <c r="L119" s="1">
+        <v>2</v>
+      </c>
+      <c r="M119" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:13">
+      <c r="A120" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2000326</v>
+      </c>
+      <c r="D120" s="1">
+        <v>3</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F120" s="1">
+        <v>16</v>
+      </c>
+      <c r="G120" s="1">
+        <v>3</v>
+      </c>
+      <c r="H120" s="1">
+        <v>3</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1">
+        <v>3</v>
+      </c>
+      <c r="K120" s="1">
+        <v>10</v>
+      </c>
+      <c r="L120" s="1">
+        <v>2</v>
+      </c>
+      <c r="M120" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:13">
+      <c r="A121" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2000327</v>
+      </c>
+      <c r="D121" s="1">
+        <v>3</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F121" s="5">
+        <v>15</v>
+      </c>
+      <c r="G121" s="5">
+        <v>4</v>
+      </c>
+      <c r="H121" s="5">
+        <v>4</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1">
+        <v>4</v>
+      </c>
+      <c r="K121" s="1">
+        <v>10</v>
+      </c>
+      <c r="L121" s="1">
+        <v>2</v>
+      </c>
+      <c r="M121" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:13">
+      <c r="A122" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2000328</v>
+      </c>
+      <c r="D122" s="1">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F122" s="5">
+        <v>14</v>
+      </c>
+      <c r="G122" s="5">
+        <v>4</v>
+      </c>
+      <c r="H122" s="5">
+        <v>4</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1">
+        <v>4</v>
+      </c>
+      <c r="K122" s="1">
+        <v>10</v>
+      </c>
+      <c r="L122" s="1">
+        <v>2</v>
+      </c>
+      <c r="M122" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:13">
+      <c r="A123" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2000329</v>
+      </c>
+      <c r="D123" s="1">
+        <v>3</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F123" s="5">
+        <v>16</v>
+      </c>
+      <c r="G123" s="5">
+        <v>4</v>
+      </c>
+      <c r="H123" s="5">
+        <v>4</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
+        <v>4</v>
+      </c>
+      <c r="K123" s="1">
+        <v>10</v>
+      </c>
+      <c r="L123" s="1">
+        <v>2</v>
+      </c>
+      <c r="M123" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 E3 C4:C5 C6:C8 D3:D5 D6:D8 E4:E5 E6:E8" errorStyle="warning">

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="135">
   <si>
     <t>Id</t>
   </si>
@@ -342,9 +342,6 @@
   </si>
   <si>
     <t>龙虎灵武枪</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>虫玉</t>
@@ -1443,8 +1440,8 @@
   <sheetPr/>
   <dimension ref="A3:X123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="N101" sqref="N101"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="N116" sqref="N116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -4617,13 +4614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="1:13">
-      <c r="A94" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="94" customHeight="1" spans="3:13">
       <c r="C94" s="1">
         <v>2000300</v>
       </c>
@@ -4631,7 +4622,7 @@
         <v>3</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F94" s="1">
         <v>15</v>
@@ -4658,13 +4649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:13">
-      <c r="A95" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="95" customHeight="1" spans="3:13">
       <c r="C95" s="1">
         <v>2000301</v>
       </c>
@@ -4672,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F95" s="1">
         <v>15</v>
@@ -4699,13 +4684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:13">
-      <c r="A96" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="96" customHeight="1" spans="3:13">
       <c r="C96" s="1">
         <v>2000302</v>
       </c>
@@ -4713,7 +4692,7 @@
         <v>3</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F96" s="1">
         <v>15</v>
@@ -4740,13 +4719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:13">
-      <c r="A97" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="97" customHeight="1" spans="3:13">
       <c r="C97" s="1">
         <v>2000303</v>
       </c>
@@ -4754,7 +4727,7 @@
         <v>3</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F97" s="1">
         <v>15</v>
@@ -4781,13 +4754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:13">
-      <c r="A98" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="98" customHeight="1" spans="3:13">
       <c r="C98" s="1">
         <v>2000304</v>
       </c>
@@ -4795,7 +4762,7 @@
         <v>3</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F98" s="1">
         <v>14</v>
@@ -4822,13 +4789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="1:13">
-      <c r="A99" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="99" customHeight="1" spans="3:13">
       <c r="C99" s="1">
         <v>2000305</v>
       </c>
@@ -4836,7 +4797,7 @@
         <v>3</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F99" s="1">
         <v>14</v>
@@ -4863,13 +4824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:13">
-      <c r="A100" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="100" customHeight="1" spans="3:13">
       <c r="C100" s="1">
         <v>2000306</v>
       </c>
@@ -4877,7 +4832,7 @@
         <v>3</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F100" s="1">
         <v>14</v>
@@ -4904,13 +4859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="1:13">
-      <c r="A101" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="101" customHeight="1" spans="3:13">
       <c r="C101" s="1">
         <v>2000307</v>
       </c>
@@ -4918,7 +4867,7 @@
         <v>3</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F101" s="1">
         <v>14</v>
@@ -4945,13 +4894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:13">
-      <c r="A102" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="102" customHeight="1" spans="3:13">
       <c r="C102" s="1">
         <v>2000308</v>
       </c>
@@ -4959,7 +4902,7 @@
         <v>3</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F102" s="1">
         <v>16</v>
@@ -4986,13 +4929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="1:13">
-      <c r="A103" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="103" customHeight="1" spans="3:13">
       <c r="C103" s="1">
         <v>2000309</v>
       </c>
@@ -5000,7 +4937,7 @@
         <v>3</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F103" s="1">
         <v>16</v>
@@ -5027,13 +4964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" customHeight="1" spans="1:13">
-      <c r="A104" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="104" customHeight="1" spans="3:13">
       <c r="C104" s="1">
         <v>2000310</v>
       </c>
@@ -5041,7 +4972,7 @@
         <v>3</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F104" s="1">
         <v>16</v>
@@ -5068,13 +4999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="1:13">
-      <c r="A105" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="105" customHeight="1" spans="3:13">
       <c r="C105" s="1">
         <v>2000311</v>
       </c>
@@ -5082,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F105" s="1">
         <v>16</v>
@@ -5109,13 +5034,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" customHeight="1" spans="1:13">
-      <c r="A106" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="106" customHeight="1" spans="3:13">
       <c r="C106" s="1">
         <v>2000312</v>
       </c>
@@ -5123,7 +5042,7 @@
         <v>3</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F106" s="4">
         <v>15</v>
@@ -5150,13 +5069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="1:13">
-      <c r="A107" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="107" customHeight="1" spans="3:13">
       <c r="C107" s="1">
         <v>2000313</v>
       </c>
@@ -5164,7 +5077,7 @@
         <v>3</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F107" s="4">
         <v>15</v>
@@ -5191,13 +5104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:13">
-      <c r="A108" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="108" customHeight="1" spans="3:13">
       <c r="C108" s="1">
         <v>2000314</v>
       </c>
@@ -5205,7 +5112,7 @@
         <v>3</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F108" s="4">
         <v>15</v>
@@ -5232,13 +5139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="1:13">
-      <c r="A109" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="109" customHeight="1" spans="3:13">
       <c r="C109" s="1">
         <v>2000315</v>
       </c>
@@ -5246,7 +5147,7 @@
         <v>3</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F109" s="4">
         <v>14</v>
@@ -5273,13 +5174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" customHeight="1" spans="1:13">
-      <c r="A110" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="110" customHeight="1" spans="3:13">
       <c r="C110" s="1">
         <v>2000316</v>
       </c>
@@ -5287,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F110" s="4">
         <v>14</v>
@@ -5314,13 +5209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:13">
-      <c r="A111" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="111" customHeight="1" spans="3:13">
       <c r="C111" s="1">
         <v>2000317</v>
       </c>
@@ -5328,7 +5217,7 @@
         <v>3</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F111" s="4">
         <v>14</v>
@@ -5355,13 +5244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="1:13">
-      <c r="A112" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="112" customHeight="1" spans="3:13">
       <c r="C112" s="1">
         <v>2000318</v>
       </c>
@@ -5369,7 +5252,7 @@
         <v>3</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F112" s="4">
         <v>16</v>
@@ -5396,13 +5279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="1:13">
-      <c r="A113" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="113" customHeight="1" spans="3:13">
       <c r="C113" s="1">
         <v>2000319</v>
       </c>
@@ -5410,7 +5287,7 @@
         <v>3</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F113" s="4">
         <v>16</v>
@@ -5437,13 +5314,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:13">
-      <c r="A114" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="114" customHeight="1" spans="3:13">
       <c r="C114" s="1">
         <v>2000320</v>
       </c>
@@ -5451,7 +5322,7 @@
         <v>3</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F114" s="4">
         <v>16</v>
@@ -5478,13 +5349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="1:13">
-      <c r="A115" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="115" customHeight="1" spans="3:13">
       <c r="C115" s="1">
         <v>2000321</v>
       </c>
@@ -5492,7 +5357,7 @@
         <v>3</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F115" s="1">
         <v>15</v>
@@ -5519,13 +5384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:13">
-      <c r="A116" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="116" customHeight="1" spans="3:13">
       <c r="C116" s="1">
         <v>2000322</v>
       </c>
@@ -5533,7 +5392,7 @@
         <v>3</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F116" s="1">
         <v>15</v>
@@ -5560,13 +5419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="1:13">
-      <c r="A117" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="117" customHeight="1" spans="3:13">
       <c r="C117" s="1">
         <v>2000323</v>
       </c>
@@ -5574,7 +5427,7 @@
         <v>3</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F117" s="1">
         <v>14</v>
@@ -5601,13 +5454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="1:13">
-      <c r="A118" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="118" customHeight="1" spans="3:13">
       <c r="C118" s="1">
         <v>2000324</v>
       </c>
@@ -5615,7 +5462,7 @@
         <v>3</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F118" s="1">
         <v>14</v>
@@ -5642,13 +5489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:13">
-      <c r="A119" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="119" customHeight="1" spans="3:13">
       <c r="C119" s="1">
         <v>2000325</v>
       </c>
@@ -5656,7 +5497,7 @@
         <v>3</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F119" s="1">
         <v>16</v>
@@ -5683,13 +5524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:13">
-      <c r="A120" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="120" customHeight="1" spans="3:13">
       <c r="C120" s="1">
         <v>2000326</v>
       </c>
@@ -5697,7 +5532,7 @@
         <v>3</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F120" s="1">
         <v>16</v>
@@ -5724,13 +5559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" customHeight="1" spans="1:13">
-      <c r="A121" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="121" customHeight="1" spans="3:13">
       <c r="C121" s="1">
         <v>2000327</v>
       </c>
@@ -5738,7 +5567,7 @@
         <v>3</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F121" s="5">
         <v>15</v>
@@ -5765,13 +5594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="1:13">
-      <c r="A122" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="122" customHeight="1" spans="3:13">
       <c r="C122" s="1">
         <v>2000328</v>
       </c>
@@ -5779,7 +5602,7 @@
         <v>3</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F122" s="5">
         <v>14</v>
@@ -5806,13 +5629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="1:13">
-      <c r="A123" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>105</v>
-      </c>
+    <row r="123" customHeight="1" spans="3:13">
       <c r="C123" s="1">
         <v>2000329</v>
       </c>
@@ -5820,7 +5637,7 @@
         <v>3</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F123" s="5">
         <v>16</v>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="136">
   <si>
     <t>Id</t>
   </si>
@@ -47,13 +47,16 @@
     <t>LevelIncrea</t>
   </si>
   <si>
-    <t>StoneNumber</t>
+    <t>RiseId</t>
   </si>
   <si>
     <t>Quality</t>
   </si>
   <si>
     <t>RiseLevel</t>
+  </si>
+  <si>
+    <t>StartNubmer</t>
   </si>
   <si>
     <t>RiseNumber</t>
@@ -1438,22 +1441,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:X123"/>
+  <dimension ref="A3:Y123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="N116" sqref="N116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="12" width="12.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.75" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="6" max="13" width="12.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.75" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:13">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="3:14">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1487,8 +1490,11 @@
       <c r="M3" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="N3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="3:14">
       <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1522,43 +1528,49 @@
       <c r="M4" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="N4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="3:14">
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="N5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:14">
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1570,8 +1582,9 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:14">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1583,8 +1596,9 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:14">
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1596,8 +1610,9 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2">
@@ -1607,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2">
         <v>2003</v>
@@ -1619,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1999993</v>
       </c>
       <c r="J9" s="2">
         <v>6</v>
@@ -1630,22 +1645,25 @@
       <c r="L9" s="2">
         <v>1</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="3"/>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="O9" s="3"/>
-      <c r="P9" s="1"/>
+      <c r="P9" s="3"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="3"/>
+      <c r="V9" s="1"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2">
@@ -1655,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2">
         <v>2002</v>
@@ -1667,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>1999994</v>
       </c>
       <c r="J10" s="2">
         <v>6</v>
@@ -1678,22 +1696,25 @@
       <c r="L10" s="2">
         <v>1</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="3"/>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O10" s="3"/>
-      <c r="P10" s="1"/>
+      <c r="P10" s="3"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="3"/>
+      <c r="V10" s="1"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2">
@@ -1703,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2">
         <v>2007</v>
@@ -1715,7 +1736,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>1999995</v>
       </c>
       <c r="J11" s="2">
         <v>6</v>
@@ -1726,22 +1747,25 @@
       <c r="L11" s="2">
         <v>1</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="3"/>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="O11" s="3"/>
-      <c r="P11" s="1"/>
+      <c r="P11" s="3"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="3"/>
+      <c r="V11" s="1"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" customFormat="1" customHeight="1" spans="1:21">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" customFormat="1" customHeight="1" spans="1:22">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2">
@@ -1751,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2">
         <v>2008</v>
@@ -1763,7 +1787,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1999996</v>
       </c>
       <c r="J12" s="2">
         <v>6</v>
@@ -1774,19 +1798,22 @@
       <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="3"/>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="O12" s="3"/>
-      <c r="P12" s="1"/>
+      <c r="P12" s="3"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-    </row>
-    <row r="13" customFormat="1" customHeight="1" spans="1:21">
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" customFormat="1" customHeight="1" spans="1:22">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2">
@@ -1796,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2">
         <v>2009</v>
@@ -1808,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1999997</v>
       </c>
       <c r="J13" s="2">
         <v>6</v>
@@ -1819,19 +1846,22 @@
       <c r="L13" s="2">
         <v>1</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="3"/>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="O13" s="3"/>
-      <c r="P13" s="1"/>
+      <c r="P13" s="3"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-    </row>
-    <row r="14" s="3" customFormat="1" customHeight="1" spans="3:21">
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" s="3" customFormat="1" customHeight="1" spans="3:22">
       <c r="C14" s="2">
         <v>1999998</v>
       </c>
@@ -1839,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="2">
         <v>15</v>
@@ -1851,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="2">
-        <v>10</v>
+        <v>4101</v>
       </c>
       <c r="J14" s="2">
         <v>5</v>
@@ -1860,19 +1890,22 @@
         <v>200</v>
       </c>
       <c r="L14" s="2">
+        <v>10</v>
+      </c>
+      <c r="M14" s="2">
         <v>20</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="1"/>
+      <c r="N14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-    </row>
-    <row r="15" s="3" customFormat="1" customHeight="1" spans="3:21">
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" s="3" customFormat="1" customHeight="1" spans="3:22">
       <c r="C15" s="2">
         <v>1999999</v>
       </c>
@@ -1880,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2">
         <v>14</v>
@@ -1892,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="2">
-        <v>10</v>
+        <v>4101</v>
       </c>
       <c r="J15" s="2">
         <v>5</v>
@@ -1901,19 +1934,22 @@
         <v>200</v>
       </c>
       <c r="L15" s="2">
+        <v>10</v>
+      </c>
+      <c r="M15" s="2">
         <v>20</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="1"/>
+      <c r="N15" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-    </row>
-    <row r="16" s="3" customFormat="1" customHeight="1" spans="3:21">
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" s="3" customFormat="1" customHeight="1" spans="3:22">
       <c r="C16" s="2">
         <v>2000000</v>
       </c>
@@ -1921,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2">
         <v>16</v>
@@ -1933,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="2">
-        <v>10</v>
+        <v>4101</v>
       </c>
       <c r="J16" s="2">
         <v>5</v>
@@ -1942,19 +1978,22 @@
         <v>200</v>
       </c>
       <c r="L16" s="2">
+        <v>10</v>
+      </c>
+      <c r="M16" s="2">
         <v>20</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" s="1"/>
+      <c r="N16" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2">
@@ -1964,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F17" s="2">
         <v>7</v>
@@ -1976,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="2">
-        <v>0</v>
+        <v>2000001</v>
       </c>
       <c r="J17" s="2">
         <v>5</v>
@@ -1985,24 +2024,27 @@
         <v>10</v>
       </c>
       <c r="L17" s="2">
-        <v>2</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>2</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="O17" s="3"/>
-      <c r="P17" s="1"/>
+      <c r="P17" s="3"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="3"/>
+      <c r="V17" s="1"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2">
@@ -2012,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" s="2">
         <v>14</v>
@@ -2024,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="2">
-        <v>0</v>
+        <v>2000002</v>
       </c>
       <c r="J18" s="2">
         <v>5</v>
@@ -2033,24 +2075,27 @@
         <v>10</v>
       </c>
       <c r="L18" s="2">
-        <v>2</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>2</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="O18" s="3"/>
-      <c r="P18" s="1"/>
+      <c r="P18" s="3"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="3"/>
+      <c r="V18" s="1"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-    </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="2">
@@ -2060,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" s="2">
         <v>8</v>
@@ -2072,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="2">
-        <v>0</v>
+        <v>2000003</v>
       </c>
       <c r="J19" s="2">
         <v>5</v>
@@ -2081,24 +2126,27 @@
         <v>10</v>
       </c>
       <c r="L19" s="2">
-        <v>2</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>2</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="O19" s="3"/>
-      <c r="P19" s="1"/>
+      <c r="P19" s="3"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="3"/>
+      <c r="V19" s="1"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="2">
@@ -2108,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20" s="2">
         <v>9</v>
@@ -2120,7 +2168,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="2">
-        <v>0</v>
+        <v>2000004</v>
       </c>
       <c r="J20" s="2">
         <v>5</v>
@@ -2129,24 +2177,27 @@
         <v>10</v>
       </c>
       <c r="L20" s="2">
-        <v>2</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O20" s="3"/>
-      <c r="P20" s="1"/>
+      <c r="P20" s="3"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="3"/>
+      <c r="V20" s="1"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-    </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="2">
@@ -2156,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2">
         <v>12</v>
@@ -2168,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="2">
-        <v>0</v>
+        <v>2000005</v>
       </c>
       <c r="J21" s="2">
         <v>5</v>
@@ -2177,24 +2228,27 @@
         <v>10</v>
       </c>
       <c r="L21" s="2">
-        <v>2</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N21" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>2</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="O21" s="3"/>
-      <c r="P21" s="1"/>
+      <c r="P21" s="3"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="3"/>
+      <c r="V21" s="1"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
-    </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="2">
@@ -2204,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2">
         <v>14</v>
@@ -2216,7 +2270,7 @@
         <v>5</v>
       </c>
       <c r="I22" s="2">
-        <v>0</v>
+        <v>2000006</v>
       </c>
       <c r="J22" s="2">
         <v>5</v>
@@ -2227,22 +2281,25 @@
       <c r="L22" s="2">
         <v>1</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="3"/>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="O22" s="3"/>
-      <c r="P22" s="1"/>
+      <c r="P22" s="3"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="3"/>
+      <c r="V22" s="1"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-    </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="2">
@@ -2252,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2">
         <v>16</v>
@@ -2264,7 +2321,7 @@
         <v>5</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>2000007</v>
       </c>
       <c r="J23" s="2">
         <v>5</v>
@@ -2275,22 +2332,25 @@
       <c r="L23" s="2">
         <v>1</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="3"/>
+      <c r="M23" s="2">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="O23" s="3"/>
-      <c r="P23" s="1"/>
+      <c r="P23" s="3"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="3"/>
+      <c r="V23" s="1"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-    </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2">
@@ -2300,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F24" s="2">
         <v>15</v>
@@ -2312,7 +2372,7 @@
         <v>5</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>2000008</v>
       </c>
       <c r="J24" s="2">
         <v>5</v>
@@ -2323,22 +2383,25 @@
       <c r="L24" s="2">
         <v>1</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="3"/>
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="O24" s="3"/>
-      <c r="P24" s="1"/>
+      <c r="P24" s="3"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="3"/>
+      <c r="V24" s="1"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-    </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2">
@@ -2348,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F25" s="2">
         <v>12</v>
@@ -2360,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="2">
-        <v>0</v>
+        <v>2000009</v>
       </c>
       <c r="J25" s="2">
         <v>5</v>
@@ -2371,22 +2434,25 @@
       <c r="L25" s="2">
         <v>1</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="3"/>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="O25" s="3"/>
-      <c r="P25" s="1"/>
+      <c r="P25" s="3"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="3"/>
+      <c r="V25" s="1"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-    </row>
-    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:24">
+      <c r="Y25" s="3"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2">
@@ -2396,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" s="2">
         <v>13</v>
@@ -2408,7 +2474,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="2">
-        <v>0</v>
+        <v>2000010</v>
       </c>
       <c r="J26" s="2">
         <v>5</v>
@@ -2419,22 +2485,25 @@
       <c r="L26" s="2">
         <v>1</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="3"/>
+      <c r="M26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O26" s="3"/>
-      <c r="P26" s="1"/>
+      <c r="P26" s="3"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="3"/>
+      <c r="V26" s="1"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-    </row>
-    <row r="27" customFormat="1" customHeight="1" spans="1:21">
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" customFormat="1" customHeight="1" spans="1:22">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
@@ -2448,14 +2517,15 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="N27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
-    </row>
-    <row r="28" customFormat="1" customHeight="1" spans="1:21">
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" customFormat="1" customHeight="1" spans="1:22">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
@@ -2469,14 +2539,15 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="N28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
-    </row>
-    <row r="29" customFormat="1" customHeight="1" spans="1:20">
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" customFormat="1" customHeight="1" spans="1:21">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
@@ -2490,13 +2561,14 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="N29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
-    </row>
-    <row r="30" customFormat="1" customHeight="1" spans="3:20">
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" customFormat="1" customHeight="1" spans="3:21">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2508,13 +2580,14 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="N30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:14">
       <c r="C31" s="1">
         <v>2000100</v>
       </c>
@@ -2522,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F31" s="1">
         <v>15</v>
@@ -2534,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>2000100</v>
       </c>
       <c r="J31" s="1">
         <v>1</v>
@@ -2542,14 +2615,17 @@
       <c r="K31" s="1">
         <v>10</v>
       </c>
-      <c r="L31" s="1">
-        <v>2</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:14">
       <c r="C32" s="1">
         <v>2000101</v>
       </c>
@@ -2557,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32" s="1">
         <v>15</v>
@@ -2569,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>2000101</v>
       </c>
       <c r="J32" s="1">
         <v>1</v>
@@ -2577,14 +2653,17 @@
       <c r="K32" s="1">
         <v>10</v>
       </c>
-      <c r="L32" s="1">
-        <v>2</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>2</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:14">
       <c r="C33" s="1">
         <v>2000102</v>
       </c>
@@ -2592,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" s="1">
         <v>15</v>
@@ -2604,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="1">
-        <v>0</v>
+        <v>2000102</v>
       </c>
       <c r="J33" s="1">
         <v>1</v>
@@ -2612,14 +2691,17 @@
       <c r="K33" s="1">
         <v>10</v>
       </c>
-      <c r="L33" s="1">
-        <v>2</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:14">
       <c r="C34" s="1">
         <v>2000103</v>
       </c>
@@ -2627,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F34" s="1">
         <v>15</v>
@@ -2639,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="1">
-        <v>0</v>
+        <v>2000103</v>
       </c>
       <c r="J34" s="1">
         <v>1</v>
@@ -2647,14 +2729,17 @@
       <c r="K34" s="1">
         <v>10</v>
       </c>
-      <c r="L34" s="1">
-        <v>2</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:14">
       <c r="C35" s="1">
         <v>2000104</v>
       </c>
@@ -2662,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F35" s="1">
         <v>14</v>
@@ -2674,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="1">
-        <v>0</v>
+        <v>2000104</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -2682,14 +2767,17 @@
       <c r="K35" s="1">
         <v>10</v>
       </c>
-      <c r="L35" s="1">
-        <v>2</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
+        <v>2</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:14">
       <c r="C36" s="1">
         <v>2000105</v>
       </c>
@@ -2697,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F36" s="1">
         <v>14</v>
@@ -2709,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>2000105</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -2717,14 +2805,17 @@
       <c r="K36" s="1">
         <v>10</v>
       </c>
-      <c r="L36" s="1">
-        <v>2</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
+        <v>2</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="3:14">
       <c r="C37" s="1">
         <v>2000106</v>
       </c>
@@ -2732,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F37" s="1">
         <v>14</v>
@@ -2744,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="1">
-        <v>0</v>
+        <v>2000106</v>
       </c>
       <c r="J37" s="1">
         <v>1</v>
@@ -2752,14 +2843,17 @@
       <c r="K37" s="1">
         <v>10</v>
       </c>
-      <c r="L37" s="1">
-        <v>2</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
+        <v>2</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="3:14">
       <c r="C38" s="1">
         <v>2000107</v>
       </c>
@@ -2767,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F38" s="1">
         <v>14</v>
@@ -2779,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="1">
-        <v>0</v>
+        <v>2000107</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -2787,14 +2881,17 @@
       <c r="K38" s="1">
         <v>10</v>
       </c>
-      <c r="L38" s="1">
-        <v>2</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="3:13">
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1">
+        <v>2</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="3:14">
       <c r="C39" s="1">
         <v>2000108</v>
       </c>
@@ -2802,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F39" s="1">
         <v>16</v>
@@ -2814,7 +2911,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>2000108</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -2822,14 +2919,17 @@
       <c r="K39" s="1">
         <v>10</v>
       </c>
-      <c r="L39" s="1">
-        <v>2</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:13">
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1">
+        <v>2</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="3:14">
       <c r="C40" s="1">
         <v>2000109</v>
       </c>
@@ -2837,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F40" s="1">
         <v>16</v>
@@ -2849,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="1">
-        <v>0</v>
+        <v>2000109</v>
       </c>
       <c r="J40" s="1">
         <v>1</v>
@@ -2857,14 +2957,17 @@
       <c r="K40" s="1">
         <v>10</v>
       </c>
-      <c r="L40" s="1">
-        <v>2</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="3:13">
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1">
+        <v>2</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="3:14">
       <c r="C41" s="1">
         <v>2000110</v>
       </c>
@@ -2872,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41" s="1">
         <v>16</v>
@@ -2884,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="1">
-        <v>0</v>
+        <v>2000110</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -2892,14 +2995,17 @@
       <c r="K41" s="1">
         <v>10</v>
       </c>
-      <c r="L41" s="1">
-        <v>2</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:13">
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1">
+        <v>2</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="3:14">
       <c r="C42" s="1">
         <v>2000111</v>
       </c>
@@ -2907,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F42" s="1">
         <v>16</v>
@@ -2919,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <v>2000111</v>
       </c>
       <c r="J42" s="1">
         <v>1</v>
@@ -2927,14 +3033,17 @@
       <c r="K42" s="1">
         <v>10</v>
       </c>
-      <c r="L42" s="1">
-        <v>2</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" s="4" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
+        <v>2</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" customHeight="1" spans="3:14">
       <c r="C43" s="1">
         <v>2000112</v>
       </c>
@@ -2942,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F43" s="4">
         <v>15</v>
@@ -2954,7 +3063,7 @@
         <v>2</v>
       </c>
       <c r="I43" s="1">
-        <v>0</v>
+        <v>2000112</v>
       </c>
       <c r="J43" s="1">
         <v>2</v>
@@ -2962,14 +3071,17 @@
       <c r="K43" s="1">
         <v>10</v>
       </c>
-      <c r="L43" s="1">
-        <v>2</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" s="4" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L43" s="2">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>2</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" s="4" customFormat="1" customHeight="1" spans="3:14">
       <c r="C44" s="1">
         <v>2000113</v>
       </c>
@@ -2977,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F44" s="4">
         <v>15</v>
@@ -2989,7 +3101,7 @@
         <v>2</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>2000113</v>
       </c>
       <c r="J44" s="1">
         <v>2</v>
@@ -2997,14 +3109,17 @@
       <c r="K44" s="1">
         <v>10</v>
       </c>
-      <c r="L44" s="1">
-        <v>2</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" s="4" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1">
+        <v>2</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" s="4" customFormat="1" customHeight="1" spans="3:14">
       <c r="C45" s="1">
         <v>2000114</v>
       </c>
@@ -3012,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="4">
         <v>15</v>
@@ -3024,7 +3139,7 @@
         <v>2</v>
       </c>
       <c r="I45" s="1">
-        <v>0</v>
+        <v>2000114</v>
       </c>
       <c r="J45" s="1">
         <v>2</v>
@@ -3032,14 +3147,17 @@
       <c r="K45" s="1">
         <v>10</v>
       </c>
-      <c r="L45" s="1">
-        <v>2</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" s="4" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
+        <v>2</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" s="4" customFormat="1" customHeight="1" spans="3:14">
       <c r="C46" s="1">
         <v>2000115</v>
       </c>
@@ -3047,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F46" s="4">
         <v>14</v>
@@ -3059,7 +3177,7 @@
         <v>2</v>
       </c>
       <c r="I46" s="1">
-        <v>0</v>
+        <v>2000115</v>
       </c>
       <c r="J46" s="1">
         <v>2</v>
@@ -3067,14 +3185,17 @@
       <c r="K46" s="1">
         <v>10</v>
       </c>
-      <c r="L46" s="1">
-        <v>2</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" s="4" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L46" s="2">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1">
+        <v>2</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" s="4" customFormat="1" customHeight="1" spans="3:14">
       <c r="C47" s="1">
         <v>2000116</v>
       </c>
@@ -3082,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F47" s="4">
         <v>14</v>
@@ -3094,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="I47" s="1">
-        <v>0</v>
+        <v>2000116</v>
       </c>
       <c r="J47" s="1">
         <v>2</v>
@@ -3102,14 +3223,17 @@
       <c r="K47" s="1">
         <v>10</v>
       </c>
-      <c r="L47" s="1">
-        <v>2</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" s="4" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L47" s="2">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
+        <v>2</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" s="4" customFormat="1" customHeight="1" spans="3:14">
       <c r="C48" s="1">
         <v>2000117</v>
       </c>
@@ -3117,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F48" s="4">
         <v>14</v>
@@ -3129,7 +3253,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>2000117</v>
       </c>
       <c r="J48" s="1">
         <v>2</v>
@@ -3137,14 +3261,17 @@
       <c r="K48" s="1">
         <v>10</v>
       </c>
-      <c r="L48" s="1">
-        <v>2</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" s="4" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L48" s="2">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>2</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" s="4" customFormat="1" customHeight="1" spans="3:14">
       <c r="C49" s="1">
         <v>2000118</v>
       </c>
@@ -3152,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F49" s="4">
         <v>16</v>
@@ -3164,7 +3291,7 @@
         <v>2</v>
       </c>
       <c r="I49" s="1">
-        <v>0</v>
+        <v>2000118</v>
       </c>
       <c r="J49" s="1">
         <v>2</v>
@@ -3172,14 +3299,17 @@
       <c r="K49" s="1">
         <v>10</v>
       </c>
-      <c r="L49" s="1">
-        <v>2</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" s="4" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1">
+        <v>2</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" s="4" customFormat="1" customHeight="1" spans="3:14">
       <c r="C50" s="1">
         <v>2000119</v>
       </c>
@@ -3187,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F50" s="4">
         <v>16</v>
@@ -3199,7 +3329,7 @@
         <v>2</v>
       </c>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>2000119</v>
       </c>
       <c r="J50" s="1">
         <v>2</v>
@@ -3207,14 +3337,17 @@
       <c r="K50" s="1">
         <v>10</v>
       </c>
-      <c r="L50" s="1">
-        <v>2</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" s="4" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1">
+        <v>2</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" s="4" customFormat="1" customHeight="1" spans="3:14">
       <c r="C51" s="1">
         <v>2000120</v>
       </c>
@@ -3222,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F51" s="4">
         <v>16</v>
@@ -3234,7 +3367,7 @@
         <v>2</v>
       </c>
       <c r="I51" s="1">
-        <v>0</v>
+        <v>2000120</v>
       </c>
       <c r="J51" s="1">
         <v>2</v>
@@ -3242,14 +3375,17 @@
       <c r="K51" s="1">
         <v>10</v>
       </c>
-      <c r="L51" s="1">
-        <v>2</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="3:13">
+      <c r="L51" s="2">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1">
+        <v>2</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="3:14">
       <c r="C52" s="1">
         <v>2000121</v>
       </c>
@@ -3257,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F52" s="1">
         <v>15</v>
@@ -3269,7 +3405,7 @@
         <v>3</v>
       </c>
       <c r="I52" s="1">
-        <v>0</v>
+        <v>2000121</v>
       </c>
       <c r="J52" s="1">
         <v>3</v>
@@ -3277,14 +3413,17 @@
       <c r="K52" s="1">
         <v>10</v>
       </c>
-      <c r="L52" s="1">
-        <v>2</v>
-      </c>
-      <c r="M52" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="3:13">
+      <c r="L52" s="2">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1">
+        <v>2</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="3:14">
       <c r="C53" s="1">
         <v>2000122</v>
       </c>
@@ -3292,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F53" s="1">
         <v>15</v>
@@ -3304,7 +3443,7 @@
         <v>3</v>
       </c>
       <c r="I53" s="1">
-        <v>0</v>
+        <v>2000122</v>
       </c>
       <c r="J53" s="1">
         <v>3</v>
@@ -3312,14 +3451,17 @@
       <c r="K53" s="1">
         <v>10</v>
       </c>
-      <c r="L53" s="1">
-        <v>2</v>
-      </c>
-      <c r="M53" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="3:13">
+      <c r="L53" s="2">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1">
+        <v>2</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="3:14">
       <c r="C54" s="1">
         <v>2000123</v>
       </c>
@@ -3327,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F54" s="1">
         <v>14</v>
@@ -3339,7 +3481,7 @@
         <v>3</v>
       </c>
       <c r="I54" s="1">
-        <v>0</v>
+        <v>2000123</v>
       </c>
       <c r="J54" s="1">
         <v>3</v>
@@ -3347,14 +3489,17 @@
       <c r="K54" s="1">
         <v>10</v>
       </c>
-      <c r="L54" s="1">
-        <v>2</v>
-      </c>
-      <c r="M54" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="3:13">
+      <c r="L54" s="2">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1">
+        <v>2</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="3:14">
       <c r="C55" s="1">
         <v>2000124</v>
       </c>
@@ -3362,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F55" s="1">
         <v>14</v>
@@ -3374,7 +3519,7 @@
         <v>3</v>
       </c>
       <c r="I55" s="1">
-        <v>0</v>
+        <v>2000124</v>
       </c>
       <c r="J55" s="1">
         <v>3</v>
@@ -3382,14 +3527,17 @@
       <c r="K55" s="1">
         <v>10</v>
       </c>
-      <c r="L55" s="1">
-        <v>2</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="3:13">
+      <c r="L55" s="2">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1">
+        <v>2</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="3:14">
       <c r="C56" s="1">
         <v>2000125</v>
       </c>
@@ -3397,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F56" s="1">
         <v>16</v>
@@ -3409,7 +3557,7 @@
         <v>3</v>
       </c>
       <c r="I56" s="1">
-        <v>0</v>
+        <v>2000125</v>
       </c>
       <c r="J56" s="1">
         <v>3</v>
@@ -3417,14 +3565,17 @@
       <c r="K56" s="1">
         <v>10</v>
       </c>
-      <c r="L56" s="1">
-        <v>2</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="3:13">
+      <c r="L56" s="2">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1">
+        <v>2</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="3:14">
       <c r="C57" s="1">
         <v>2000126</v>
       </c>
@@ -3432,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F57" s="1">
         <v>16</v>
@@ -3444,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="I57" s="1">
-        <v>0</v>
+        <v>2000126</v>
       </c>
       <c r="J57" s="1">
         <v>3</v>
@@ -3452,14 +3603,17 @@
       <c r="K57" s="1">
         <v>10</v>
       </c>
-      <c r="L57" s="1">
-        <v>2</v>
-      </c>
-      <c r="M57" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" s="5" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L57" s="2">
+        <v>1</v>
+      </c>
+      <c r="M57" s="1">
+        <v>2</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" s="5" customFormat="1" customHeight="1" spans="3:14">
       <c r="C58" s="1">
         <v>2000127</v>
       </c>
@@ -3467,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F58" s="5">
         <v>15</v>
@@ -3479,7 +3633,7 @@
         <v>4</v>
       </c>
       <c r="I58" s="1">
-        <v>0</v>
+        <v>2000127</v>
       </c>
       <c r="J58" s="1">
         <v>4</v>
@@ -3487,14 +3641,17 @@
       <c r="K58" s="1">
         <v>10</v>
       </c>
-      <c r="L58" s="1">
-        <v>2</v>
-      </c>
-      <c r="M58" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" s="5" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L58" s="2">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1">
+        <v>2</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" s="5" customFormat="1" customHeight="1" spans="3:14">
       <c r="C59" s="1">
         <v>2000128</v>
       </c>
@@ -3502,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F59" s="5">
         <v>14</v>
@@ -3514,7 +3671,7 @@
         <v>4</v>
       </c>
       <c r="I59" s="1">
-        <v>0</v>
+        <v>2000128</v>
       </c>
       <c r="J59" s="1">
         <v>4</v>
@@ -3522,14 +3679,17 @@
       <c r="K59" s="1">
         <v>10</v>
       </c>
-      <c r="L59" s="1">
-        <v>2</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" s="5" customFormat="1" customHeight="1" spans="3:13">
+      <c r="L59" s="2">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1">
+        <v>2</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" s="5" customFormat="1" customHeight="1" spans="3:14">
       <c r="C60" s="1">
         <v>2000129</v>
       </c>
@@ -3537,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F60" s="5">
         <v>16</v>
@@ -3549,7 +3709,7 @@
         <v>4</v>
       </c>
       <c r="I60" s="1">
-        <v>0</v>
+        <v>2000129</v>
       </c>
       <c r="J60" s="1">
         <v>4</v>
@@ -3557,14 +3717,17 @@
       <c r="K60" s="1">
         <v>10</v>
       </c>
-      <c r="L60" s="1">
-        <v>2</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="3:13">
+      <c r="L60" s="2">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1">
+        <v>2</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="3:14">
       <c r="C62" s="1">
         <v>2000200</v>
       </c>
@@ -3572,7 +3735,7 @@
         <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F62" s="1">
         <v>15</v>
@@ -3584,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="1">
-        <v>0</v>
+        <v>2000200</v>
       </c>
       <c r="J62" s="1">
         <v>1</v>
@@ -3592,14 +3755,17 @@
       <c r="K62" s="1">
         <v>10</v>
       </c>
-      <c r="L62" s="1">
-        <v>2</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="3:13">
+      <c r="L62" s="2">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1">
+        <v>2</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="3:14">
       <c r="C63" s="1">
         <v>2000201</v>
       </c>
@@ -3607,7 +3773,7 @@
         <v>2</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F63" s="1">
         <v>15</v>
@@ -3619,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="I63" s="1">
-        <v>0</v>
+        <v>2000201</v>
       </c>
       <c r="J63" s="1">
         <v>1</v>
@@ -3627,14 +3793,17 @@
       <c r="K63" s="1">
         <v>10</v>
       </c>
-      <c r="L63" s="1">
-        <v>2</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="3:13">
+      <c r="L63" s="2">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1">
+        <v>2</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="3:14">
       <c r="C64" s="1">
         <v>2000202</v>
       </c>
@@ -3642,7 +3811,7 @@
         <v>2</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F64" s="1">
         <v>15</v>
@@ -3654,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="1">
-        <v>0</v>
+        <v>2000202</v>
       </c>
       <c r="J64" s="1">
         <v>1</v>
@@ -3662,14 +3831,17 @@
       <c r="K64" s="1">
         <v>10</v>
       </c>
-      <c r="L64" s="1">
-        <v>2</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:13">
+      <c r="L64" s="2">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1">
+        <v>2</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="3:14">
       <c r="C65" s="1">
         <v>2000203</v>
       </c>
@@ -3677,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F65" s="1">
         <v>15</v>
@@ -3689,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="1">
-        <v>0</v>
+        <v>2000203</v>
       </c>
       <c r="J65" s="1">
         <v>1</v>
@@ -3697,14 +3869,17 @@
       <c r="K65" s="1">
         <v>10</v>
       </c>
-      <c r="L65" s="1">
-        <v>2</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="3:13">
+      <c r="L65" s="2">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1">
+        <v>2</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="3:14">
       <c r="C66" s="1">
         <v>2000204</v>
       </c>
@@ -3712,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F66" s="1">
         <v>15</v>
@@ -3724,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="1">
-        <v>0</v>
+        <v>2000204</v>
       </c>
       <c r="J66" s="1">
         <v>1</v>
@@ -3732,14 +3907,17 @@
       <c r="K66" s="1">
         <v>10</v>
       </c>
-      <c r="L66" s="1">
-        <v>2</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="3:13">
+      <c r="L66" s="2">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1">
+        <v>2</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="3:14">
       <c r="C67" s="1">
         <v>2000205</v>
       </c>
@@ -3747,7 +3925,7 @@
         <v>2</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F67" s="1">
         <v>15</v>
@@ -3759,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="I67" s="1">
-        <v>0</v>
+        <v>2000205</v>
       </c>
       <c r="J67" s="1">
         <v>1</v>
@@ -3767,14 +3945,17 @@
       <c r="K67" s="1">
         <v>10</v>
       </c>
-      <c r="L67" s="1">
-        <v>2</v>
-      </c>
-      <c r="M67" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="3:13">
+      <c r="L67" s="2">
+        <v>1</v>
+      </c>
+      <c r="M67" s="1">
+        <v>2</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="3:14">
       <c r="C68" s="1">
         <v>2000206</v>
       </c>
@@ -3782,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F68" s="1">
         <v>15</v>
@@ -3794,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="I68" s="1">
-        <v>0</v>
+        <v>2000206</v>
       </c>
       <c r="J68" s="1">
         <v>1</v>
@@ -3802,14 +3983,17 @@
       <c r="K68" s="1">
         <v>10</v>
       </c>
-      <c r="L68" s="1">
-        <v>2</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="3:13">
+      <c r="L68" s="2">
+        <v>1</v>
+      </c>
+      <c r="M68" s="1">
+        <v>2</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="3:14">
       <c r="C69" s="1">
         <v>2000207</v>
       </c>
@@ -3817,7 +4001,7 @@
         <v>2</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F69" s="1">
         <v>16</v>
@@ -3829,7 +4013,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="1">
-        <v>0</v>
+        <v>2000207</v>
       </c>
       <c r="J69" s="1">
         <v>1</v>
@@ -3837,14 +4021,17 @@
       <c r="K69" s="1">
         <v>10</v>
       </c>
-      <c r="L69" s="1">
-        <v>2</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="3:13">
+      <c r="L69" s="2">
+        <v>1</v>
+      </c>
+      <c r="M69" s="1">
+        <v>2</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="3:14">
       <c r="C70" s="1">
         <v>2000208</v>
       </c>
@@ -3852,7 +4039,7 @@
         <v>2</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F70" s="1">
         <v>16</v>
@@ -3864,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="1">
-        <v>0</v>
+        <v>2000208</v>
       </c>
       <c r="J70" s="1">
         <v>1</v>
@@ -3872,14 +4059,17 @@
       <c r="K70" s="1">
         <v>10</v>
       </c>
-      <c r="L70" s="1">
-        <v>2</v>
-      </c>
-      <c r="M70" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="3:13">
+      <c r="L70" s="2">
+        <v>1</v>
+      </c>
+      <c r="M70" s="1">
+        <v>2</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="3:14">
       <c r="C71" s="1">
         <v>2000209</v>
       </c>
@@ -3887,7 +4077,7 @@
         <v>2</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F71" s="1">
         <v>16</v>
@@ -3899,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="1">
-        <v>0</v>
+        <v>2000209</v>
       </c>
       <c r="J71" s="1">
         <v>1</v>
@@ -3907,14 +4097,17 @@
       <c r="K71" s="1">
         <v>10</v>
       </c>
-      <c r="L71" s="1">
-        <v>2</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="3:13">
+      <c r="L71" s="2">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1">
+        <v>2</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="3:14">
       <c r="C72" s="1">
         <v>2000210</v>
       </c>
@@ -3922,7 +4115,7 @@
         <v>2</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F72" s="1">
         <v>16</v>
@@ -3934,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="1">
-        <v>0</v>
+        <v>2000210</v>
       </c>
       <c r="J72" s="1">
         <v>1</v>
@@ -3942,14 +4135,17 @@
       <c r="K72" s="1">
         <v>10</v>
       </c>
-      <c r="L72" s="1">
-        <v>2</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="3:13">
+      <c r="L72" s="2">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1">
+        <v>2</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="3:14">
       <c r="C73" s="1">
         <v>2000211</v>
       </c>
@@ -3957,7 +4153,7 @@
         <v>2</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F73" s="1">
         <v>16</v>
@@ -3969,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="1">
-        <v>0</v>
+        <v>2000211</v>
       </c>
       <c r="J73" s="1">
         <v>1</v>
@@ -3977,14 +4173,17 @@
       <c r="K73" s="1">
         <v>10</v>
       </c>
-      <c r="L73" s="1">
-        <v>2</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="3:13">
+      <c r="L73" s="2">
+        <v>1</v>
+      </c>
+      <c r="M73" s="1">
+        <v>2</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="3:14">
       <c r="C74" s="1">
         <v>2000212</v>
       </c>
@@ -3992,7 +4191,7 @@
         <v>2</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F74" s="4">
         <v>15</v>
@@ -4004,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="I74" s="1">
-        <v>0</v>
+        <v>2000212</v>
       </c>
       <c r="J74" s="1">
         <v>2</v>
@@ -4012,14 +4211,17 @@
       <c r="K74" s="1">
         <v>10</v>
       </c>
-      <c r="L74" s="1">
-        <v>2</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="3:13">
+      <c r="L74" s="2">
+        <v>1</v>
+      </c>
+      <c r="M74" s="1">
+        <v>2</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="3:14">
       <c r="C75" s="1">
         <v>2000213</v>
       </c>
@@ -4027,7 +4229,7 @@
         <v>2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F75" s="4">
         <v>15</v>
@@ -4039,7 +4241,7 @@
         <v>2</v>
       </c>
       <c r="I75" s="1">
-        <v>0</v>
+        <v>2000213</v>
       </c>
       <c r="J75" s="1">
         <v>2</v>
@@ -4047,14 +4249,17 @@
       <c r="K75" s="1">
         <v>10</v>
       </c>
-      <c r="L75" s="1">
-        <v>2</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="3:13">
+      <c r="L75" s="2">
+        <v>1</v>
+      </c>
+      <c r="M75" s="1">
+        <v>2</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="3:14">
       <c r="C76" s="1">
         <v>2000214</v>
       </c>
@@ -4062,7 +4267,7 @@
         <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F76" s="4">
         <v>15</v>
@@ -4074,7 +4279,7 @@
         <v>2</v>
       </c>
       <c r="I76" s="1">
-        <v>0</v>
+        <v>2000214</v>
       </c>
       <c r="J76" s="1">
         <v>2</v>
@@ -4082,14 +4287,17 @@
       <c r="K76" s="1">
         <v>10</v>
       </c>
-      <c r="L76" s="1">
-        <v>2</v>
-      </c>
-      <c r="M76" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="3:13">
+      <c r="L76" s="2">
+        <v>1</v>
+      </c>
+      <c r="M76" s="1">
+        <v>2</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="3:14">
       <c r="C77" s="1">
         <v>2000215</v>
       </c>
@@ -4097,7 +4305,7 @@
         <v>2</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F77" s="4">
         <v>15</v>
@@ -4109,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="I77" s="1">
-        <v>0</v>
+        <v>2000215</v>
       </c>
       <c r="J77" s="1">
         <v>2</v>
@@ -4117,14 +4325,17 @@
       <c r="K77" s="1">
         <v>10</v>
       </c>
-      <c r="L77" s="1">
-        <v>2</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="3:13">
+      <c r="L77" s="2">
+        <v>1</v>
+      </c>
+      <c r="M77" s="1">
+        <v>2</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="3:14">
       <c r="C78" s="1">
         <v>2000216</v>
       </c>
@@ -4132,7 +4343,7 @@
         <v>2</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F78" s="4">
         <v>15</v>
@@ -4144,7 +4355,7 @@
         <v>2</v>
       </c>
       <c r="I78" s="1">
-        <v>0</v>
+        <v>2000216</v>
       </c>
       <c r="J78" s="1">
         <v>2</v>
@@ -4152,14 +4363,17 @@
       <c r="K78" s="1">
         <v>10</v>
       </c>
-      <c r="L78" s="1">
-        <v>2</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="3:13">
+      <c r="L78" s="2">
+        <v>1</v>
+      </c>
+      <c r="M78" s="1">
+        <v>2</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="3:14">
       <c r="C79" s="1">
         <v>2000217</v>
       </c>
@@ -4167,7 +4381,7 @@
         <v>2</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F79" s="4">
         <v>16</v>
@@ -4179,7 +4393,7 @@
         <v>2</v>
       </c>
       <c r="I79" s="1">
-        <v>0</v>
+        <v>2000217</v>
       </c>
       <c r="J79" s="1">
         <v>2</v>
@@ -4187,14 +4401,17 @@
       <c r="K79" s="1">
         <v>10</v>
       </c>
-      <c r="L79" s="1">
-        <v>2</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="3:13">
+      <c r="L79" s="2">
+        <v>1</v>
+      </c>
+      <c r="M79" s="1">
+        <v>2</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="3:14">
       <c r="C80" s="1">
         <v>2000218</v>
       </c>
@@ -4202,7 +4419,7 @@
         <v>2</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F80" s="4">
         <v>16</v>
@@ -4214,7 +4431,7 @@
         <v>2</v>
       </c>
       <c r="I80" s="1">
-        <v>0</v>
+        <v>2000218</v>
       </c>
       <c r="J80" s="1">
         <v>2</v>
@@ -4222,14 +4439,17 @@
       <c r="K80" s="1">
         <v>10</v>
       </c>
-      <c r="L80" s="1">
-        <v>2</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="3:13">
+      <c r="L80" s="2">
+        <v>1</v>
+      </c>
+      <c r="M80" s="1">
+        <v>2</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="3:14">
       <c r="C81" s="1">
         <v>2000219</v>
       </c>
@@ -4237,7 +4457,7 @@
         <v>2</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F81" s="4">
         <v>16</v>
@@ -4249,7 +4469,7 @@
         <v>2</v>
       </c>
       <c r="I81" s="1">
-        <v>0</v>
+        <v>2000219</v>
       </c>
       <c r="J81" s="1">
         <v>2</v>
@@ -4257,14 +4477,17 @@
       <c r="K81" s="1">
         <v>10</v>
       </c>
-      <c r="L81" s="1">
-        <v>2</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="3:13">
+      <c r="L81" s="2">
+        <v>1</v>
+      </c>
+      <c r="M81" s="1">
+        <v>2</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="3:14">
       <c r="C82" s="1">
         <v>2000220</v>
       </c>
@@ -4272,7 +4495,7 @@
         <v>2</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F82" s="4">
         <v>16</v>
@@ -4284,7 +4507,7 @@
         <v>2</v>
       </c>
       <c r="I82" s="1">
-        <v>0</v>
+        <v>2000220</v>
       </c>
       <c r="J82" s="1">
         <v>2</v>
@@ -4292,14 +4515,17 @@
       <c r="K82" s="1">
         <v>10</v>
       </c>
-      <c r="L82" s="1">
-        <v>2</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="3:13">
+      <c r="L82" s="2">
+        <v>1</v>
+      </c>
+      <c r="M82" s="1">
+        <v>2</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="3:14">
       <c r="C83" s="1">
         <v>2000221</v>
       </c>
@@ -4307,7 +4533,7 @@
         <v>2</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F83" s="1">
         <v>15</v>
@@ -4319,7 +4545,7 @@
         <v>3</v>
       </c>
       <c r="I83" s="1">
-        <v>0</v>
+        <v>2000221</v>
       </c>
       <c r="J83" s="1">
         <v>3</v>
@@ -4327,14 +4553,17 @@
       <c r="K83" s="1">
         <v>10</v>
       </c>
-      <c r="L83" s="1">
-        <v>2</v>
-      </c>
-      <c r="M83" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="3:13">
+      <c r="L83" s="2">
+        <v>1</v>
+      </c>
+      <c r="M83" s="1">
+        <v>2</v>
+      </c>
+      <c r="N83" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:14">
       <c r="C84" s="1">
         <v>2000222</v>
       </c>
@@ -4342,7 +4571,7 @@
         <v>2</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F84" s="1">
         <v>15</v>
@@ -4354,7 +4583,7 @@
         <v>3</v>
       </c>
       <c r="I84" s="1">
-        <v>0</v>
+        <v>2000222</v>
       </c>
       <c r="J84" s="1">
         <v>3</v>
@@ -4362,14 +4591,17 @@
       <c r="K84" s="1">
         <v>10</v>
       </c>
-      <c r="L84" s="1">
-        <v>2</v>
-      </c>
-      <c r="M84" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="3:13">
+      <c r="L84" s="2">
+        <v>1</v>
+      </c>
+      <c r="M84" s="1">
+        <v>2</v>
+      </c>
+      <c r="N84" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="3:14">
       <c r="C85" s="1">
         <v>2000223</v>
       </c>
@@ -4377,7 +4609,7 @@
         <v>2</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F85" s="1">
         <v>15</v>
@@ -4389,7 +4621,7 @@
         <v>3</v>
       </c>
       <c r="I85" s="1">
-        <v>0</v>
+        <v>2000223</v>
       </c>
       <c r="J85" s="1">
         <v>3</v>
@@ -4397,14 +4629,17 @@
       <c r="K85" s="1">
         <v>10</v>
       </c>
-      <c r="L85" s="1">
-        <v>2</v>
-      </c>
-      <c r="M85" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="3:13">
+      <c r="L85" s="2">
+        <v>1</v>
+      </c>
+      <c r="M85" s="1">
+        <v>2</v>
+      </c>
+      <c r="N85" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="3:14">
       <c r="C86" s="1">
         <v>2000224</v>
       </c>
@@ -4412,7 +4647,7 @@
         <v>2</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F86" s="1">
         <v>15</v>
@@ -4424,7 +4659,7 @@
         <v>3</v>
       </c>
       <c r="I86" s="1">
-        <v>0</v>
+        <v>2000224</v>
       </c>
       <c r="J86" s="1">
         <v>3</v>
@@ -4432,14 +4667,17 @@
       <c r="K86" s="1">
         <v>10</v>
       </c>
-      <c r="L86" s="1">
-        <v>2</v>
-      </c>
-      <c r="M86" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="3:13">
+      <c r="L86" s="2">
+        <v>1</v>
+      </c>
+      <c r="M86" s="1">
+        <v>2</v>
+      </c>
+      <c r="N86" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="3:14">
       <c r="C87" s="1">
         <v>2000225</v>
       </c>
@@ -4447,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F87" s="1">
         <v>16</v>
@@ -4459,7 +4697,7 @@
         <v>3</v>
       </c>
       <c r="I87" s="1">
-        <v>0</v>
+        <v>2000225</v>
       </c>
       <c r="J87" s="1">
         <v>3</v>
@@ -4467,14 +4705,17 @@
       <c r="K87" s="1">
         <v>10</v>
       </c>
-      <c r="L87" s="1">
-        <v>2</v>
-      </c>
-      <c r="M87" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="3:13">
+      <c r="L87" s="2">
+        <v>1</v>
+      </c>
+      <c r="M87" s="1">
+        <v>2</v>
+      </c>
+      <c r="N87" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="3:14">
       <c r="C88" s="1">
         <v>2000226</v>
       </c>
@@ -4482,7 +4723,7 @@
         <v>2</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F88" s="1">
         <v>16</v>
@@ -4494,7 +4735,7 @@
         <v>3</v>
       </c>
       <c r="I88" s="1">
-        <v>0</v>
+        <v>2000226</v>
       </c>
       <c r="J88" s="1">
         <v>3</v>
@@ -4502,14 +4743,17 @@
       <c r="K88" s="1">
         <v>10</v>
       </c>
-      <c r="L88" s="1">
-        <v>2</v>
-      </c>
-      <c r="M88" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="3:13">
+      <c r="L88" s="2">
+        <v>1</v>
+      </c>
+      <c r="M88" s="1">
+        <v>2</v>
+      </c>
+      <c r="N88" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:14">
       <c r="C89" s="1">
         <v>2000227</v>
       </c>
@@ -4517,7 +4761,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F89" s="5">
         <v>15</v>
@@ -4529,7 +4773,7 @@
         <v>4</v>
       </c>
       <c r="I89" s="1">
-        <v>0</v>
+        <v>2000227</v>
       </c>
       <c r="J89" s="1">
         <v>4</v>
@@ -4537,14 +4781,17 @@
       <c r="K89" s="1">
         <v>10</v>
       </c>
-      <c r="L89" s="1">
-        <v>2</v>
-      </c>
-      <c r="M89" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="3:13">
+      <c r="L89" s="2">
+        <v>1</v>
+      </c>
+      <c r="M89" s="1">
+        <v>2</v>
+      </c>
+      <c r="N89" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="3:14">
       <c r="C90" s="1">
         <v>2000228</v>
       </c>
@@ -4552,7 +4799,7 @@
         <v>2</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F90" s="5">
         <v>15</v>
@@ -4564,7 +4811,7 @@
         <v>4</v>
       </c>
       <c r="I90" s="1">
-        <v>0</v>
+        <v>2000228</v>
       </c>
       <c r="J90" s="1">
         <v>4</v>
@@ -4572,14 +4819,17 @@
       <c r="K90" s="1">
         <v>10</v>
       </c>
-      <c r="L90" s="1">
-        <v>2</v>
-      </c>
-      <c r="M90" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="3:13">
+      <c r="L90" s="2">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1">
+        <v>2</v>
+      </c>
+      <c r="N90" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="3:14">
       <c r="C91" s="1">
         <v>2000229</v>
       </c>
@@ -4587,7 +4837,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F91" s="5">
         <v>16</v>
@@ -4599,7 +4849,7 @@
         <v>4</v>
       </c>
       <c r="I91" s="1">
-        <v>0</v>
+        <v>2000229</v>
       </c>
       <c r="J91" s="1">
         <v>4</v>
@@ -4607,14 +4857,17 @@
       <c r="K91" s="1">
         <v>10</v>
       </c>
-      <c r="L91" s="1">
-        <v>2</v>
-      </c>
-      <c r="M91" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="3:13">
+      <c r="L91" s="2">
+        <v>1</v>
+      </c>
+      <c r="M91" s="1">
+        <v>2</v>
+      </c>
+      <c r="N91" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="3:14">
       <c r="C94" s="1">
         <v>2000300</v>
       </c>
@@ -4622,7 +4875,7 @@
         <v>3</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F94" s="1">
         <v>15</v>
@@ -4634,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="I94" s="1">
-        <v>0</v>
+        <v>2000300</v>
       </c>
       <c r="J94" s="1">
         <v>1</v>
@@ -4642,14 +4895,17 @@
       <c r="K94" s="1">
         <v>10</v>
       </c>
-      <c r="L94" s="1">
-        <v>2</v>
-      </c>
-      <c r="M94" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="3:13">
+      <c r="L94" s="2">
+        <v>1</v>
+      </c>
+      <c r="M94" s="1">
+        <v>2</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="3:14">
       <c r="C95" s="1">
         <v>2000301</v>
       </c>
@@ -4657,7 +4913,7 @@
         <v>3</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F95" s="1">
         <v>15</v>
@@ -4669,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="I95" s="1">
-        <v>0</v>
+        <v>2000301</v>
       </c>
       <c r="J95" s="1">
         <v>1</v>
@@ -4677,14 +4933,17 @@
       <c r="K95" s="1">
         <v>10</v>
       </c>
-      <c r="L95" s="1">
-        <v>2</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="3:13">
+      <c r="L95" s="2">
+        <v>1</v>
+      </c>
+      <c r="M95" s="1">
+        <v>2</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="3:14">
       <c r="C96" s="1">
         <v>2000302</v>
       </c>
@@ -4692,7 +4951,7 @@
         <v>3</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F96" s="1">
         <v>15</v>
@@ -4704,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="I96" s="1">
-        <v>0</v>
+        <v>2000302</v>
       </c>
       <c r="J96" s="1">
         <v>1</v>
@@ -4712,14 +4971,17 @@
       <c r="K96" s="1">
         <v>10</v>
       </c>
-      <c r="L96" s="1">
-        <v>2</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="3:13">
+      <c r="L96" s="2">
+        <v>1</v>
+      </c>
+      <c r="M96" s="1">
+        <v>2</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="3:14">
       <c r="C97" s="1">
         <v>2000303</v>
       </c>
@@ -4727,7 +4989,7 @@
         <v>3</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F97" s="1">
         <v>15</v>
@@ -4739,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="I97" s="1">
-        <v>0</v>
+        <v>2000303</v>
       </c>
       <c r="J97" s="1">
         <v>1</v>
@@ -4747,14 +5009,17 @@
       <c r="K97" s="1">
         <v>10</v>
       </c>
-      <c r="L97" s="1">
-        <v>2</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="3:13">
+      <c r="L97" s="2">
+        <v>1</v>
+      </c>
+      <c r="M97" s="1">
+        <v>2</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="3:14">
       <c r="C98" s="1">
         <v>2000304</v>
       </c>
@@ -4762,7 +5027,7 @@
         <v>3</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F98" s="1">
         <v>14</v>
@@ -4774,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="I98" s="1">
-        <v>0</v>
+        <v>2000304</v>
       </c>
       <c r="J98" s="1">
         <v>1</v>
@@ -4782,14 +5047,17 @@
       <c r="K98" s="1">
         <v>10</v>
       </c>
-      <c r="L98" s="1">
-        <v>2</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="3:13">
+      <c r="L98" s="2">
+        <v>1</v>
+      </c>
+      <c r="M98" s="1">
+        <v>2</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="3:14">
       <c r="C99" s="1">
         <v>2000305</v>
       </c>
@@ -4797,7 +5065,7 @@
         <v>3</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F99" s="1">
         <v>14</v>
@@ -4809,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="I99" s="1">
-        <v>0</v>
+        <v>2000305</v>
       </c>
       <c r="J99" s="1">
         <v>1</v>
@@ -4817,14 +5085,17 @@
       <c r="K99" s="1">
         <v>10</v>
       </c>
-      <c r="L99" s="1">
-        <v>2</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="3:13">
+      <c r="L99" s="2">
+        <v>1</v>
+      </c>
+      <c r="M99" s="1">
+        <v>2</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="3:14">
       <c r="C100" s="1">
         <v>2000306</v>
       </c>
@@ -4832,7 +5103,7 @@
         <v>3</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F100" s="1">
         <v>14</v>
@@ -4844,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="1">
-        <v>0</v>
+        <v>2000306</v>
       </c>
       <c r="J100" s="1">
         <v>1</v>
@@ -4852,14 +5123,17 @@
       <c r="K100" s="1">
         <v>10</v>
       </c>
-      <c r="L100" s="1">
-        <v>2</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="3:13">
+      <c r="L100" s="2">
+        <v>1</v>
+      </c>
+      <c r="M100" s="1">
+        <v>2</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="3:14">
       <c r="C101" s="1">
         <v>2000307</v>
       </c>
@@ -4867,7 +5141,7 @@
         <v>3</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F101" s="1">
         <v>14</v>
@@ -4879,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="I101" s="1">
-        <v>0</v>
+        <v>2000307</v>
       </c>
       <c r="J101" s="1">
         <v>1</v>
@@ -4887,14 +5161,17 @@
       <c r="K101" s="1">
         <v>10</v>
       </c>
-      <c r="L101" s="1">
-        <v>2</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="3:13">
+      <c r="L101" s="2">
+        <v>1</v>
+      </c>
+      <c r="M101" s="1">
+        <v>2</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="3:14">
       <c r="C102" s="1">
         <v>2000308</v>
       </c>
@@ -4902,7 +5179,7 @@
         <v>3</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F102" s="1">
         <v>16</v>
@@ -4914,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="I102" s="1">
-        <v>0</v>
+        <v>2000308</v>
       </c>
       <c r="J102" s="1">
         <v>1</v>
@@ -4922,14 +5199,17 @@
       <c r="K102" s="1">
         <v>10</v>
       </c>
-      <c r="L102" s="1">
-        <v>2</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="3:13">
+      <c r="L102" s="2">
+        <v>1</v>
+      </c>
+      <c r="M102" s="1">
+        <v>2</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="3:14">
       <c r="C103" s="1">
         <v>2000309</v>
       </c>
@@ -4937,7 +5217,7 @@
         <v>3</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F103" s="1">
         <v>16</v>
@@ -4949,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="1">
-        <v>0</v>
+        <v>2000309</v>
       </c>
       <c r="J103" s="1">
         <v>1</v>
@@ -4957,14 +5237,17 @@
       <c r="K103" s="1">
         <v>10</v>
       </c>
-      <c r="L103" s="1">
-        <v>2</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" customHeight="1" spans="3:13">
+      <c r="L103" s="2">
+        <v>1</v>
+      </c>
+      <c r="M103" s="1">
+        <v>2</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="3:14">
       <c r="C104" s="1">
         <v>2000310</v>
       </c>
@@ -4972,7 +5255,7 @@
         <v>3</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F104" s="1">
         <v>16</v>
@@ -4984,7 +5267,7 @@
         <v>1</v>
       </c>
       <c r="I104" s="1">
-        <v>0</v>
+        <v>2000310</v>
       </c>
       <c r="J104" s="1">
         <v>1</v>
@@ -4992,14 +5275,17 @@
       <c r="K104" s="1">
         <v>10</v>
       </c>
-      <c r="L104" s="1">
-        <v>2</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="3:13">
+      <c r="L104" s="2">
+        <v>1</v>
+      </c>
+      <c r="M104" s="1">
+        <v>2</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="3:14">
       <c r="C105" s="1">
         <v>2000311</v>
       </c>
@@ -5007,7 +5293,7 @@
         <v>3</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F105" s="1">
         <v>16</v>
@@ -5019,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="I105" s="1">
-        <v>0</v>
+        <v>2000311</v>
       </c>
       <c r="J105" s="1">
         <v>1</v>
@@ -5027,14 +5313,17 @@
       <c r="K105" s="1">
         <v>10</v>
       </c>
-      <c r="L105" s="1">
-        <v>2</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="3:13">
+      <c r="L105" s="2">
+        <v>1</v>
+      </c>
+      <c r="M105" s="1">
+        <v>2</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="3:14">
       <c r="C106" s="1">
         <v>2000312</v>
       </c>
@@ -5042,7 +5331,7 @@
         <v>3</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F106" s="4">
         <v>15</v>
@@ -5054,7 +5343,7 @@
         <v>2</v>
       </c>
       <c r="I106" s="1">
-        <v>0</v>
+        <v>2000312</v>
       </c>
       <c r="J106" s="1">
         <v>2</v>
@@ -5062,14 +5351,17 @@
       <c r="K106" s="1">
         <v>10</v>
       </c>
-      <c r="L106" s="1">
-        <v>2</v>
-      </c>
-      <c r="M106" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="107" customHeight="1" spans="3:13">
+      <c r="L106" s="2">
+        <v>1</v>
+      </c>
+      <c r="M106" s="1">
+        <v>2</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="3:14">
       <c r="C107" s="1">
         <v>2000313</v>
       </c>
@@ -5077,7 +5369,7 @@
         <v>3</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F107" s="4">
         <v>15</v>
@@ -5089,7 +5381,7 @@
         <v>2</v>
       </c>
       <c r="I107" s="1">
-        <v>0</v>
+        <v>2000313</v>
       </c>
       <c r="J107" s="1">
         <v>2</v>
@@ -5097,14 +5389,17 @@
       <c r="K107" s="1">
         <v>10</v>
       </c>
-      <c r="L107" s="1">
-        <v>2</v>
-      </c>
-      <c r="M107" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="108" customHeight="1" spans="3:13">
+      <c r="L107" s="2">
+        <v>1</v>
+      </c>
+      <c r="M107" s="1">
+        <v>2</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="3:14">
       <c r="C108" s="1">
         <v>2000314</v>
       </c>
@@ -5112,7 +5407,7 @@
         <v>3</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F108" s="4">
         <v>15</v>
@@ -5124,7 +5419,7 @@
         <v>2</v>
       </c>
       <c r="I108" s="1">
-        <v>0</v>
+        <v>2000314</v>
       </c>
       <c r="J108" s="1">
         <v>2</v>
@@ -5132,14 +5427,17 @@
       <c r="K108" s="1">
         <v>10</v>
       </c>
-      <c r="L108" s="1">
-        <v>2</v>
-      </c>
-      <c r="M108" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="3:13">
+      <c r="L108" s="2">
+        <v>1</v>
+      </c>
+      <c r="M108" s="1">
+        <v>2</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="3:14">
       <c r="C109" s="1">
         <v>2000315</v>
       </c>
@@ -5147,7 +5445,7 @@
         <v>3</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F109" s="4">
         <v>14</v>
@@ -5159,7 +5457,7 @@
         <v>2</v>
       </c>
       <c r="I109" s="1">
-        <v>0</v>
+        <v>2000315</v>
       </c>
       <c r="J109" s="1">
         <v>2</v>
@@ -5167,14 +5465,17 @@
       <c r="K109" s="1">
         <v>10</v>
       </c>
-      <c r="L109" s="1">
-        <v>2</v>
-      </c>
-      <c r="M109" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="3:13">
+      <c r="L109" s="2">
+        <v>1</v>
+      </c>
+      <c r="M109" s="1">
+        <v>2</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="3:14">
       <c r="C110" s="1">
         <v>2000316</v>
       </c>
@@ -5182,7 +5483,7 @@
         <v>3</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F110" s="4">
         <v>14</v>
@@ -5194,7 +5495,7 @@
         <v>2</v>
       </c>
       <c r="I110" s="1">
-        <v>0</v>
+        <v>2000316</v>
       </c>
       <c r="J110" s="1">
         <v>2</v>
@@ -5202,14 +5503,17 @@
       <c r="K110" s="1">
         <v>10</v>
       </c>
-      <c r="L110" s="1">
-        <v>2</v>
-      </c>
-      <c r="M110" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" customHeight="1" spans="3:13">
+      <c r="L110" s="2">
+        <v>1</v>
+      </c>
+      <c r="M110" s="1">
+        <v>2</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="3:14">
       <c r="C111" s="1">
         <v>2000317</v>
       </c>
@@ -5217,7 +5521,7 @@
         <v>3</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F111" s="4">
         <v>14</v>
@@ -5229,7 +5533,7 @@
         <v>2</v>
       </c>
       <c r="I111" s="1">
-        <v>0</v>
+        <v>2000317</v>
       </c>
       <c r="J111" s="1">
         <v>2</v>
@@ -5237,14 +5541,17 @@
       <c r="K111" s="1">
         <v>10</v>
       </c>
-      <c r="L111" s="1">
-        <v>2</v>
-      </c>
-      <c r="M111" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" customHeight="1" spans="3:13">
+      <c r="L111" s="2">
+        <v>1</v>
+      </c>
+      <c r="M111" s="1">
+        <v>2</v>
+      </c>
+      <c r="N111" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="3:14">
       <c r="C112" s="1">
         <v>2000318</v>
       </c>
@@ -5252,7 +5559,7 @@
         <v>3</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F112" s="4">
         <v>16</v>
@@ -5264,7 +5571,7 @@
         <v>2</v>
       </c>
       <c r="I112" s="1">
-        <v>0</v>
+        <v>2000318</v>
       </c>
       <c r="J112" s="1">
         <v>2</v>
@@ -5272,14 +5579,17 @@
       <c r="K112" s="1">
         <v>10</v>
       </c>
-      <c r="L112" s="1">
-        <v>2</v>
-      </c>
-      <c r="M112" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="113" customHeight="1" spans="3:13">
+      <c r="L112" s="2">
+        <v>1</v>
+      </c>
+      <c r="M112" s="1">
+        <v>2</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="3:14">
       <c r="C113" s="1">
         <v>2000319</v>
       </c>
@@ -5287,7 +5597,7 @@
         <v>3</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F113" s="4">
         <v>16</v>
@@ -5299,7 +5609,7 @@
         <v>2</v>
       </c>
       <c r="I113" s="1">
-        <v>0</v>
+        <v>2000319</v>
       </c>
       <c r="J113" s="1">
         <v>2</v>
@@ -5307,14 +5617,17 @@
       <c r="K113" s="1">
         <v>10</v>
       </c>
-      <c r="L113" s="1">
-        <v>2</v>
-      </c>
-      <c r="M113" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="114" customHeight="1" spans="3:13">
+      <c r="L113" s="2">
+        <v>1</v>
+      </c>
+      <c r="M113" s="1">
+        <v>2</v>
+      </c>
+      <c r="N113" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="3:14">
       <c r="C114" s="1">
         <v>2000320</v>
       </c>
@@ -5322,7 +5635,7 @@
         <v>3</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F114" s="4">
         <v>16</v>
@@ -5334,7 +5647,7 @@
         <v>2</v>
       </c>
       <c r="I114" s="1">
-        <v>0</v>
+        <v>2000320</v>
       </c>
       <c r="J114" s="1">
         <v>2</v>
@@ -5342,14 +5655,17 @@
       <c r="K114" s="1">
         <v>10</v>
       </c>
-      <c r="L114" s="1">
-        <v>2</v>
-      </c>
-      <c r="M114" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="115" customHeight="1" spans="3:13">
+      <c r="L114" s="2">
+        <v>1</v>
+      </c>
+      <c r="M114" s="1">
+        <v>2</v>
+      </c>
+      <c r="N114" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="3:14">
       <c r="C115" s="1">
         <v>2000321</v>
       </c>
@@ -5357,7 +5673,7 @@
         <v>3</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F115" s="1">
         <v>15</v>
@@ -5369,7 +5685,7 @@
         <v>3</v>
       </c>
       <c r="I115" s="1">
-        <v>0</v>
+        <v>2000321</v>
       </c>
       <c r="J115" s="1">
         <v>3</v>
@@ -5377,14 +5693,17 @@
       <c r="K115" s="1">
         <v>10</v>
       </c>
-      <c r="L115" s="1">
-        <v>2</v>
-      </c>
-      <c r="M115" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="116" customHeight="1" spans="3:13">
+      <c r="L115" s="2">
+        <v>1</v>
+      </c>
+      <c r="M115" s="1">
+        <v>2</v>
+      </c>
+      <c r="N115" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="3:14">
       <c r="C116" s="1">
         <v>2000322</v>
       </c>
@@ -5392,7 +5711,7 @@
         <v>3</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F116" s="1">
         <v>15</v>
@@ -5404,7 +5723,7 @@
         <v>3</v>
       </c>
       <c r="I116" s="1">
-        <v>0</v>
+        <v>2000322</v>
       </c>
       <c r="J116" s="1">
         <v>3</v>
@@ -5412,14 +5731,17 @@
       <c r="K116" s="1">
         <v>10</v>
       </c>
-      <c r="L116" s="1">
-        <v>2</v>
-      </c>
-      <c r="M116" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="117" customHeight="1" spans="3:13">
+      <c r="L116" s="2">
+        <v>1</v>
+      </c>
+      <c r="M116" s="1">
+        <v>2</v>
+      </c>
+      <c r="N116" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="3:14">
       <c r="C117" s="1">
         <v>2000323</v>
       </c>
@@ -5427,7 +5749,7 @@
         <v>3</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F117" s="1">
         <v>14</v>
@@ -5439,7 +5761,7 @@
         <v>3</v>
       </c>
       <c r="I117" s="1">
-        <v>0</v>
+        <v>2000323</v>
       </c>
       <c r="J117" s="1">
         <v>3</v>
@@ -5447,14 +5769,17 @@
       <c r="K117" s="1">
         <v>10</v>
       </c>
-      <c r="L117" s="1">
-        <v>2</v>
-      </c>
-      <c r="M117" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" customHeight="1" spans="3:13">
+      <c r="L117" s="2">
+        <v>1</v>
+      </c>
+      <c r="M117" s="1">
+        <v>2</v>
+      </c>
+      <c r="N117" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="3:14">
       <c r="C118" s="1">
         <v>2000324</v>
       </c>
@@ -5462,7 +5787,7 @@
         <v>3</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F118" s="1">
         <v>14</v>
@@ -5474,7 +5799,7 @@
         <v>3</v>
       </c>
       <c r="I118" s="1">
-        <v>0</v>
+        <v>2000324</v>
       </c>
       <c r="J118" s="1">
         <v>3</v>
@@ -5482,14 +5807,17 @@
       <c r="K118" s="1">
         <v>10</v>
       </c>
-      <c r="L118" s="1">
-        <v>2</v>
-      </c>
-      <c r="M118" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" customHeight="1" spans="3:13">
+      <c r="L118" s="2">
+        <v>1</v>
+      </c>
+      <c r="M118" s="1">
+        <v>2</v>
+      </c>
+      <c r="N118" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="3:14">
       <c r="C119" s="1">
         <v>2000325</v>
       </c>
@@ -5497,7 +5825,7 @@
         <v>3</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F119" s="1">
         <v>16</v>
@@ -5509,7 +5837,7 @@
         <v>3</v>
       </c>
       <c r="I119" s="1">
-        <v>0</v>
+        <v>2000325</v>
       </c>
       <c r="J119" s="1">
         <v>3</v>
@@ -5517,14 +5845,17 @@
       <c r="K119" s="1">
         <v>10</v>
       </c>
-      <c r="L119" s="1">
-        <v>2</v>
-      </c>
-      <c r="M119" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="120" customHeight="1" spans="3:13">
+      <c r="L119" s="2">
+        <v>1</v>
+      </c>
+      <c r="M119" s="1">
+        <v>2</v>
+      </c>
+      <c r="N119" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="3:14">
       <c r="C120" s="1">
         <v>2000326</v>
       </c>
@@ -5532,7 +5863,7 @@
         <v>3</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F120" s="1">
         <v>16</v>
@@ -5544,7 +5875,7 @@
         <v>3</v>
       </c>
       <c r="I120" s="1">
-        <v>0</v>
+        <v>2000326</v>
       </c>
       <c r="J120" s="1">
         <v>3</v>
@@ -5552,14 +5883,17 @@
       <c r="K120" s="1">
         <v>10</v>
       </c>
-      <c r="L120" s="1">
-        <v>2</v>
-      </c>
-      <c r="M120" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="121" customHeight="1" spans="3:13">
+      <c r="L120" s="2">
+        <v>1</v>
+      </c>
+      <c r="M120" s="1">
+        <v>2</v>
+      </c>
+      <c r="N120" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="3:14">
       <c r="C121" s="1">
         <v>2000327</v>
       </c>
@@ -5567,7 +5901,7 @@
         <v>3</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F121" s="5">
         <v>15</v>
@@ -5579,7 +5913,7 @@
         <v>4</v>
       </c>
       <c r="I121" s="1">
-        <v>0</v>
+        <v>2000327</v>
       </c>
       <c r="J121" s="1">
         <v>4</v>
@@ -5587,14 +5921,17 @@
       <c r="K121" s="1">
         <v>10</v>
       </c>
-      <c r="L121" s="1">
-        <v>2</v>
-      </c>
-      <c r="M121" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="122" customHeight="1" spans="3:13">
+      <c r="L121" s="2">
+        <v>1</v>
+      </c>
+      <c r="M121" s="1">
+        <v>2</v>
+      </c>
+      <c r="N121" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="3:14">
       <c r="C122" s="1">
         <v>2000328</v>
       </c>
@@ -5602,7 +5939,7 @@
         <v>3</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F122" s="5">
         <v>14</v>
@@ -5614,7 +5951,7 @@
         <v>4</v>
       </c>
       <c r="I122" s="1">
-        <v>0</v>
+        <v>2000328</v>
       </c>
       <c r="J122" s="1">
         <v>4</v>
@@ -5622,14 +5959,17 @@
       <c r="K122" s="1">
         <v>10</v>
       </c>
-      <c r="L122" s="1">
-        <v>2</v>
-      </c>
-      <c r="M122" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" customHeight="1" spans="3:13">
+      <c r="L122" s="2">
+        <v>1</v>
+      </c>
+      <c r="M122" s="1">
+        <v>2</v>
+      </c>
+      <c r="N122" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="3:14">
       <c r="C123" s="1">
         <v>2000329</v>
       </c>
@@ -5637,7 +5977,7 @@
         <v>3</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F123" s="5">
         <v>16</v>
@@ -5649,7 +5989,7 @@
         <v>4</v>
       </c>
       <c r="I123" s="1">
-        <v>0</v>
+        <v>2000329</v>
       </c>
       <c r="J123" s="1">
         <v>4</v>
@@ -5657,11 +5997,14 @@
       <c r="K123" s="1">
         <v>10</v>
       </c>
-      <c r="L123" s="1">
-        <v>2</v>
-      </c>
-      <c r="M123" s="5" t="s">
-        <v>28</v>
+      <c r="L123" s="2">
+        <v>1</v>
+      </c>
+      <c r="M123" s="1">
+        <v>2</v>
+      </c>
+      <c r="N123" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -1444,7 +1444,7 @@
   <dimension ref="A3:Y123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>

--- a/Excel/CardConfig.xlsx
+++ b/Excel/CardConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="定制配置" sheetId="2" r:id="rId1"/>
@@ -1443,8 +1443,8 @@
   <sheetPr/>
   <dimension ref="A3:Y123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1570,47 +1570,71 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:14">
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+    <row r="6" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" customFormat="1" customHeight="1" spans="1:22">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:25">
       <c r="A9" s="3"/>
@@ -6009,7 +6033,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3 E3 C4:C5 C6:C8 D3:D5 D6:D8 E4:E5 E6:E8" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="C3:E5" errorStyle="warning">
       <formula1>COUNTIF($C:$C,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
